--- a/week_02_tutorial/data_output/week_2_tutorial_myname.xlsx
+++ b/week_02_tutorial/data_output/week_2_tutorial_myname.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="flow_driven" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="cohort_matrix_flow_driven" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="stock_driven" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cohort_matrix_stock_driven" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,16 +466,16 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>26.98556357727563</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>1.022209881114414</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01443642272436918</v>
+        <v>0.02220988111441358</v>
       </c>
       <c r="E3" t="n">
-        <v>13.98556357727563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>38.92680351050011</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>9.067616927220406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05876006677551615</v>
+        <v>0.06761692722040635</v>
       </c>
       <c r="E4" t="n">
-        <v>11.94123993322448</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -517,16 +517,16 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>48.79523775483383</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9.123779125446447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1315657556662799</v>
+        <v>0.1237791254464469</v>
       </c>
       <c r="E5" t="n">
-        <v>9.86843424433372</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -534,16 +534,16 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>55.56730883176457</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6.199321930095493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.227928923069264</v>
+        <v>0.1993219300954934</v>
       </c>
       <c r="E6" t="n">
-        <v>6.772071076930736</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>75.22564732859792</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>5.290563389980974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3416615031666552</v>
+        <v>0.2905633899809743</v>
       </c>
       <c r="E7" t="n">
-        <v>19.65833849683334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -568,16 +568,16 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>96.74252354278613</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>1.39265122530113</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4831237858117845</v>
+        <v>0.3926512253011296</v>
       </c>
       <c r="E8" t="n">
-        <v>21.51687621418822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -585,16 +585,16 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>119.074469885019</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>1.499588164239221</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6680536577671603</v>
+        <v>0.4995881642392206</v>
       </c>
       <c r="E9" t="n">
-        <v>22.33194634223284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -602,16 +602,16 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>146.1758826348496</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>48.60648351419899</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8985872501693848</v>
+        <v>0.6064835141989917</v>
       </c>
       <c r="E10" t="n">
-        <v>27.10141274983062</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -619,16 +619,16 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>174.9959756023218</v>
+        <v>113</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>13.76510101480436</v>
       </c>
       <c r="D11" t="n">
-        <v>1.179907032527751</v>
+        <v>0.7651010148043582</v>
       </c>
       <c r="E11" t="n">
-        <v>28.82009296747225</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -636,16 +636,16 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>187.4779833110518</v>
+        <v>126</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>13.98806622997037</v>
       </c>
       <c r="D12" t="n">
-        <v>1.517992291270076</v>
+        <v>0.9880662299703715</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48200770872992</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -653,16 +653,16 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>198.5828277577273</v>
+        <v>139</v>
       </c>
       <c r="C13" t="n">
+        <v>14.23553182216406</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.235531822164063</v>
+      </c>
+      <c r="E13" t="n">
         <v>13</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.895155553324429</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.10484444667557</v>
       </c>
     </row>
     <row r="14">
@@ -670,16 +670,16 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>216.2926702070221</v>
+        <v>152</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>14.50647850725201</v>
       </c>
       <c r="D14" t="n">
-        <v>2.29015755070526</v>
+        <v>1.506478507252012</v>
       </c>
       <c r="E14" t="n">
-        <v>17.70984244929474</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -687,16 +687,16 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>235.5854398576462</v>
+        <v>165</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>14.79981488873611</v>
       </c>
       <c r="D15" t="n">
-        <v>2.707230349375862</v>
+        <v>1.799814888736108</v>
       </c>
       <c r="E15" t="n">
-        <v>19.29276965062414</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -704,16 +704,16 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>262.4315918823681</v>
+        <v>178</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>15.11438834726641</v>
       </c>
       <c r="D16" t="n">
-        <v>3.153847975278126</v>
+        <v>2.114388347266413</v>
       </c>
       <c r="E16" t="n">
-        <v>26.84615202472187</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -721,16 +721,16 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>273.7931277144718</v>
+        <v>191</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>15.44899632109565</v>
       </c>
       <c r="D17" t="n">
-        <v>3.638464167896302</v>
+        <v>2.448996321095649</v>
       </c>
       <c r="E17" t="n">
-        <v>11.3615358321037</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -738,16 +738,16 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>299.6426520793309</v>
+        <v>204</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>15.80239781218449</v>
       </c>
       <c r="D18" t="n">
-        <v>4.150475635140879</v>
+        <v>2.802397812184495</v>
       </c>
       <c r="E18" t="n">
-        <v>25.84952436485912</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -755,16 +755,16 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>327.9556990650661</v>
+        <v>217</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>16.17332495302188</v>
       </c>
       <c r="D19" t="n">
-        <v>4.686953014264759</v>
+        <v>3.173324953021876</v>
       </c>
       <c r="E19" t="n">
-        <v>28.31304698573524</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -772,16 +772,16 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>350.6908150891968</v>
+        <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>16.56049447263672</v>
       </c>
       <c r="D20" t="n">
-        <v>5.264883975869338</v>
+        <v>3.560494472636719</v>
       </c>
       <c r="E20" t="n">
-        <v>22.73511602413066</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -789,16 +789,16 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>373.8119460967886</v>
+        <v>243</v>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>16.96261890660531</v>
       </c>
       <c r="D21" t="n">
-        <v>5.878868992408229</v>
+        <v>3.962618906605314</v>
       </c>
       <c r="E21" t="n">
-        <v>23.12113100759177</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -806,16 +806,16 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>382.2907923637941</v>
+        <v>256</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>17.3784174048987</v>
       </c>
       <c r="D22" t="n">
-        <v>6.521153732994435</v>
+        <v>4.378417404898698</v>
       </c>
       <c r="E22" t="n">
-        <v>8.478846267005565</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -823,16 +823,16 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>402.1168779051371</v>
+        <v>269</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>17.80662600288969</v>
       </c>
       <c r="D23" t="n">
-        <v>7.173914458657009</v>
+        <v>4.806626002889686</v>
       </c>
       <c r="E23" t="n">
-        <v>19.82608554134299</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -840,16 +840,16 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>424.2852847228165</v>
+        <v>282</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>18.24600723444888</v>
       </c>
       <c r="D24" t="n">
-        <v>7.83159318232066</v>
+        <v>5.246007234448882</v>
       </c>
       <c r="E24" t="n">
-        <v>22.16840681767934</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -857,16 +857,16 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>447.777681667636</v>
+        <v>295</v>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>18.69535898143897</v>
       </c>
       <c r="D25" t="n">
-        <v>8.507603055180482</v>
+        <v>5.695358981438972</v>
       </c>
       <c r="E25" t="n">
-        <v>23.49239694481952</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -874,16 +874,16 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>471.5734219095454</v>
+        <v>308</v>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>19.15352247069347</v>
       </c>
       <c r="D26" t="n">
-        <v>9.204259758090586</v>
+        <v>6.153522470693474</v>
       </c>
       <c r="E26" t="n">
-        <v>23.79574024190941</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -891,16 +891,16 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>495.6517688233329</v>
+        <v>321</v>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>19.61938934732979</v>
       </c>
       <c r="D27" t="n">
-        <v>9.92165308621253</v>
+        <v>6.619389347329786</v>
       </c>
       <c r="E27" t="n">
-        <v>24.07834691378747</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -908,16 +908,16 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>520.9930098289763</v>
+        <v>334</v>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>20.09190777159677</v>
       </c>
       <c r="D28" t="n">
-        <v>10.65875899435662</v>
+        <v>7.091907771596766</v>
       </c>
       <c r="E28" t="n">
-        <v>25.34124100564338</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -925,16 +925,16 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>542.5773411425557</v>
+        <v>347</v>
       </c>
       <c r="C29" t="n">
-        <v>33</v>
+        <v>20.57008750498028</v>
       </c>
       <c r="D29" t="n">
-        <v>11.41566868642053</v>
+        <v>7.570087504980279</v>
       </c>
       <c r="E29" t="n">
-        <v>21.58433131357947</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -942,16 +942,16 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>568.38930517124</v>
+        <v>360</v>
       </c>
       <c r="C30" t="n">
-        <v>38</v>
+        <v>21.05300396959552</v>
       </c>
       <c r="D30" t="n">
-        <v>12.18803597131568</v>
+        <v>8.053003969595522</v>
       </c>
       <c r="E30" t="n">
-        <v>25.81196402868432</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -959,16 +959,16 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>594.4144258672259</v>
+        <v>373</v>
       </c>
       <c r="C31" t="n">
-        <v>39</v>
+        <v>21.53980128261759</v>
       </c>
       <c r="D31" t="n">
-        <v>12.97487930401417</v>
+        <v>8.539801282617589</v>
       </c>
       <c r="E31" t="n">
-        <v>26.02512069598583</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -976,16 +976,16 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>613.6347282529441</v>
+        <v>386</v>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>22.02969428427849</v>
       </c>
       <c r="D32" t="n">
-        <v>13.77969761428176</v>
+        <v>9.029694284278492</v>
       </c>
       <c r="E32" t="n">
-        <v>19.22030238571824</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -993,16 +993,16 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>639.0409406478605</v>
+        <v>399</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>22.52196959352148</v>
       </c>
       <c r="D33" t="n">
-        <v>14.59378760508366</v>
+        <v>9.521969593521476</v>
       </c>
       <c r="E33" t="n">
-        <v>25.40621239491634</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1010,16 +1010,16 @@
         <v>2022</v>
       </c>
       <c r="B34" t="n">
-        <v>667.6257631456856</v>
+        <v>412</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>23.01598573944983</v>
       </c>
       <c r="D34" t="n">
-        <v>15.41517750217486</v>
+        <v>10.01598573944983</v>
       </c>
       <c r="E34" t="n">
-        <v>28.58482249782514</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1027,16 +1027,16 @@
         <v>2023</v>
       </c>
       <c r="B35" t="n">
-        <v>701.3726843469116</v>
+        <v>425</v>
       </c>
       <c r="C35" t="n">
-        <v>50</v>
+        <v>23.51117242906918</v>
       </c>
       <c r="D35" t="n">
-        <v>16.25307879877403</v>
+        <v>10.51117242906918</v>
       </c>
       <c r="E35" t="n">
-        <v>33.74692120122597</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1044,16 +1044,16 @@
         <v>2024</v>
       </c>
       <c r="B36" t="n">
-        <v>735.2570789364008</v>
+        <v>438</v>
       </c>
       <c r="C36" t="n">
-        <v>51</v>
+        <v>24.00702902228676</v>
       </c>
       <c r="D36" t="n">
-        <v>17.11560541051074</v>
+        <v>11.00702902228676</v>
       </c>
       <c r="E36" t="n">
-        <v>33.88439458948926</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1061,16 +1061,16 @@
         <v>2025</v>
       </c>
       <c r="B37" t="n">
-        <v>769.2495846938093</v>
+        <v>451</v>
       </c>
       <c r="C37" t="n">
-        <v>52</v>
+        <v>24.50312229364818</v>
       </c>
       <c r="D37" t="n">
-        <v>18.00749424259152</v>
+        <v>11.50312229364818</v>
       </c>
       <c r="E37" t="n">
-        <v>33.99250575740848</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1078,16 +1078,16 @@
         <v>2026</v>
       </c>
       <c r="B38" t="n">
-        <v>804.3217364499066</v>
+        <v>464</v>
       </c>
       <c r="C38" t="n">
-        <v>54</v>
+        <v>24.99908356674138</v>
       </c>
       <c r="D38" t="n">
-        <v>18.92784824390276</v>
+        <v>11.99908356674138</v>
       </c>
       <c r="E38" t="n">
-        <v>35.07215175609724</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1095,16 +1095,16 @@
         <v>2027</v>
       </c>
       <c r="B39" t="n">
-        <v>842.4449352846082</v>
+        <v>477</v>
       </c>
       <c r="C39" t="n">
-        <v>58</v>
+        <v>25.49460531162345</v>
       </c>
       <c r="D39" t="n">
-        <v>19.87680116529839</v>
+        <v>12.49460531162345</v>
       </c>
       <c r="E39" t="n">
-        <v>38.12319883470161</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1112,16 +1112,16 @@
         <v>2028</v>
       </c>
       <c r="B40" t="n">
-        <v>883.5872015047362</v>
+        <v>490</v>
       </c>
       <c r="C40" t="n">
-        <v>62</v>
+        <v>25.98943729803176</v>
       </c>
       <c r="D40" t="n">
-        <v>20.85773377987198</v>
+        <v>12.98943729803176</v>
       </c>
       <c r="E40" t="n">
-        <v>41.14226622012802</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1129,16 +1129,16 @@
         <v>2029</v>
       </c>
       <c r="B41" t="n">
-        <v>921.7110641222632</v>
+        <v>503</v>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>26.48338239763081</v>
       </c>
       <c r="D41" t="n">
-        <v>21.87613738247296</v>
+        <v>13.48338239763081</v>
       </c>
       <c r="E41" t="n">
-        <v>38.12386261752704</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -1146,16 +1146,16 @@
         <v>2030</v>
       </c>
       <c r="B42" t="n">
-        <v>958.7803738018592</v>
+        <v>516</v>
       </c>
       <c r="C42" t="n">
-        <v>60</v>
+        <v>26.97629212723268</v>
       </c>
       <c r="D42" t="n">
-        <v>22.93069032040398</v>
+        <v>13.97629212723268</v>
       </c>
       <c r="E42" t="n">
-        <v>37.06930967959602</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1163,16 +1163,16 @@
         <v>2031</v>
       </c>
       <c r="B43" t="n">
-        <v>994.7648882268968</v>
+        <v>529</v>
       </c>
       <c r="C43" t="n">
-        <v>60</v>
+        <v>27.4680620219691</v>
       </c>
       <c r="D43" t="n">
-        <v>24.01548557496244</v>
+        <v>14.4680620219691</v>
       </c>
       <c r="E43" t="n">
-        <v>35.98451442503756</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1180,16 +1180,16 @@
         <v>2032</v>
       </c>
       <c r="B44" t="n">
-        <v>1031.638156640108</v>
+        <v>542</v>
       </c>
       <c r="C44" t="n">
-        <v>62</v>
+        <v>27.95862692296623</v>
       </c>
       <c r="D44" t="n">
-        <v>25.12673158678854</v>
+        <v>14.95862692296623</v>
       </c>
       <c r="E44" t="n">
-        <v>36.87326841321146</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1197,16 +1197,16 @@
         <v>2033</v>
       </c>
       <c r="B45" t="n">
-        <v>1082.375380034161</v>
+        <v>555</v>
       </c>
       <c r="C45" t="n">
-        <v>77</v>
+        <v>28.44795625839527</v>
       </c>
       <c r="D45" t="n">
-        <v>26.26277660594678</v>
+        <v>15.44795625839527</v>
       </c>
       <c r="E45" t="n">
-        <v>50.73722339405322</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1214,16 +1214,16 @@
         <v>2034</v>
       </c>
       <c r="B46" t="n">
-        <v>1114.936824358556</v>
+        <v>568</v>
       </c>
       <c r="C46" t="n">
-        <v>60</v>
+        <v>28.93604939003012</v>
       </c>
       <c r="D46" t="n">
-        <v>27.43855567560513</v>
+        <v>15.93604939003012</v>
       </c>
       <c r="E46" t="n">
-        <v>32.56144432439487</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -1231,16 +1231,16 @@
         <v>2035</v>
       </c>
       <c r="B47" t="n">
-        <v>1141.289090005536</v>
+        <v>581</v>
       </c>
       <c r="C47" t="n">
-        <v>55</v>
+        <v>29.42293108990373</v>
       </c>
       <c r="D47" t="n">
-        <v>28.64773435302027</v>
+        <v>16.42293108990373</v>
       </c>
       <c r="E47" t="n">
-        <v>26.35226564697973</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -1248,16 +1248,16 @@
         <v>2036</v>
       </c>
       <c r="B48" t="n">
-        <v>1168.427448849656</v>
+        <v>594</v>
       </c>
       <c r="C48" t="n">
-        <v>57</v>
+        <v>29.90864720350032</v>
       </c>
       <c r="D48" t="n">
-        <v>29.86164115588031</v>
+        <v>16.90864720350032</v>
       </c>
       <c r="E48" t="n">
-        <v>27.13835884411969</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1265,16 +1265,16 @@
         <v>2037</v>
       </c>
       <c r="B49" t="n">
-        <v>1195.354679776624</v>
+        <v>607</v>
       </c>
       <c r="C49" t="n">
-        <v>58</v>
+        <v>30.39326054740161</v>
       </c>
       <c r="D49" t="n">
-        <v>31.07276907303185</v>
+        <v>17.39326054740161</v>
       </c>
       <c r="E49" t="n">
-        <v>26.92723092696815</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1282,16 +1282,16 @@
         <v>2038</v>
       </c>
       <c r="B50" t="n">
-        <v>1222.074289621109</v>
+        <v>620</v>
       </c>
       <c r="C50" t="n">
-        <v>59</v>
+        <v>30.87684708063159</v>
       </c>
       <c r="D50" t="n">
-        <v>32.28039015551485</v>
+        <v>17.87684708063159</v>
       </c>
       <c r="E50" t="n">
-        <v>26.71960984448515</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1299,16 +1299,16 @@
         <v>2039</v>
       </c>
       <c r="B51" t="n">
-        <v>1248.591502267077</v>
+        <v>633</v>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>31.35949238029002</v>
       </c>
       <c r="D51" t="n">
-        <v>33.48278735403255</v>
+        <v>18.35949238029002</v>
       </c>
       <c r="E51" t="n">
-        <v>26.51721264596745</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1316,16 +1316,16 @@
         <v>2040</v>
       </c>
       <c r="B52" t="n">
-        <v>1275.913126013423</v>
+        <v>646</v>
       </c>
       <c r="C52" t="n">
-        <v>62</v>
+        <v>31.84128844364045</v>
       </c>
       <c r="D52" t="n">
-        <v>34.67837625365337</v>
+        <v>18.84128844364045</v>
       </c>
       <c r="E52" t="n">
-        <v>27.32162374634663</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1333,16 +1333,16 @@
         <v>2041</v>
       </c>
       <c r="B53" t="n">
-        <v>1306.046300804544</v>
+        <v>659</v>
       </c>
       <c r="C53" t="n">
-        <v>66</v>
+        <v>32.32233083076994</v>
       </c>
       <c r="D53" t="n">
-        <v>35.86682520887871</v>
+        <v>19.32233083076994</v>
       </c>
       <c r="E53" t="n">
-        <v>30.13317479112129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1350,16 +1350,16 @@
         <v>2042</v>
       </c>
       <c r="B54" t="n">
-        <v>1332.995023948151</v>
+        <v>672</v>
       </c>
       <c r="C54" t="n">
-        <v>64</v>
+        <v>32.80271615439517</v>
       </c>
       <c r="D54" t="n">
-        <v>37.05127685639354</v>
+        <v>19.80271615439517</v>
       </c>
       <c r="E54" t="n">
-        <v>26.94872314360646</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1367,16 +1367,16 @@
         <v>2043</v>
       </c>
       <c r="B55" t="n">
-        <v>1359.764472681595</v>
+        <v>685</v>
       </c>
       <c r="C55" t="n">
-        <v>65</v>
+        <v>33.28253991646841</v>
       </c>
       <c r="D55" t="n">
-        <v>38.23055126655595</v>
+        <v>20.28253991646841</v>
       </c>
       <c r="E55" t="n">
-        <v>26.76944873344405</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -1384,16 +1384,16 @@
         <v>2044</v>
       </c>
       <c r="B56" t="n">
-        <v>1390.364211527599</v>
+        <v>698</v>
       </c>
       <c r="C56" t="n">
-        <v>70</v>
+        <v>33.76189468504822</v>
       </c>
       <c r="D56" t="n">
-        <v>39.40026115399633</v>
+        <v>20.76189468504822</v>
       </c>
       <c r="E56" t="n">
-        <v>30.59973884600367</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -1401,16 +1401,16 @@
         <v>2045</v>
       </c>
       <c r="B57" t="n">
-        <v>1414.800269316045</v>
+        <v>711</v>
       </c>
       <c r="C57" t="n">
-        <v>65</v>
+        <v>34.24086859945453</v>
       </c>
       <c r="D57" t="n">
-        <v>40.56394221155347</v>
+        <v>21.24086859945453</v>
       </c>
       <c r="E57" t="n">
-        <v>24.43605778844653</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -1418,16 +1418,16 @@
         <v>2046</v>
       </c>
       <c r="B58" t="n">
-        <v>1439.081680750804</v>
+        <v>724</v>
       </c>
       <c r="C58" t="n">
-        <v>66</v>
+        <v>34.71954418711834</v>
       </c>
       <c r="D58" t="n">
-        <v>41.71858856524136</v>
+        <v>21.71954418711834</v>
       </c>
       <c r="E58" t="n">
-        <v>24.28141143475864</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -1435,16 +1435,16 @@
         <v>2047</v>
       </c>
       <c r="B59" t="n">
-        <v>1463.224792159746</v>
+        <v>737</v>
       </c>
       <c r="C59" t="n">
-        <v>67</v>
+        <v>35.19799747175318</v>
       </c>
       <c r="D59" t="n">
-        <v>42.8568885910579</v>
+        <v>22.19799747175318</v>
       </c>
       <c r="E59" t="n">
-        <v>24.1431114089421</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1452,16 +1452,16 @@
         <v>2048</v>
       </c>
       <c r="B60" t="n">
-        <v>1489.246419431391</v>
+        <v>750</v>
       </c>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>35.67629734949173</v>
       </c>
       <c r="D60" t="n">
-        <v>43.97837272835477</v>
+        <v>22.67629734949173</v>
       </c>
       <c r="E60" t="n">
-        <v>26.02162727164523</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -1469,16 +1469,16 @@
         <v>2049</v>
       </c>
       <c r="B61" t="n">
-        <v>1521.161451370425</v>
+        <v>763</v>
       </c>
       <c r="C61" t="n">
-        <v>77</v>
+        <v>36.1545052074863</v>
       </c>
       <c r="D61" t="n">
-        <v>45.08496806096582</v>
+        <v>23.1545052074863</v>
       </c>
       <c r="E61" t="n">
-        <v>31.91503193903418</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -1486,16 +1486,16 @@
         <v>2050</v>
       </c>
       <c r="B62" t="n">
-        <v>1554.97603116049</v>
+        <v>776</v>
       </c>
       <c r="C62" t="n">
-        <v>80</v>
+        <v>36.63267475805264</v>
       </c>
       <c r="D62" t="n">
-        <v>46.18542020993527</v>
+        <v>23.63267475805264</v>
       </c>
       <c r="E62" t="n">
-        <v>33.81457979006473</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1712,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>12.98556357727563</v>
+        <v>19.97779011888559</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>1.022209881114414</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>12.94235042728021</v>
+        <v>19.91130834966186</v>
       </c>
       <c r="C4" t="n">
-        <v>13.98445308321991</v>
+        <v>1.021074723117737</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>9.067616927220406</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2276,16 +2276,16 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87064783873918</v>
+        <v>19.80099667498336</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9379158447633</v>
+        <v>1.017676807047014</v>
       </c>
       <c r="D5" t="n">
-        <v>11.98667407133135</v>
+        <v>9.057547392523176</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9.123779125446447</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2464,19 +2464,19 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>12.77093109003631</v>
+        <v>19.64758629236355</v>
       </c>
       <c r="C6" t="n">
-        <v>13.86069767248835</v>
+        <v>1.012038722854082</v>
       </c>
       <c r="D6" t="n">
-        <v>11.94678500979711</v>
+        <v>9.027405831724943</v>
       </c>
       <c r="E6" t="n">
-        <v>9.988895059442793</v>
+        <v>9.11364722296193</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>6.199321930095493</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2652,22 +2652,22 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>12.64385820251253</v>
+        <v>19.45208954232697</v>
       </c>
       <c r="C7" t="n">
-        <v>13.75331040465449</v>
+        <v>1.004197842405106</v>
       </c>
       <c r="D7" t="n">
-        <v>11.88059800499002</v>
+        <v>8.977392631295706</v>
       </c>
       <c r="E7" t="n">
-        <v>9.955654174830928</v>
+        <v>9.08331897404862</v>
       </c>
       <c r="F7" t="n">
-        <v>6.992226541609955</v>
+        <v>6.192437619942623</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>5.290563389980974</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4902627089802</v>
+        <v>19.21578878304646</v>
       </c>
       <c r="C8" t="n">
-        <v>13.61646267962888</v>
+        <v>0.9942059069244488</v>
       </c>
       <c r="D8" t="n">
-        <v>11.78855177541813</v>
+        <v>8.907839302182969</v>
       </c>
       <c r="E8" t="n">
-        <v>9.900498337491682</v>
+        <v>9.032996006312386</v>
       </c>
       <c r="F8" t="n">
-        <v>6.96895792238165</v>
+        <v>6.171830525447612</v>
       </c>
       <c r="G8" t="n">
-        <v>19.97779011888559</v>
+        <v>5.284688250784987</v>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>1.39265122530113</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>12.31114454862832</v>
+        <v>18.94022238250511</v>
       </c>
       <c r="C9" t="n">
-        <v>13.45105214813252</v>
+        <v>0.9821284583718803</v>
       </c>
       <c r="D9" t="n">
-        <v>11.67125372539618</v>
+        <v>8.819204820190553</v>
       </c>
       <c r="E9" t="n">
-        <v>9.823793146181776</v>
+        <v>8.963011883983716</v>
       </c>
       <c r="F9" t="n">
-        <v>6.930348836244177</v>
+        <v>6.137637646248615</v>
       </c>
       <c r="G9" t="n">
-        <v>19.91130834966186</v>
+        <v>5.267101950067175</v>
       </c>
       <c r="H9" t="n">
-        <v>21.97556913077414</v>
+        <v>1.391104694393741</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>1.499588164239221</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3216,31 +3216,31 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>12.10765922744758</v>
+        <v>18.62716804222704</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25815566775358</v>
+        <v>0.9680441234950552</v>
       </c>
       <c r="D10" t="n">
-        <v>11.52947326982788</v>
+        <v>8.712070581952206</v>
       </c>
       <c r="E10" t="n">
-        <v>9.726044771163483</v>
+        <v>8.873828425629895</v>
       </c>
       <c r="F10" t="n">
-        <v>6.876655202327243</v>
+        <v>6.090085628784649</v>
       </c>
       <c r="G10" t="n">
-        <v>19.80099667498336</v>
+        <v>5.237921404690099</v>
       </c>
       <c r="H10" t="n">
-        <v>21.90243918462804</v>
+        <v>1.38647539852526</v>
       </c>
       <c r="I10" t="n">
-        <v>22.97445863671842</v>
+        <v>1.497922880496804</v>
       </c>
       <c r="J10" t="n">
-        <v>28</v>
+        <v>48.60648351419899</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3404,34 +3404,34 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>11.88110540852597</v>
+        <v>18.27862370542456</v>
       </c>
       <c r="C11" t="n">
-        <v>13.03901762955893</v>
+        <v>0.9520437614971553</v>
       </c>
       <c r="D11" t="n">
-        <v>11.36413342950307</v>
+        <v>8.587134054046107</v>
       </c>
       <c r="E11" t="n">
-        <v>9.607894391523232</v>
+        <v>8.766030628887366</v>
       </c>
       <c r="F11" t="n">
-        <v>6.808231339814438</v>
+        <v>6.029488264296439</v>
       </c>
       <c r="G11" t="n">
-        <v>19.64758629236355</v>
+        <v>5.197340036993532</v>
       </c>
       <c r="H11" t="n">
-        <v>21.7810963424817</v>
+        <v>1.378794114079959</v>
       </c>
       <c r="I11" t="n">
-        <v>22.89800460211113</v>
+        <v>1.492938116783524</v>
       </c>
       <c r="J11" t="n">
-        <v>27.96890616643982</v>
+        <v>48.55250630318699</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>13.76510101480436</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3592,37 +3592,37 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>11.63291111858681</v>
+        <v>17.89678633628739</v>
       </c>
       <c r="C12" t="n">
-        <v>12.79503659379719</v>
+        <v>0.9342294882428572</v>
       </c>
       <c r="D12" t="n">
-        <v>11.17630082533622</v>
+        <v>8.445201212293846</v>
       </c>
       <c r="E12" t="n">
-        <v>9.470111191252554</v>
+        <v>8.640320280240685</v>
       </c>
       <c r="F12" t="n">
-        <v>6.725526074066262</v>
+        <v>5.956243040341147</v>
       </c>
       <c r="G12" t="n">
-        <v>19.45208954232697</v>
+        <v>5.145625639563341</v>
       </c>
       <c r="H12" t="n">
-        <v>21.61234492159991</v>
+        <v>1.368111756213489</v>
       </c>
       <c r="I12" t="n">
-        <v>22.77114617623087</v>
+        <v>1.484667012697261</v>
       </c>
       <c r="J12" t="n">
-        <v>27.8758316895266</v>
+        <v>48.39093405219859</v>
       </c>
       <c r="K12" t="n">
-        <v>29.96668517832838</v>
+        <v>13.74981495195102</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>13.98806622997037</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3780,40 +3780,40 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>11.36461877556752</v>
+        <v>17.4840288854885</v>
       </c>
       <c r="C13" t="n">
-        <v>12.52775043540118</v>
+        <v>0.91471359165732</v>
       </c>
       <c r="D13" t="n">
-        <v>10.96717422325474</v>
+        <v>8.287177885879998</v>
       </c>
       <c r="E13" t="n">
-        <v>9.31358402111352</v>
+        <v>8.497508347492712</v>
       </c>
       <c r="F13" t="n">
-        <v>6.629077833876789</v>
+        <v>5.870826798837472</v>
       </c>
       <c r="G13" t="n">
-        <v>19.21578878304646</v>
+        <v>5.083117432259634</v>
       </c>
       <c r="H13" t="n">
-        <v>21.39729849655966</v>
+        <v>1.354498816789447</v>
       </c>
       <c r="I13" t="n">
-        <v>22.59472423621808</v>
+        <v>1.473164392994857</v>
       </c>
       <c r="J13" t="n">
-        <v>27.72139534497671</v>
+        <v>48.12284092236439</v>
       </c>
       <c r="K13" t="n">
-        <v>29.86696252449278</v>
+        <v>13.70405853850064</v>
       </c>
       <c r="L13" t="n">
-        <v>13.98445308321991</v>
+        <v>13.97253256557096</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>14.23553182216406</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3968,43 +3968,43 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>11.07786925656075</v>
+        <v>17.04287577932423</v>
       </c>
       <c r="C14" t="n">
-        <v>12.23882021984195</v>
+        <v>0.8936173544218086</v>
       </c>
       <c r="D14" t="n">
-        <v>10.73807180177244</v>
+        <v>8.114060136288323</v>
       </c>
       <c r="E14" t="n">
-        <v>9.139311852712282</v>
+        <v>8.338506270272161</v>
       </c>
       <c r="F14" t="n">
-        <v>6.519508814779464</v>
+        <v>5.773790566987602</v>
       </c>
       <c r="G14" t="n">
-        <v>18.94022238250511</v>
+        <v>5.010222356748988</v>
       </c>
       <c r="H14" t="n">
-        <v>21.13736766135111</v>
+        <v>1.338044589691868</v>
       </c>
       <c r="I14" t="n">
-        <v>22.36990297367601</v>
+        <v>1.458506162369752</v>
       </c>
       <c r="J14" t="n">
-        <v>27.50662080930897</v>
+        <v>47.75000396067855</v>
       </c>
       <c r="K14" t="n">
-        <v>29.70149501247504</v>
+        <v>13.62813597124756</v>
       </c>
       <c r="L14" t="n">
-        <v>13.9379158447633</v>
+        <v>13.9260349960216</v>
       </c>
       <c r="M14" t="n">
-        <v>12.98556357727563</v>
+        <v>14.21972334869553</v>
       </c>
       <c r="N14" t="n">
-        <v>20</v>
+        <v>14.50647850725201</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4156,46 +4156,46 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>10.77438523584054</v>
+        <v>16.57597728590852</v>
       </c>
       <c r="C15" t="n">
-        <v>11.93001304552696</v>
+        <v>0.8710698012115369</v>
       </c>
       <c r="D15" t="n">
-        <v>10.4904173312931</v>
+        <v>7.926923813903302</v>
       </c>
       <c r="E15" t="n">
-        <v>8.948393168143697</v>
+        <v>8.164316279379706</v>
       </c>
       <c r="F15" t="n">
-        <v>6.397518296898597</v>
+        <v>5.665753639450092</v>
       </c>
       <c r="G15" t="n">
-        <v>18.62716804222704</v>
+        <v>4.927410665161498</v>
       </c>
       <c r="H15" t="n">
-        <v>20.83424462075562</v>
+        <v>1.318856195423581</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09815710050343</v>
+        <v>1.440788471278863</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23292535925775</v>
+        <v>47.27488348279191</v>
       </c>
       <c r="K15" t="n">
-        <v>29.47137943854533</v>
+        <v>13.52255050057349</v>
       </c>
       <c r="L15" t="n">
-        <v>13.86069767248835</v>
+        <v>13.84888264545452</v>
       </c>
       <c r="M15" t="n">
-        <v>12.94235042728021</v>
+        <v>14.17240318162662</v>
       </c>
       <c r="N15" t="n">
-        <v>19.97779011888559</v>
+        <v>14.49036914910027</v>
       </c>
       <c r="O15" t="n">
-        <v>22</v>
+        <v>14.79981488873611</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4344,49 +4344,49 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>10.45595402885244</v>
+        <v>16.08608312131145</v>
       </c>
       <c r="C16" t="n">
-        <v>11.60318410013596</v>
+        <v>0.8472063885391883</v>
       </c>
       <c r="D16" t="n">
-        <v>10.22572546759454</v>
+        <v>7.726913445255752</v>
       </c>
       <c r="E16" t="n">
-        <v>8.742014442744249</v>
+        <v>7.976020888706134</v>
       </c>
       <c r="F16" t="n">
-        <v>6.263875217700589</v>
+        <v>5.547397000638991</v>
       </c>
       <c r="G16" t="n">
-        <v>18.27862370542456</v>
+        <v>4.835210869757879</v>
       </c>
       <c r="H16" t="n">
-        <v>20.48988484644974</v>
+        <v>1.297057419894877</v>
       </c>
       <c r="I16" t="n">
-        <v>21.78125573988088</v>
+        <v>1.420126665643172</v>
       </c>
       <c r="J16" t="n">
-        <v>26.90210429626505</v>
+        <v>46.70059603477389</v>
       </c>
       <c r="K16" t="n">
-        <v>29.17813431349045</v>
+        <v>13.38799887495751</v>
       </c>
       <c r="L16" t="n">
-        <v>13.75331040465449</v>
+        <v>13.74158691583197</v>
       </c>
       <c r="M16" t="n">
-        <v>12.87064783873918</v>
+        <v>14.09388591386452</v>
       </c>
       <c r="N16" t="n">
-        <v>19.91130834966186</v>
+        <v>14.44214833128186</v>
       </c>
       <c r="O16" t="n">
-        <v>21.97556913077414</v>
+        <v>14.7833797822764</v>
       </c>
       <c r="P16" t="n">
-        <v>30</v>
+        <v>15.11438834726641</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4532,52 +4532,52 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>10.12441017992826</v>
+        <v>15.5760156614281</v>
       </c>
       <c r="C17" t="n">
-        <v>11.26025818491801</v>
+        <v>0.8221676557516173</v>
       </c>
       <c r="D17" t="n">
-        <v>9.945586371545112</v>
+        <v>7.515230611146253</v>
       </c>
       <c r="E17" t="n">
-        <v>8.521437889662113</v>
+        <v>7.774771713648762</v>
       </c>
       <c r="F17" t="n">
-        <v>6.119410109920975</v>
+        <v>5.419456184811596</v>
       </c>
       <c r="G17" t="n">
-        <v>17.89678633628739</v>
+        <v>4.734204129453691</v>
       </c>
       <c r="H17" t="n">
-        <v>20.10648607596702</v>
+        <v>1.27278738500889</v>
       </c>
       <c r="I17" t="n">
-        <v>21.4212432485611</v>
+        <v>1.396654036470936</v>
       </c>
       <c r="J17" t="n">
-        <v>26.51631133550715</v>
+        <v>46.03088034952487</v>
       </c>
       <c r="K17" t="n">
-        <v>28.82368317456969</v>
+        <v>13.22536368388895</v>
       </c>
       <c r="L17" t="n">
-        <v>13.61646267962888</v>
+        <v>13.60485584146918</v>
       </c>
       <c r="M17" t="n">
-        <v>12.77093109003631</v>
+        <v>13.98469199468279</v>
       </c>
       <c r="N17" t="n">
-        <v>19.80099667498336</v>
+        <v>14.36213663439074</v>
       </c>
       <c r="O17" t="n">
-        <v>21.90243918462804</v>
+        <v>14.73418388837706</v>
       </c>
       <c r="P17" t="n">
-        <v>29.96668517832838</v>
+        <v>15.09760390885092</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>15.44899632109565</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4720,55 +4720,55 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>9.781618029160942</v>
+        <v>15.04864312178606</v>
       </c>
       <c r="C18" t="n">
-        <v>10.90321096299967</v>
+        <v>0.796097855875233</v>
       </c>
       <c r="D18" t="n">
-        <v>9.651649872786868</v>
+        <v>7.293121980173907</v>
       </c>
       <c r="E18" t="n">
-        <v>8.287988642954259</v>
+        <v>7.561777777252329</v>
       </c>
       <c r="F18" t="n">
-        <v>5.965006522763479</v>
+        <v>5.2827136785329</v>
       </c>
       <c r="G18" t="n">
-        <v>17.4840288854885</v>
+        <v>4.625018156546766</v>
       </c>
       <c r="H18" t="n">
-        <v>19.68646496991613</v>
+        <v>1.246199071009158</v>
       </c>
       <c r="I18" t="n">
-        <v>21.02041726123825</v>
+        <v>1.370520388361856</v>
       </c>
       <c r="J18" t="n">
-        <v>26.07803525911786</v>
+        <v>45.27005681803615</v>
       </c>
       <c r="K18" t="n">
-        <v>28.41033357375766</v>
+        <v>13.03570371690206</v>
       </c>
       <c r="L18" t="n">
-        <v>13.45105214813252</v>
+        <v>13.43958630791878</v>
       </c>
       <c r="M18" t="n">
-        <v>12.64385820251253</v>
+        <v>13.84554198436902</v>
       </c>
       <c r="N18" t="n">
-        <v>19.64758629236355</v>
+        <v>14.25086441347756</v>
       </c>
       <c r="O18" t="n">
-        <v>21.7810963424817</v>
+        <v>14.65255427011165</v>
       </c>
       <c r="P18" t="n">
-        <v>29.86696252449278</v>
+        <v>15.04736234494788</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.98334258916419</v>
+        <v>15.43184030251422</v>
       </c>
       <c r="R18" t="n">
-        <v>30</v>
+        <v>15.80239781218449</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -4908,58 +4908,58 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>9.429454487497893</v>
+        <v>14.50685305768907</v>
       </c>
       <c r="C19" t="n">
-        <v>10.53405018525025</v>
+        <v>0.7691435848227085</v>
       </c>
       <c r="D19" t="n">
-        <v>9.345609396856858</v>
+        <v>7.061867163510779</v>
       </c>
       <c r="E19" t="n">
-        <v>8.043041560655723</v>
+        <v>7.338293469620889</v>
       </c>
       <c r="F19" t="n">
-        <v>5.801592050067981</v>
+        <v>5.137990975064873</v>
       </c>
       <c r="G19" t="n">
-        <v>17.04287577932423</v>
+        <v>4.508320732904311</v>
       </c>
       <c r="H19" t="n">
-        <v>19.23243177403735</v>
+        <v>1.217457712528795</v>
       </c>
       <c r="I19" t="n">
-        <v>20.5813042867305</v>
+        <v>1.341890448390739</v>
       </c>
       <c r="J19" t="n">
-        <v>25.59007318759439</v>
+        <v>44.4229810899983</v>
       </c>
       <c r="K19" t="n">
-        <v>27.94075206334056</v>
+        <v>12.82024248604954</v>
       </c>
       <c r="L19" t="n">
-        <v>13.25815566775358</v>
+        <v>13.24685425484243</v>
       </c>
       <c r="M19" t="n">
-        <v>12.4902627089802</v>
+        <v>13.67734863545206</v>
       </c>
       <c r="N19" t="n">
-        <v>19.45208954232697</v>
+        <v>14.10906594334539</v>
       </c>
       <c r="O19" t="n">
-        <v>21.61234492159991</v>
+        <v>14.53903200687248</v>
       </c>
       <c r="P19" t="n">
-        <v>29.70149501247504</v>
+        <v>14.96399767043148</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.93348126224639</v>
+        <v>15.38048647210636</v>
       </c>
       <c r="R19" t="n">
-        <v>29.96668517832838</v>
+        <v>15.78484934334793</v>
       </c>
       <c r="S19" t="n">
-        <v>33</v>
+        <v>16.17332495302188</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5096,61 +5096,61 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>9.069792238923403</v>
+        <v>13.95352652142062</v>
       </c>
       <c r="C20" t="n">
-        <v>10.15479714038235</v>
+        <v>0.7414524269722303</v>
       </c>
       <c r="D20" t="n">
-        <v>9.02918587307164</v>
+        <v>6.822766555140313</v>
       </c>
       <c r="E20" t="n">
-        <v>7.788007830714049</v>
+        <v>7.10560632746823</v>
       </c>
       <c r="F20" t="n">
-        <v>5.630129092459006</v>
+        <v>4.98614039316425</v>
       </c>
       <c r="G20" t="n">
-        <v>16.57597728590852</v>
+        <v>4.38481292909919</v>
       </c>
       <c r="H20" t="n">
-        <v>18.74716335725665</v>
+        <v>1.186739091836541</v>
       </c>
       <c r="I20" t="n">
-        <v>20.10663321831177</v>
+        <v>1.31094213899476</v>
       </c>
       <c r="J20" t="n">
-        <v>25.05550087080235</v>
+        <v>43.49499250059475</v>
       </c>
       <c r="K20" t="n">
-        <v>27.41793555813685</v>
+        <v>12.58035508583833</v>
       </c>
       <c r="L20" t="n">
-        <v>13.03901762955893</v>
+        <v>13.02790301257297</v>
       </c>
       <c r="M20" t="n">
-        <v>12.31114454862832</v>
+        <v>13.48120692225078</v>
       </c>
       <c r="N20" t="n">
-        <v>19.21578878304646</v>
+        <v>13.93767134905789</v>
       </c>
       <c r="O20" t="n">
-        <v>21.39729849655966</v>
+        <v>14.39436622127793</v>
       </c>
       <c r="P20" t="n">
-        <v>29.47137943854533</v>
+        <v>14.84806246546055</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.85074750623752</v>
+        <v>15.29527623929226</v>
       </c>
       <c r="R20" t="n">
-        <v>29.86696252449278</v>
+        <v>15.73232077512137</v>
       </c>
       <c r="S20" t="n">
-        <v>32.96335369616121</v>
+        <v>16.15536457180031</v>
       </c>
       <c r="T20" t="n">
-        <v>28</v>
+        <v>16.56049447263672</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5284,64 +5284,64 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>8.704483574918122</v>
+        <v>13.39151319218173</v>
       </c>
       <c r="C21" t="n">
-        <v>9.767468564994434</v>
+        <v>0.7131716343294094</v>
       </c>
       <c r="D21" t="n">
-        <v>8.704111834613439</v>
+        <v>6.577129317330025</v>
       </c>
       <c r="E21" t="n">
-        <v>7.524321560893032</v>
+        <v>6.865024799042247</v>
       </c>
       <c r="F21" t="n">
-        <v>5.451605481499834</v>
+        <v>4.828036773670103</v>
       </c>
       <c r="G21" t="n">
-        <v>16.08608312131145</v>
+        <v>4.255222122490061</v>
       </c>
       <c r="H21" t="n">
-        <v>18.23357501449937</v>
+        <v>1.15422775388921</v>
       </c>
       <c r="I21" t="n">
-        <v>19.59930714622286</v>
+        <v>1.277864740163695</v>
       </c>
       <c r="J21" t="n">
-        <v>24.4776404396839</v>
+        <v>42.49185808921379</v>
       </c>
       <c r="K21" t="n">
-        <v>26.84517950443109</v>
+        <v>12.31755358796832</v>
       </c>
       <c r="L21" t="n">
-        <v>12.79503659379719</v>
+        <v>12.78412994920926</v>
       </c>
       <c r="M21" t="n">
-        <v>12.10765922744758</v>
+        <v>13.25838217109603</v>
       </c>
       <c r="N21" t="n">
-        <v>18.94022238250511</v>
+        <v>13.73779644571919</v>
       </c>
       <c r="O21" t="n">
-        <v>21.13736766135111</v>
+        <v>14.21950584650697</v>
       </c>
       <c r="P21" t="n">
-        <v>29.17813431349045</v>
+        <v>14.70032177542648</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.73568971927266</v>
+        <v>15.17677441745669</v>
       </c>
       <c r="R21" t="n">
-        <v>29.70149501247504</v>
+        <v>15.64516132679148</v>
       </c>
       <c r="S21" t="n">
-        <v>32.85365877694206</v>
+        <v>16.10160300894495</v>
       </c>
       <c r="T21" t="n">
-        <v>27.96890616643982</v>
+        <v>16.54210414196506</v>
       </c>
       <c r="U21" t="n">
-        <v>29</v>
+        <v>16.96261890660531</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5472,67 +5472,67 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>8.33534504958941</v>
+        <v>12.82360776859909</v>
       </c>
       <c r="C22" t="n">
-        <v>9.374059234527207</v>
+        <v>0.6844468554061092</v>
       </c>
       <c r="D22" t="n">
-        <v>8.372115912852372</v>
+        <v>6.326261664002625</v>
       </c>
       <c r="E22" t="n">
-        <v>7.253426528844534</v>
+        <v>6.617866155183123</v>
       </c>
       <c r="F22" t="n">
-        <v>5.267025092625123</v>
+        <v>4.664569166153453</v>
       </c>
       <c r="G22" t="n">
-        <v>15.5760156614281</v>
+        <v>4.12029491100609</v>
       </c>
       <c r="H22" t="n">
-        <v>17.69469143344259</v>
+        <v>1.12011516845951</v>
       </c>
       <c r="I22" t="n">
-        <v>19.0623738787948</v>
+        <v>1.242856967432329</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86002609105392</v>
+        <v>41.41971303011321</v>
       </c>
       <c r="K22" t="n">
-        <v>26.22604332823275</v>
+        <v>12.03347118772532</v>
       </c>
       <c r="L22" t="n">
-        <v>12.52775043540118</v>
+        <v>12.51707162878084</v>
       </c>
       <c r="M22" t="n">
-        <v>11.88110540852597</v>
+        <v>13.01029647119669</v>
       </c>
       <c r="N22" t="n">
-        <v>18.62716804222704</v>
+        <v>13.51073064277691</v>
       </c>
       <c r="O22" t="n">
-        <v>20.83424462075562</v>
+        <v>14.0155892606286</v>
       </c>
       <c r="P22" t="n">
-        <v>28.82368317456969</v>
+        <v>14.52174470330051</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.58906715674522</v>
+        <v>15.02576298885162</v>
       </c>
       <c r="R22" t="n">
-        <v>29.47137943854533</v>
+        <v>15.52394873205759</v>
       </c>
       <c r="S22" t="n">
-        <v>32.67164451372255</v>
+        <v>16.01239768091058</v>
       </c>
       <c r="T22" t="n">
-        <v>27.8758316895266</v>
+        <v>16.48705559337703</v>
       </c>
       <c r="U22" t="n">
-        <v>28.9677956723841</v>
+        <v>16.94378201914007</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>17.3784174048987</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -5660,70 +5660,70 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>7.96414312439741</v>
+        <v>12.25252788368832</v>
       </c>
       <c r="C23" t="n">
-        <v>8.976525438019365</v>
+        <v>0.6554209286298774</v>
       </c>
       <c r="D23" t="n">
-        <v>8.034907915309034</v>
+        <v>6.071455585126119</v>
       </c>
       <c r="E23" t="n">
-        <v>6.97676326071031</v>
+        <v>6.365444700125042</v>
       </c>
       <c r="F23" t="n">
-        <v>5.077398570191173</v>
+        <v>4.496632614860235</v>
       </c>
       <c r="G23" t="n">
-        <v>15.04864312178606</v>
+        <v>3.980790018450518</v>
       </c>
       <c r="H23" t="n">
-        <v>17.13361722757091</v>
+        <v>1.084597864809871</v>
       </c>
       <c r="I23" t="n">
-        <v>18.49899558950816</v>
+        <v>1.206124992884347</v>
       </c>
       <c r="J23" t="n">
-        <v>23.20636820027192</v>
+        <v>40.28499833396247</v>
       </c>
       <c r="K23" t="n">
-        <v>25.56431366898634</v>
+        <v>11.72984533425803</v>
       </c>
       <c r="L23" t="n">
-        <v>12.23882021984195</v>
+        <v>12.22838770084641</v>
       </c>
       <c r="M23" t="n">
-        <v>11.63291111858681</v>
+        <v>12.73851357023451</v>
       </c>
       <c r="N23" t="n">
-        <v>18.27862370542456</v>
+        <v>13.25792309624443</v>
       </c>
       <c r="O23" t="n">
-        <v>20.48988484644974</v>
+        <v>13.78393194631706</v>
       </c>
       <c r="P23" t="n">
-        <v>28.41033357375766</v>
+        <v>14.31349382363849</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.41184158728485</v>
+        <v>14.84323251081179</v>
       </c>
       <c r="R23" t="n">
-        <v>29.17813431349045</v>
+        <v>15.36948286130423</v>
       </c>
       <c r="S23" t="n">
-        <v>32.41851738239986</v>
+        <v>15.8883398824467</v>
       </c>
       <c r="T23" t="n">
-        <v>27.72139534497671</v>
+        <v>16.395714799438</v>
       </c>
       <c r="U23" t="n">
-        <v>28.87139710700969</v>
+        <v>16.88739677336112</v>
       </c>
       <c r="V23" t="n">
-        <v>14.98334258916419</v>
+        <v>17.35911877567273</v>
       </c>
       <c r="W23" t="n">
-        <v>27</v>
+        <v>17.80662600288969</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -5848,73 +5848,73 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>7.592580949737978</v>
+        <v>11.68089376882766</v>
       </c>
       <c r="C24" t="n">
-        <v>8.576769518581825</v>
+        <v>0.6262327535668039</v>
       </c>
       <c r="D24" t="n">
-        <v>7.694164661159455</v>
+        <v>5.813978143529211</v>
       </c>
       <c r="E24" t="n">
-        <v>6.695756596090863</v>
+        <v>6.109060426048417</v>
       </c>
       <c r="F24" t="n">
-        <v>4.883734282497217</v>
+        <v>4.325120148320597</v>
       </c>
       <c r="G24" t="n">
-        <v>14.50685305768907</v>
+        <v>3.837471284542167</v>
       </c>
       <c r="H24" t="n">
-        <v>16.55350743396467</v>
+        <v>1.047875564133739</v>
       </c>
       <c r="I24" t="n">
-        <v>17.91241801064231</v>
+        <v>1.167880436594116</v>
       </c>
       <c r="J24" t="n">
-        <v>22.52051636983602</v>
+        <v>39.09439670220297</v>
       </c>
       <c r="K24" t="n">
-        <v>24.86396592886278</v>
+        <v>11.40850008798167</v>
       </c>
       <c r="L24" t="n">
-        <v>11.93001304552696</v>
+        <v>11.91984375751726</v>
       </c>
       <c r="M24" t="n">
-        <v>11.36461877556752</v>
+        <v>12.44472247895036</v>
       </c>
       <c r="N24" t="n">
-        <v>17.89678633628739</v>
+        <v>12.98096731681173</v>
       </c>
       <c r="O24" t="n">
-        <v>20.10648607596702</v>
+        <v>13.52601236305736</v>
       </c>
       <c r="P24" t="n">
-        <v>27.94075206334056</v>
+        <v>14.07691258000049</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.20516678687883</v>
+        <v>14.63037129540275</v>
       </c>
       <c r="R24" t="n">
-        <v>28.82368317456969</v>
+        <v>15.18277693123064</v>
       </c>
       <c r="S24" t="n">
-        <v>32.09594774483949</v>
+        <v>15.73024825916663</v>
       </c>
       <c r="T24" t="n">
-        <v>27.50662080930897</v>
+        <v>16.26868720976698</v>
       </c>
       <c r="U24" t="n">
-        <v>28.71144517872587</v>
+        <v>16.79383802843509</v>
       </c>
       <c r="V24" t="n">
-        <v>14.93348126224639</v>
+        <v>17.30135137890342</v>
       </c>
       <c r="W24" t="n">
-        <v>26.97001666049554</v>
+        <v>17.78685185056104</v>
       </c>
       <c r="X24" t="n">
-        <v>30</v>
+        <v>18.24600723444888</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -6036,76 +6036,76 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>7.22228640729434</v>
+        <v>11.11120985737591</v>
       </c>
       <c r="C25" t="n">
-        <v>8.176625638179361</v>
+        <v>0.5970162515371708</v>
       </c>
       <c r="D25" t="n">
-        <v>7.351516730212993</v>
+        <v>5.555061461968613</v>
       </c>
       <c r="E25" t="n">
-        <v>6.411803884299546</v>
+        <v>5.849988243602865</v>
       </c>
       <c r="F25" t="n">
-        <v>4.687029617263604</v>
+        <v>4.150915070472764</v>
       </c>
       <c r="G25" t="n">
-        <v>13.95352652142062</v>
+        <v>3.691100828767826</v>
       </c>
       <c r="H25" t="n">
-        <v>15.95753836345797</v>
+        <v>1.010149334302706</v>
       </c>
       <c r="I25" t="n">
-        <v>17.30593959005397</v>
+        <v>1.128338355664517</v>
       </c>
       <c r="J25" t="n">
-        <v>21.80642192599934</v>
+        <v>37.85476742320551</v>
       </c>
       <c r="K25" t="n">
-        <v>24.12912468196717</v>
+        <v>11.07132795486957</v>
       </c>
       <c r="L25" t="n">
-        <v>11.60318410013596</v>
+        <v>11.59329340508864</v>
       </c>
       <c r="M25" t="n">
-        <v>11.07786925656075</v>
+        <v>12.13072002488796</v>
       </c>
       <c r="N25" t="n">
-        <v>17.4840288854885</v>
+        <v>12.68158446237561</v>
       </c>
       <c r="O25" t="n">
-        <v>19.68646496991613</v>
+        <v>13.24345624401576</v>
       </c>
       <c r="P25" t="n">
-        <v>27.41793555813685</v>
+        <v>13.81351085686683</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.97037603167028</v>
+        <v>14.3885525278398</v>
       </c>
       <c r="R25" t="n">
-        <v>28.41033357375766</v>
+        <v>14.96504643697933</v>
       </c>
       <c r="S25" t="n">
-        <v>31.70605149202666</v>
+        <v>15.53915981084216</v>
       </c>
       <c r="T25" t="n">
-        <v>27.23292535925775</v>
+        <v>16.10681106734701</v>
       </c>
       <c r="U25" t="n">
-        <v>28.48900012392715</v>
+        <v>16.66372593560027</v>
       </c>
       <c r="V25" t="n">
-        <v>14.85074750623752</v>
+        <v>17.2054992625436</v>
       </c>
       <c r="W25" t="n">
-        <v>26.88026627204351</v>
+        <v>17.72766105053217</v>
       </c>
       <c r="X25" t="n">
-        <v>29.96668517832838</v>
+        <v>18.22574515187439</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>18.69535898143897</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -6224,79 +6224,79 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>6.854801512559631</v>
+        <v>10.54584848086097</v>
       </c>
       <c r="C26" t="n">
-        <v>7.777846900163135</v>
+        <v>0.5678994253672763</v>
       </c>
       <c r="D26" t="n">
-        <v>7.008536261296594</v>
+        <v>5.295893503164252</v>
       </c>
       <c r="E26" t="n">
-        <v>6.126263941844162</v>
+        <v>5.589467906957302</v>
       </c>
       <c r="F26" t="n">
-        <v>4.488262719009683</v>
+        <v>3.974883643140964</v>
       </c>
       <c r="G26" t="n">
-        <v>13.39151319218173</v>
+        <v>3.542432471550194</v>
       </c>
       <c r="H26" t="n">
-        <v>15.34887917356268</v>
+        <v>0.9716197903664118</v>
       </c>
       <c r="I26" t="n">
-        <v>16.68288101634243</v>
+        <v>1.087715257283403</v>
       </c>
       <c r="J26" t="n">
-        <v>21.06810037050049</v>
+        <v>36.57308119050792</v>
       </c>
       <c r="K26" t="n">
-        <v>23.36402349214215</v>
+        <v>10.72027144938662</v>
       </c>
       <c r="L26" t="n">
-        <v>11.26025818491801</v>
+        <v>11.25065980408565</v>
       </c>
       <c r="M26" t="n">
-        <v>10.77438523584054</v>
+        <v>11.79839260685097</v>
       </c>
       <c r="N26" t="n">
-        <v>17.04287577932423</v>
+        <v>12.36160555972664</v>
       </c>
       <c r="O26" t="n">
-        <v>19.23243177403735</v>
+        <v>12.93801955072724</v>
       </c>
       <c r="P26" t="n">
-        <v>26.84517950443109</v>
+        <v>13.52494894273495</v>
       </c>
       <c r="Q26" t="n">
-        <v>13.70896777906842</v>
+        <v>14.11931951898979</v>
       </c>
       <c r="R26" t="n">
-        <v>27.94075206334056</v>
+        <v>14.71769597588408</v>
       </c>
       <c r="S26" t="n">
-        <v>31.25136693113343</v>
+        <v>15.31631856373767</v>
       </c>
       <c r="T26" t="n">
-        <v>26.90210429626505</v>
+        <v>15.91114819644978</v>
       </c>
       <c r="U26" t="n">
-        <v>28.2055298363741</v>
+        <v>16.49791909218274</v>
       </c>
       <c r="V26" t="n">
-        <v>14.73568971927266</v>
+        <v>17.07219777937299</v>
       </c>
       <c r="W26" t="n">
-        <v>26.73134551122754</v>
+        <v>17.62944711379455</v>
       </c>
       <c r="X26" t="n">
-        <v>29.86696252449278</v>
+        <v>18.16509380976363</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.96446419021694</v>
+        <v>18.67459789642052</v>
       </c>
       <c r="Z26" t="n">
-        <v>33</v>
+        <v>19.15352247069347</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -6412,82 +6412,82 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>6.49157325179059</v>
+        <v>9.987035771985523</v>
       </c>
       <c r="C27" t="n">
-        <v>7.382093936602679</v>
+        <v>0.5390035260935756</v>
       </c>
       <c r="D27" t="n">
-        <v>6.666725914425545</v>
+        <v>5.037609729232001</v>
       </c>
       <c r="E27" t="n">
-        <v>5.840446884413829</v>
+        <v>5.328694736729363</v>
       </c>
       <c r="F27" t="n">
-        <v>4.288384759290913</v>
+        <v>3.797868240422777</v>
       </c>
       <c r="G27" t="n">
-        <v>12.82360776859909</v>
+        <v>3.392205489401299</v>
       </c>
       <c r="H27" t="n">
-        <v>14.7306645113999</v>
+        <v>0.932485362786406</v>
       </c>
       <c r="I27" t="n">
-        <v>16.04655549963371</v>
+        <v>1.046227161046021</v>
       </c>
       <c r="J27" t="n">
-        <v>20.30959428076469</v>
+        <v>35.25635569957354</v>
       </c>
       <c r="K27" t="n">
-        <v>22.5729646826791</v>
+        <v>10.3573046353563</v>
       </c>
       <c r="L27" t="n">
-        <v>10.90321096299967</v>
+        <v>10.8939169335556</v>
       </c>
       <c r="M27" t="n">
-        <v>10.45595402885244</v>
+        <v>11.44969740837026</v>
       </c>
       <c r="N27" t="n">
-        <v>16.57597728590852</v>
+        <v>12.02295291173647</v>
       </c>
       <c r="O27" t="n">
-        <v>18.74716335725665</v>
+        <v>12.61157033528614</v>
       </c>
       <c r="P27" t="n">
-        <v>26.22604332823275</v>
+        <v>13.21302012250484</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.42258975221555</v>
+        <v>13.82436931343694</v>
       </c>
       <c r="R27" t="n">
-        <v>27.41793555813685</v>
+        <v>14.44230416261724</v>
       </c>
       <c r="S27" t="n">
-        <v>30.73482726967462</v>
+        <v>15.06316208507411</v>
       </c>
       <c r="T27" t="n">
-        <v>26.51631133550715</v>
+        <v>15.68297240379931</v>
       </c>
       <c r="U27" t="n">
-        <v>27.86289373541737</v>
+        <v>16.29750510583191</v>
       </c>
       <c r="V27" t="n">
-        <v>14.58906715674522</v>
+        <v>16.90232657320115</v>
       </c>
       <c r="W27" t="n">
-        <v>26.52424149469079</v>
+        <v>17.49286104838099</v>
       </c>
       <c r="X27" t="n">
-        <v>29.70149501247504</v>
+        <v>18.06445642905224</v>
       </c>
       <c r="Y27" t="n">
-        <v>31.85809335945897</v>
+        <v>18.61245286935258</v>
       </c>
       <c r="Z27" t="n">
-        <v>32.96335369616121</v>
+        <v>19.13225259784366</v>
       </c>
       <c r="AA27" t="n">
-        <v>34</v>
+        <v>19.61938934732979</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -6600,85 +6600,85 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>6.133945902396969</v>
+        <v>9.43683984984149</v>
       </c>
       <c r="C28" t="n">
-        <v>6.990925040389866</v>
+        <v>0.5104423324583358</v>
       </c>
       <c r="D28" t="n">
-        <v>6.327509088516583</v>
+        <v>4.781285709847827</v>
       </c>
       <c r="E28" t="n">
-        <v>5.555604928687954</v>
+        <v>5.068811227759055</v>
       </c>
       <c r="F28" t="n">
-        <v>4.088312819089681</v>
+        <v>3.620681045210455</v>
       </c>
       <c r="G28" t="n">
-        <v>12.25252788368832</v>
+        <v>3.241138772808125</v>
       </c>
       <c r="H28" t="n">
-        <v>14.105968545459</v>
+        <v>0.8929406535860305</v>
       </c>
       <c r="I28" t="n">
-        <v>15.40024017100898</v>
+        <v>1.004087734212455</v>
       </c>
       <c r="J28" t="n">
-        <v>19.53493712998887</v>
+        <v>33.91159284141849</v>
       </c>
       <c r="K28" t="n">
-        <v>21.7602795865336</v>
+        <v>9.984414887300673</v>
       </c>
       <c r="L28" t="n">
-        <v>10.53405018525025</v>
+        <v>10.52507083293658</v>
       </c>
       <c r="M28" t="n">
-        <v>10.12441017992826</v>
+        <v>11.08664333053927</v>
       </c>
       <c r="N28" t="n">
-        <v>16.08608312131145</v>
+        <v>11.66762095325869</v>
       </c>
       <c r="O28" t="n">
-        <v>18.23357501449937</v>
+        <v>12.26606977156702</v>
       </c>
       <c r="P28" t="n">
-        <v>25.56431366898634</v>
+        <v>12.87963215414635</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.11302166411637</v>
+        <v>13.50553489649209</v>
       </c>
       <c r="R28" t="n">
-        <v>26.84517950443109</v>
+        <v>14.14060686228406</v>
       </c>
       <c r="S28" t="n">
-        <v>30.15972911395053</v>
+        <v>14.78130604409201</v>
       </c>
       <c r="T28" t="n">
-        <v>26.07803525911786</v>
+        <v>15.42375567020881</v>
       </c>
       <c r="U28" t="n">
-        <v>27.46332245463241</v>
+        <v>16.06378871403952</v>
       </c>
       <c r="V28" t="n">
-        <v>14.41184158728485</v>
+        <v>16.69699991180759</v>
       </c>
       <c r="W28" t="n">
-        <v>26.2603208821414</v>
+        <v>17.31880417274689</v>
       </c>
       <c r="X28" t="n">
-        <v>29.47137943854533</v>
+        <v>17.9245000814962</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.68159467997338</v>
+        <v>18.50933705145467</v>
       </c>
       <c r="Z28" t="n">
-        <v>32.85365877694206</v>
+        <v>19.06858459480775</v>
       </c>
       <c r="AA28" t="n">
-        <v>33.9622432021055</v>
+        <v>19.59760213208271</v>
       </c>
       <c r="AB28" t="n">
-        <v>36</v>
+        <v>20.09190777159677</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -6788,88 +6788,88 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>5.783154860898234</v>
+        <v>8.897161324458821</v>
       </c>
       <c r="C29" t="n">
-        <v>6.605787894889043</v>
+        <v>0.4823215470501115</v>
       </c>
       <c r="D29" t="n">
-        <v>5.992221463191314</v>
+        <v>4.527930730940582</v>
       </c>
       <c r="E29" t="n">
-        <v>5.272924240430486</v>
+        <v>4.810899611490022</v>
       </c>
       <c r="F29" t="n">
-        <v>3.888923450081568</v>
+        <v>3.444098346936184</v>
       </c>
       <c r="G29" t="n">
-        <v>11.68089376882766</v>
+        <v>3.089925446780825</v>
       </c>
       <c r="H29" t="n">
-        <v>13.47778067205715</v>
+        <v>0.85317489851274</v>
       </c>
       <c r="I29" t="n">
-        <v>14.74714893388896</v>
+        <v>0.961506521631866</v>
       </c>
       <c r="J29" t="n">
-        <v>18.74811846905441</v>
+        <v>32.54571826029797</v>
       </c>
       <c r="K29" t="n">
-        <v>20.93028978213093</v>
+        <v>9.603585104005326</v>
       </c>
       <c r="L29" t="n">
-        <v>10.15479714038235</v>
+        <v>10.14614106797014</v>
       </c>
       <c r="M29" t="n">
-        <v>9.781618029160942</v>
+        <v>10.71127190202879</v>
       </c>
       <c r="N29" t="n">
-        <v>15.5760156614281</v>
+        <v>11.29765682105637</v>
       </c>
       <c r="O29" t="n">
-        <v>17.69469143344259</v>
+        <v>11.90355262401159</v>
       </c>
       <c r="P29" t="n">
-        <v>24.86396592886278</v>
+        <v>12.52678789673442</v>
       </c>
       <c r="Q29" t="n">
-        <v>12.78215683449317</v>
+        <v>13.16476626078351</v>
       </c>
       <c r="R29" t="n">
-        <v>26.22604332823275</v>
+        <v>13.8144789904107</v>
       </c>
       <c r="S29" t="n">
-        <v>29.5296974548742</v>
+        <v>14.4725270515789</v>
       </c>
       <c r="T29" t="n">
-        <v>25.59007318759439</v>
+        <v>15.1351523420545</v>
       </c>
       <c r="U29" t="n">
-        <v>27.00939366122921</v>
+        <v>15.79827764047973</v>
       </c>
       <c r="V29" t="n">
-        <v>14.20516678687883</v>
+        <v>16.45755451523894</v>
       </c>
       <c r="W29" t="n">
-        <v>25.94131485711273</v>
+        <v>17.10841821051156</v>
       </c>
       <c r="X29" t="n">
-        <v>29.17813431349045</v>
+        <v>17.74614832572226</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.43613806778168</v>
+        <v>18.36593394272681</v>
       </c>
       <c r="Z29" t="n">
-        <v>32.67164451372255</v>
+        <v>18.96294173782103</v>
       </c>
       <c r="AA29" t="n">
-        <v>33.84922419442515</v>
+        <v>19.53238554633772</v>
       </c>
       <c r="AB29" t="n">
-        <v>35.96002221399405</v>
+        <v>20.06959582744832</v>
       </c>
       <c r="AC29" t="n">
-        <v>33</v>
+        <v>20.57008750498028</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -6976,91 +6976,91 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>5.440321978553338</v>
+        <v>8.36972612085129</v>
       </c>
       <c r="C30" t="n">
-        <v>6.228012927121176</v>
+        <v>0.4547383109865406</v>
       </c>
       <c r="D30" t="n">
-        <v>5.662103909904895</v>
+        <v>4.278482438094539</v>
       </c>
       <c r="E30" t="n">
-        <v>4.993517885992762</v>
+        <v>4.555975425076423</v>
       </c>
       <c r="F30" t="n">
-        <v>3.69104696830134</v>
+        <v>3.268855487943283</v>
       </c>
       <c r="G30" t="n">
-        <v>11.11120985737591</v>
+        <v>2.939228004491435</v>
       </c>
       <c r="H30" t="n">
-        <v>12.84898314571042</v>
+        <v>0.8133705509885084</v>
       </c>
       <c r="I30" t="n">
-        <v>14.09040706624157</v>
+        <v>0.9186872898195017</v>
       </c>
       <c r="J30" t="n">
-        <v>17.95305087603873</v>
+        <v>31.1655239798483</v>
       </c>
       <c r="K30" t="n">
-        <v>20.08726978827259</v>
+        <v>9.21677659157333</v>
       </c>
       <c r="L30" t="n">
-        <v>9.767468564994434</v>
+        <v>9.759142656163986</v>
       </c>
       <c r="M30" t="n">
-        <v>9.429454487497893</v>
+        <v>10.32563841710954</v>
       </c>
       <c r="N30" t="n">
-        <v>15.04864312178606</v>
+        <v>10.91514090047477</v>
       </c>
       <c r="O30" t="n">
-        <v>17.13361722757091</v>
+        <v>11.52610742465952</v>
       </c>
       <c r="P30" t="n">
-        <v>24.12912468196717</v>
+        <v>12.15656536409543</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.43198296443139</v>
+        <v>12.80411060542829</v>
       </c>
       <c r="R30" t="n">
-        <v>25.56431366898634</v>
+        <v>13.46591514642626</v>
       </c>
       <c r="S30" t="n">
-        <v>28.84864766105602</v>
+        <v>14.13874403265132</v>
       </c>
       <c r="T30" t="n">
-        <v>25.05550087080235</v>
+        <v>14.81898156000239</v>
       </c>
       <c r="U30" t="n">
-        <v>26.50400437286562</v>
+        <v>15.50266640261794</v>
       </c>
       <c r="V30" t="n">
-        <v>13.97037603167028</v>
+        <v>16.18553506545056</v>
       </c>
       <c r="W30" t="n">
-        <v>25.5693002163819</v>
+        <v>16.86307281884144</v>
       </c>
       <c r="X30" t="n">
-        <v>28.82368317456969</v>
+        <v>17.53057105755537</v>
       </c>
       <c r="Y30" t="n">
-        <v>31.12334326772315</v>
+        <v>18.18318984664488</v>
       </c>
       <c r="Z30" t="n">
-        <v>32.41851738239986</v>
+        <v>18.81602427728372</v>
       </c>
       <c r="AA30" t="n">
-        <v>33.66169434747172</v>
+        <v>19.42417316158405</v>
       </c>
       <c r="AB30" t="n">
-        <v>35.84035502939134</v>
+        <v>20.00280854866153</v>
       </c>
       <c r="AC30" t="n">
-        <v>32.96335369616121</v>
+        <v>20.54724454508034</v>
       </c>
       <c r="AD30" t="n">
-        <v>38</v>
+        <v>21.05300396959552</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -7164,94 +7164,94 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>5.106452382012883</v>
+        <v>7.856080587712127</v>
       </c>
       <c r="C31" t="n">
-        <v>5.858808284595903</v>
+        <v>0.4277808371477799</v>
       </c>
       <c r="D31" t="n">
-        <v>5.338296794675293</v>
+        <v>4.033802531493677</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718419924920745</v>
+        <v>4.304982121608249</v>
       </c>
       <c r="F31" t="n">
-        <v>3.495462520194933</v>
+        <v>3.095642493895901</v>
       </c>
       <c r="G31" t="n">
-        <v>10.54584848086097</v>
+        <v>2.789673994456476</v>
       </c>
       <c r="H31" t="n">
-        <v>12.2223308431135</v>
+        <v>0.7737020011226273</v>
       </c>
       <c r="I31" t="n">
-        <v>13.43302783415181</v>
+        <v>0.8758265021734809</v>
       </c>
       <c r="J31" t="n">
-        <v>17.15353903716365</v>
+        <v>29.77761472928799</v>
       </c>
       <c r="K31" t="n">
-        <v>19.23541165289864</v>
+        <v>8.82591281544982</v>
       </c>
       <c r="L31" t="n">
-        <v>9.374059234527207</v>
+        <v>9.366068672587996</v>
       </c>
       <c r="M31" t="n">
-        <v>9.069792238923403</v>
+        <v>9.931793541354674</v>
       </c>
       <c r="N31" t="n">
-        <v>14.50685305768907</v>
+        <v>10.52216760446148</v>
       </c>
       <c r="O31" t="n">
-        <v>16.55350743396467</v>
+        <v>11.13585662645428</v>
       </c>
       <c r="P31" t="n">
-        <v>23.36402349214215</v>
+        <v>11.7710974804964</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.06456234098358</v>
+        <v>12.42569194809897</v>
       </c>
       <c r="R31" t="n">
-        <v>24.86396592886278</v>
+        <v>13.09700935988303</v>
       </c>
       <c r="S31" t="n">
-        <v>28.12074503588497</v>
+        <v>13.78199840564983</v>
       </c>
       <c r="T31" t="n">
-        <v>24.4776404396839</v>
+        <v>14.47720818587765</v>
       </c>
       <c r="U31" t="n">
-        <v>25.95034018761672</v>
+        <v>15.17881831376921</v>
       </c>
       <c r="V31" t="n">
-        <v>13.70896777906842</v>
+        <v>15.88267761699721</v>
       </c>
       <c r="W31" t="n">
-        <v>25.1466768570065</v>
+        <v>16.58435074104579</v>
       </c>
       <c r="X31" t="n">
-        <v>28.41033357375766</v>
+        <v>17.27917173066295</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.74526205287434</v>
+        <v>17.9623034705281</v>
       </c>
       <c r="Z31" t="n">
-        <v>32.09594774483949</v>
+        <v>18.62880170754505</v>
       </c>
       <c r="AA31" t="n">
-        <v>33.40089669701804</v>
+        <v>19.27368226025701</v>
       </c>
       <c r="AB31" t="n">
-        <v>35.64179401497005</v>
+        <v>19.891989948973</v>
       </c>
       <c r="AC31" t="n">
-        <v>32.85365877694206</v>
+        <v>20.47886775455944</v>
       </c>
       <c r="AD31" t="n">
-        <v>37.95780122588261</v>
+        <v>21.02962473383222</v>
       </c>
       <c r="AE31" t="n">
-        <v>39</v>
+        <v>21.53980128261759</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -7352,97 +7352,97 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>4.782432735228751</v>
+        <v>7.357588823428847</v>
       </c>
       <c r="C32" t="n">
-        <v>5.499256411398489</v>
+        <v>0.4015281601795233</v>
       </c>
       <c r="D32" t="n">
-        <v>5.021835672510774</v>
+        <v>3.794673512481497</v>
       </c>
       <c r="E32" t="n">
-        <v>4.448580662229411</v>
+        <v>4.058786738391343</v>
       </c>
       <c r="F32" t="n">
-        <v>3.302893947444522</v>
+        <v>2.925100411596071</v>
       </c>
       <c r="G32" t="n">
-        <v>9.987035771985523</v>
+        <v>2.641852291484849</v>
       </c>
       <c r="H32" t="n">
-        <v>11.60043332894707</v>
+        <v>0.7343344404355544</v>
       </c>
       <c r="I32" t="n">
-        <v>12.77789133598229</v>
+        <v>0.8331119396249534</v>
       </c>
       <c r="J32" t="n">
-        <v>16.35325127635872</v>
+        <v>28.38835852028156</v>
       </c>
       <c r="K32" t="n">
-        <v>18.37879182553248</v>
+        <v>8.432864200283841</v>
       </c>
       <c r="L32" t="n">
-        <v>8.976525438019365</v>
+        <v>8.968873738716333</v>
       </c>
       <c r="M32" t="n">
-        <v>8.704483574918122</v>
+        <v>9.531765609711639</v>
       </c>
       <c r="N32" t="n">
-        <v>13.95352652142062</v>
+        <v>10.12082662916796</v>
       </c>
       <c r="O32" t="n">
-        <v>15.95753836345797</v>
+        <v>10.73493699359468</v>
       </c>
       <c r="P32" t="n">
-        <v>22.5729646826791</v>
+        <v>11.37255181210471</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.68201174607107</v>
+        <v>12.03169043253654</v>
       </c>
       <c r="R32" t="n">
-        <v>24.12912468196717</v>
+        <v>12.7099342361415</v>
       </c>
       <c r="S32" t="n">
-        <v>27.35036252174906</v>
+        <v>13.4044333529454</v>
       </c>
       <c r="T32" t="n">
-        <v>23.86002609105392</v>
+        <v>14.11192250706665</v>
       </c>
       <c r="U32" t="n">
-        <v>25.35184188395832</v>
+        <v>14.82874594683103</v>
       </c>
       <c r="V32" t="n">
-        <v>13.42258975221555</v>
+        <v>15.5508911579145</v>
       </c>
       <c r="W32" t="n">
-        <v>24.67614200232316</v>
+        <v>16.27403080850244</v>
       </c>
       <c r="X32" t="n">
-        <v>27.94075206334056</v>
+        <v>16.99357214278848</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.30435581200818</v>
+        <v>17.70471283146092</v>
       </c>
       <c r="Z32" t="n">
-        <v>31.70605149202666</v>
+        <v>18.402502112409</v>
       </c>
       <c r="AA32" t="n">
-        <v>33.06855222195584</v>
+        <v>19.08190591750174</v>
       </c>
       <c r="AB32" t="n">
-        <v>35.3656553262544</v>
+        <v>19.73787458603287</v>
       </c>
       <c r="AC32" t="n">
-        <v>32.67164451372255</v>
+        <v>20.36541171451157</v>
       </c>
       <c r="AD32" t="n">
-        <v>37.83148586435752</v>
+        <v>20.95964268626357</v>
       </c>
       <c r="AE32" t="n">
-        <v>38.95669073182689</v>
+        <v>21.51588146133184</v>
       </c>
       <c r="AF32" t="n">
-        <v>33</v>
+        <v>22.02969428427849</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -7540,100 +7540,100 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>4.469030879700979</v>
+        <v>6.87543212261689</v>
       </c>
       <c r="C33" t="n">
-        <v>5.150312176400193</v>
+        <v>0.376049999824297</v>
       </c>
       <c r="D33" t="n">
-        <v>4.713648352627277</v>
+        <v>3.561796465937306</v>
       </c>
       <c r="E33" t="n">
-        <v>4.184863060425645</v>
+        <v>3.818176623356343</v>
       </c>
       <c r="F33" t="n">
-        <v>3.114006463560588</v>
+        <v>2.757818365715752</v>
       </c>
       <c r="G33" t="n">
-        <v>9.43683984984149</v>
+        <v>2.496309971334247</v>
       </c>
       <c r="H33" t="n">
-        <v>10.98573934918408</v>
+        <v>0.6954228802490926</v>
       </c>
       <c r="I33" t="n">
-        <v>12.12772575299012</v>
+        <v>0.7907214781879638</v>
       </c>
       <c r="J33" t="n">
-        <v>15.55569380032627</v>
+        <v>27.00384193776737</v>
       </c>
       <c r="K33" t="n">
-        <v>17.52134065324149</v>
+        <v>8.039434133555575</v>
       </c>
       <c r="L33" t="n">
-        <v>8.576769518581825</v>
+        <v>8.569458576079548</v>
       </c>
       <c r="M33" t="n">
-        <v>8.33534504958941</v>
+        <v>9.127543823242133</v>
       </c>
       <c r="N33" t="n">
-        <v>13.39151319218173</v>
+        <v>9.713184915098299</v>
       </c>
       <c r="O33" t="n">
-        <v>15.34887917356268</v>
+        <v>10.32548047810475</v>
       </c>
       <c r="P33" t="n">
-        <v>21.7602795865336</v>
+        <v>10.96311054053209</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.28648234133955</v>
+        <v>11.62432161129771</v>
       </c>
       <c r="R33" t="n">
-        <v>23.36402349214215</v>
+        <v>12.30691979053514</v>
       </c>
       <c r="S33" t="n">
-        <v>26.54203715016389</v>
+        <v>13.00827247711452</v>
       </c>
       <c r="T33" t="n">
-        <v>23.20636820027192</v>
+        <v>13.72531901109199</v>
       </c>
       <c r="U33" t="n">
-        <v>24.71216988002013</v>
+        <v>14.45459034586455</v>
       </c>
       <c r="V33" t="n">
-        <v>13.11302166411637</v>
+        <v>15.19223759456625</v>
       </c>
       <c r="W33" t="n">
-        <v>24.16066155398799</v>
+        <v>15.9340690471948</v>
       </c>
       <c r="X33" t="n">
-        <v>27.41793555813685</v>
+        <v>16.67559501824727</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.80346886756326</v>
+        <v>17.41207966785111</v>
       </c>
       <c r="Z33" t="n">
-        <v>31.25136693113343</v>
+        <v>18.13859875016216</v>
       </c>
       <c r="AA33" t="n">
-        <v>32.66684093117899</v>
+        <v>18.85010208753205</v>
       </c>
       <c r="AB33" t="n">
-        <v>35.01376117618854</v>
+        <v>19.54147945246377</v>
       </c>
       <c r="AC33" t="n">
-        <v>32.41851738239986</v>
+        <v>20.20762846477847</v>
       </c>
       <c r="AD33" t="n">
-        <v>37.62189368246839</v>
+        <v>20.84352308001862</v>
       </c>
       <c r="AE33" t="n">
-        <v>38.82705128184062</v>
+        <v>21.44428125643204</v>
       </c>
       <c r="AF33" t="n">
-        <v>32.96335369616121</v>
+        <v>22.00523043972646</v>
       </c>
       <c r="AG33" t="n">
-        <v>40</v>
+        <v>22.52196959352148</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -7728,103 +7728,103 @@
         <v>2022</v>
       </c>
       <c r="B34" t="n">
-        <v>4.166896773202036</v>
+        <v>6.410610420310825</v>
       </c>
       <c r="C34" t="n">
-        <v>4.812802485831823</v>
+        <v>0.3514067326335216</v>
       </c>
       <c r="D34" t="n">
-        <v>4.414553294057308</v>
+        <v>3.335789847942554</v>
       </c>
       <c r="E34" t="n">
-        <v>3.928040293856064</v>
+        <v>3.583857203699648</v>
       </c>
       <c r="F34" t="n">
-        <v>2.929404142297952</v>
+        <v>2.594331334494324</v>
       </c>
       <c r="G34" t="n">
-        <v>8.897161324458821</v>
+        <v>2.353549798896824</v>
       </c>
       <c r="H34" t="n">
-        <v>10.38052383482564</v>
+        <v>0.657111328992614</v>
       </c>
       <c r="I34" t="n">
-        <v>11.48509113778335</v>
+        <v>0.7488220319751598</v>
       </c>
       <c r="J34" t="n">
-        <v>14.76418787320536</v>
+        <v>25.62983051641046</v>
       </c>
       <c r="K34" t="n">
-        <v>16.66681478606386</v>
+        <v>7.647346304173465</v>
       </c>
       <c r="L34" t="n">
-        <v>8.176625638179361</v>
+        <v>8.169655783180476</v>
       </c>
       <c r="M34" t="n">
-        <v>7.96414312439741</v>
+        <v>8.721062529509881</v>
       </c>
       <c r="N34" t="n">
-        <v>12.82360776859909</v>
+        <v>9.301269524030634</v>
       </c>
       <c r="O34" t="n">
-        <v>14.7306645113999</v>
+        <v>9.909595816217855</v>
       </c>
       <c r="P34" t="n">
-        <v>20.93028978213093</v>
+        <v>10.54495093293163</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.8801397932668</v>
+        <v>11.20581597594568</v>
       </c>
       <c r="R34" t="n">
-        <v>22.5729646826791</v>
+        <v>11.89023225720287</v>
       </c>
       <c r="S34" t="n">
-        <v>25.70042584135636</v>
+        <v>12.59579813828173</v>
       </c>
       <c r="T34" t="n">
-        <v>22.52051636983602</v>
+        <v>13.31967453084265</v>
       </c>
       <c r="U34" t="n">
-        <v>24.03516706456735</v>
+        <v>14.0585992852706</v>
       </c>
       <c r="V34" t="n">
-        <v>12.78215683449317</v>
+        <v>14.80891045364673</v>
       </c>
       <c r="W34" t="n">
-        <v>23.60343899540947</v>
+        <v>15.56657816938069</v>
       </c>
       <c r="X34" t="n">
-        <v>26.84517950443109</v>
+        <v>16.32724464826429</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.2457979286793</v>
+        <v>17.08627159297762</v>
       </c>
       <c r="Z34" t="n">
-        <v>30.73482726967462</v>
+        <v>17.83879408310895</v>
       </c>
       <c r="AA34" t="n">
-        <v>32.19837805025869</v>
+        <v>18.5797798623689</v>
       </c>
       <c r="AB34" t="n">
-        <v>34.58841980948363</v>
+        <v>19.30409279937266</v>
       </c>
       <c r="AC34" t="n">
-        <v>32.09594774483949</v>
+        <v>20.00655920201887</v>
       </c>
       <c r="AD34" t="n">
-        <v>37.33041395549075</v>
+        <v>20.68203561030502</v>
       </c>
       <c r="AE34" t="n">
-        <v>38.61194351621756</v>
+        <v>21.32547667884566</v>
       </c>
       <c r="AF34" t="n">
-        <v>32.85365877694206</v>
+        <v>21.93200178715262</v>
       </c>
       <c r="AG34" t="n">
-        <v>39.95558023777117</v>
+        <v>22.49695908016475</v>
       </c>
       <c r="AH34" t="n">
-        <v>44</v>
+        <v>23.01598573944983</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -7916,106 +7916,106 @@
         <v>2023</v>
       </c>
       <c r="B35" t="n">
-        <v>3.876564632588535</v>
+        <v>5.963945588597746</v>
       </c>
       <c r="C35" t="n">
-        <v>4.487427294217578</v>
+        <v>0.3276494657808375</v>
       </c>
       <c r="D35" t="n">
-        <v>4.125259273570134</v>
+        <v>3.117189234849792</v>
       </c>
       <c r="E35" t="n">
-        <v>3.678794411714423</v>
+        <v>3.35645076604091</v>
       </c>
       <c r="F35" t="n">
-        <v>2.749628205699245</v>
+        <v>2.435118633600064</v>
       </c>
       <c r="G35" t="n">
-        <v>8.36972612085129</v>
+        <v>2.214028329957165</v>
       </c>
       <c r="H35" t="n">
-        <v>9.786877456904705</v>
+        <v>0.61953213101047</v>
       </c>
       <c r="I35" t="n">
-        <v>10.85236582731771</v>
+        <v>0.7075686673321662</v>
       </c>
       <c r="J35" t="n">
-        <v>13.98185008077973</v>
+        <v>24.27173448033649</v>
       </c>
       <c r="K35" t="n">
-        <v>15.81877272129146</v>
+        <v>7.258233481293617</v>
       </c>
       <c r="L35" t="n">
-        <v>7.777846900163135</v>
+        <v>7.771216969003692</v>
       </c>
       <c r="M35" t="n">
-        <v>7.592580949737978</v>
+        <v>8.314186747873203</v>
       </c>
       <c r="N35" t="n">
-        <v>12.25252788368832</v>
+        <v>8.887051620211531</v>
       </c>
       <c r="O35" t="n">
-        <v>14.105968545459</v>
+        <v>9.489351059051243</v>
       </c>
       <c r="P35" t="n">
-        <v>20.08726978827259</v>
+        <v>10.1202265472088</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.46514489106547</v>
+        <v>10.77839899478689</v>
       </c>
       <c r="R35" t="n">
-        <v>21.7602795865336</v>
+        <v>11.46215315102538</v>
       </c>
       <c r="S35" t="n">
-        <v>24.83026115094701</v>
+        <v>12.16932976553518</v>
       </c>
       <c r="T35" t="n">
-        <v>21.80642192599934</v>
+        <v>12.89732606333915</v>
       </c>
       <c r="U35" t="n">
-        <v>23.3248205259016</v>
+        <v>13.64310488433911</v>
       </c>
       <c r="V35" t="n">
-        <v>12.43198296443139</v>
+        <v>14.4032126084319</v>
       </c>
       <c r="W35" t="n">
-        <v>23.00788230208771</v>
+        <v>15.17380575080668</v>
       </c>
       <c r="X35" t="n">
-        <v>26.22604332823275</v>
+        <v>15.95068587659682</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.63485813805983</v>
+        <v>16.72934225855024</v>
       </c>
       <c r="Z35" t="n">
-        <v>30.15972911395053</v>
+        <v>17.50500149375999</v>
       </c>
       <c r="AA35" t="n">
-        <v>31.66618567178597</v>
+        <v>18.27268311292955</v>
       </c>
       <c r="AB35" t="n">
-        <v>34.0924002885092</v>
+        <v>19.02726006414127</v>
       </c>
       <c r="AC35" t="n">
-        <v>31.70605149202666</v>
+        <v>19.76352283722421</v>
       </c>
       <c r="AD35" t="n">
-        <v>36.95897013042124</v>
+        <v>20.47624591757686</v>
       </c>
       <c r="AE35" t="n">
-        <v>38.31279327010893</v>
+        <v>21.16025522102961</v>
       </c>
       <c r="AF35" t="n">
-        <v>32.67164451372255</v>
+        <v>21.81049516369492</v>
       </c>
       <c r="AG35" t="n">
-        <v>39.82261669932371</v>
+        <v>22.42209406091573</v>
       </c>
       <c r="AH35" t="n">
-        <v>43.95113826154829</v>
+        <v>22.99042662409962</v>
       </c>
       <c r="AI35" t="n">
-        <v>50</v>
+        <v>23.51117242906918</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -8104,109 +8104,109 @@
         <v>2024</v>
       </c>
       <c r="B36" t="n">
-        <v>3.598456174320233</v>
+        <v>5.536086422031127</v>
       </c>
       <c r="C36" t="n">
-        <v>4.174761912018423</v>
+        <v>0.3048202055546667</v>
       </c>
       <c r="D36" t="n">
-        <v>3.846366252186495</v>
+        <v>2.906447978051298</v>
       </c>
       <c r="E36" t="n">
-        <v>3.437716061308445</v>
+        <v>3.136496203937797</v>
       </c>
       <c r="F36" t="n">
-        <v>2.575156088200096</v>
+        <v>2.280603087285397</v>
       </c>
       <c r="G36" t="n">
-        <v>7.856080587712127</v>
+        <v>2.0781546173045</v>
       </c>
       <c r="H36" t="n">
-        <v>9.206698732936418</v>
+        <v>0.5828054668819209</v>
       </c>
       <c r="I36" t="n">
-        <v>10.23173552312764</v>
+        <v>0.6671038908742699</v>
       </c>
       <c r="J36" t="n">
-        <v>13.21157578977809</v>
+        <v>22.93458002937282</v>
       </c>
       <c r="K36" t="n">
-        <v>14.98055365797828</v>
+        <v>6.873627811992267</v>
       </c>
       <c r="L36" t="n">
-        <v>7.382093936602679</v>
+        <v>7.375801350075784</v>
       </c>
       <c r="M36" t="n">
-        <v>7.22228640729434</v>
+        <v>7.908699075370888</v>
       </c>
       <c r="N36" t="n">
-        <v>11.68089376882766</v>
+        <v>8.472431720149618</v>
       </c>
       <c r="O36" t="n">
-        <v>13.47778067205715</v>
+        <v>9.066757229883237</v>
       </c>
       <c r="P36" t="n">
-        <v>19.23541165289864</v>
+        <v>9.691049391381458</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.04363489413629</v>
+        <v>10.34427190199597</v>
       </c>
       <c r="R36" t="n">
-        <v>20.93028978213093</v>
+        <v>11.02495884871778</v>
       </c>
       <c r="S36" t="n">
-        <v>23.93630754518696</v>
+        <v>11.73120242738721</v>
       </c>
       <c r="T36" t="n">
-        <v>21.06810037050049</v>
+        <v>12.46064856195104</v>
       </c>
       <c r="U36" t="n">
-        <v>22.58522270907074</v>
+        <v>13.21050088740604</v>
       </c>
       <c r="V36" t="n">
-        <v>12.06456234098358</v>
+        <v>13.9775333446023</v>
       </c>
       <c r="W36" t="n">
-        <v>22.3775693359765</v>
+        <v>14.75811140812837</v>
       </c>
       <c r="X36" t="n">
-        <v>25.56431366898634</v>
+        <v>15.54822173826817</v>
       </c>
       <c r="Y36" t="n">
-        <v>27.9744462167816</v>
+        <v>16.34350982280279</v>
       </c>
       <c r="Z36" t="n">
-        <v>29.5296974548742</v>
+        <v>17.13932496226403</v>
       </c>
       <c r="AA36" t="n">
-        <v>31.07366029922176</v>
+        <v>17.93077176050282</v>
       </c>
       <c r="AB36" t="n">
-        <v>33.52890247600867</v>
+        <v>18.71276711752302</v>
       </c>
       <c r="AC36" t="n">
-        <v>31.25136693113343</v>
+        <v>19.48010158859581</v>
       </c>
       <c r="AD36" t="n">
-        <v>36.50999868778828</v>
+        <v>20.22750387641932</v>
       </c>
       <c r="AE36" t="n">
-        <v>37.93157460753758</v>
+        <v>20.94970716367033</v>
       </c>
       <c r="AF36" t="n">
-        <v>32.41851738239986</v>
+        <v>21.64151597223749</v>
       </c>
       <c r="AG36" t="n">
-        <v>39.60199334996673</v>
+        <v>22.29787225176976</v>
       </c>
       <c r="AH36" t="n">
-        <v>43.80487836925608</v>
+        <v>22.91391945148028</v>
       </c>
       <c r="AI36" t="n">
-        <v>49.94447529721396</v>
+        <v>23.48506341184367</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>24.00702902228676</v>
       </c>
       <c r="AK36" t="n">
         <v>0</v>
@@ -8292,112 +8292,112 @@
         <v>2025</v>
       </c>
       <c r="B37" t="n">
-        <v>3.332884836923359</v>
+        <v>5.127515133728244</v>
       </c>
       <c r="C37" t="n">
-        <v>3.87526049542179</v>
+        <v>0.2829521121651779</v>
       </c>
       <c r="D37" t="n">
-        <v>3.578367353158648</v>
+        <v>2.70393869860952</v>
       </c>
       <c r="E37" t="n">
-        <v>3.205305210155412</v>
+        <v>2.924449676710069</v>
       </c>
       <c r="F37" t="n">
-        <v>2.406401242915912</v>
+        <v>2.131150856831095</v>
       </c>
       <c r="G37" t="n">
-        <v>7.357588823428847</v>
+        <v>1.946289503388292</v>
       </c>
       <c r="H37" t="n">
-        <v>8.64168864648334</v>
+        <v>0.5470390128270857</v>
       </c>
       <c r="I37" t="n">
-        <v>9.625185038978984</v>
+        <v>0.6275571114376219</v>
       </c>
       <c r="J37" t="n">
-        <v>12.45602585424235</v>
+        <v>21.62298626202383</v>
       </c>
       <c r="K37" t="n">
-        <v>14.15525977476224</v>
+        <v>6.494952689679965</v>
       </c>
       <c r="L37" t="n">
-        <v>6.990925040389866</v>
+        <v>6.984965890980838</v>
       </c>
       <c r="M37" t="n">
-        <v>6.854801512559631</v>
+        <v>7.506288082050845</v>
       </c>
       <c r="N37" t="n">
-        <v>11.11120985737591</v>
+        <v>8.059226349279514</v>
       </c>
       <c r="O37" t="n">
-        <v>12.84898314571042</v>
+        <v>8.64375327568202</v>
       </c>
       <c r="P37" t="n">
-        <v>18.37879182553248</v>
+        <v>9.259473233488778</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.617705826449319</v>
+        <v>9.905593462013048</v>
       </c>
       <c r="R37" t="n">
-        <v>20.08726978827259</v>
+        <v>10.58090093849862</v>
       </c>
       <c r="S37" t="n">
-        <v>23.02331876034403</v>
+        <v>11.28374593357723</v>
       </c>
       <c r="T37" t="n">
-        <v>20.30959428076469</v>
+        <v>12.01203299386064</v>
       </c>
       <c r="U37" t="n">
-        <v>21.82053252658979</v>
+        <v>12.76321991681822</v>
       </c>
       <c r="V37" t="n">
-        <v>11.68201174607107</v>
+        <v>13.53432508347684</v>
       </c>
       <c r="W37" t="n">
-        <v>21.71621221377045</v>
+        <v>14.32194329962946</v>
       </c>
       <c r="X37" t="n">
-        <v>24.86396592886278</v>
+        <v>15.12227007383736</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.26860124691876</v>
+        <v>15.9311340385269</v>
       </c>
       <c r="Z37" t="n">
-        <v>28.84864766105602</v>
+        <v>16.74403700682289</v>
       </c>
       <c r="AA37" t="n">
-        <v>30.42453677168857</v>
+        <v>17.55620095987971</v>
       </c>
       <c r="AB37" t="n">
-        <v>32.90152266976421</v>
+        <v>18.36262108405563</v>
       </c>
       <c r="AC37" t="n">
-        <v>30.73482726967462</v>
+        <v>19.15812382992912</v>
       </c>
       <c r="AD37" t="n">
-        <v>35.98642252675971</v>
+        <v>19.9374288501951</v>
       </c>
       <c r="AE37" t="n">
-        <v>37.4707881269406</v>
+        <v>20.69521359377864</v>
       </c>
       <c r="AF37" t="n">
-        <v>32.09594774483949</v>
+        <v>21.42617929039369</v>
       </c>
       <c r="AG37" t="n">
-        <v>39.2951725847271</v>
+        <v>22.12511705313506</v>
       </c>
       <c r="AH37" t="n">
-        <v>43.5621926849634</v>
+        <v>22.78697285491553</v>
       </c>
       <c r="AI37" t="n">
-        <v>49.77827087415464</v>
+        <v>23.40691019486324</v>
       </c>
       <c r="AJ37" t="n">
-        <v>50.94336480315825</v>
+        <v>23.980369359262</v>
       </c>
       <c r="AK37" t="n">
-        <v>52</v>
+        <v>24.50312229364818</v>
       </c>
       <c r="AL37" t="n">
         <v>0</v>
@@ -8480,115 +8480,115 @@
         <v>2026</v>
       </c>
       <c r="B38" t="n">
-        <v>3.080060862867583</v>
+        <v>4.738555173642435</v>
       </c>
       <c r="C38" t="n">
-        <v>3.589260593609771</v>
+        <v>0.2620698317630353</v>
       </c>
       <c r="D38" t="n">
-        <v>3.321651853218677</v>
+        <v>2.509955547548226</v>
       </c>
       <c r="E38" t="n">
-        <v>2.981972794298873</v>
+        <v>2.720686113327327</v>
       </c>
       <c r="F38" t="n">
-        <v>2.243713647108789</v>
+        <v>1.987071888196579</v>
       </c>
       <c r="G38" t="n">
-        <v>6.87543212261689</v>
+        <v>1.818745473910805</v>
       </c>
       <c r="H38" t="n">
-        <v>8.09334770577173</v>
+        <v>0.5123277545105039</v>
       </c>
       <c r="I38" t="n">
-        <v>9.034492675868947</v>
+        <v>0.5890442733321303</v>
       </c>
       <c r="J38" t="n">
-        <v>11.71761656919181</v>
+        <v>20.34114773557594</v>
       </c>
       <c r="K38" t="n">
-        <v>13.34574198668823</v>
+        <v>6.123516218809311</v>
       </c>
       <c r="L38" t="n">
-        <v>6.605787894889043</v>
+        <v>6.600157041060322</v>
       </c>
       <c r="M38" t="n">
-        <v>6.49157325179059</v>
+        <v>7.108538277059537</v>
       </c>
       <c r="N38" t="n">
-        <v>10.54584848086097</v>
+        <v>7.649156216417298</v>
       </c>
       <c r="O38" t="n">
-        <v>12.2223308431135</v>
+        <v>8.222192453953168</v>
       </c>
       <c r="P38" t="n">
-        <v>17.52134065324149</v>
+        <v>8.82747823326128</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.189395912766242</v>
+        <v>9.464462909961137</v>
       </c>
       <c r="R38" t="n">
-        <v>19.23541165289864</v>
+        <v>10.13218756734112</v>
       </c>
       <c r="S38" t="n">
-        <v>22.09599676709985</v>
+        <v>10.82926472349172</v>
       </c>
       <c r="T38" t="n">
-        <v>19.53493712998887</v>
+        <v>11.5538649415888</v>
       </c>
       <c r="U38" t="n">
-        <v>21.03493693364915</v>
+        <v>12.30371099758508</v>
       </c>
       <c r="V38" t="n">
-        <v>11.28648234133955</v>
+        <v>13.0760800773878</v>
       </c>
       <c r="W38" t="n">
-        <v>21.02762114292793</v>
+        <v>13.86781427491013</v>
       </c>
       <c r="X38" t="n">
-        <v>24.12912468196717</v>
+        <v>14.67533945026973</v>
       </c>
       <c r="Y38" t="n">
-        <v>26.52156365745363</v>
+        <v>15.49469229141191</v>
       </c>
       <c r="Z38" t="n">
-        <v>28.12074503588497</v>
+        <v>16.32155521022621</v>
       </c>
       <c r="AA38" t="n">
-        <v>29.72284910533045</v>
+        <v>17.15129850321797</v>
       </c>
       <c r="AB38" t="n">
-        <v>32.21421540531731</v>
+        <v>17.97902902383298</v>
       </c>
       <c r="AC38" t="n">
-        <v>30.15972911395053</v>
+        <v>18.79964445455951</v>
       </c>
       <c r="AD38" t="n">
-        <v>35.39161928023137</v>
+        <v>19.60789213676644</v>
       </c>
       <c r="AE38" t="n">
-        <v>36.93343364588496</v>
+        <v>20.3984313183873</v>
       </c>
       <c r="AF38" t="n">
-        <v>31.70605149202666</v>
+        <v>21.16589761608907</v>
       </c>
       <c r="AG38" t="n">
-        <v>38.90417908465393</v>
+        <v>21.90496846013725</v>
       </c>
       <c r="AH38" t="n">
-        <v>43.22468984319981</v>
+        <v>22.61042829598248</v>
       </c>
       <c r="AI38" t="n">
-        <v>49.5024916874584</v>
+        <v>23.27723235464796</v>
       </c>
       <c r="AJ38" t="n">
-        <v>50.77383629163774</v>
+        <v>23.90056787110164</v>
       </c>
       <c r="AK38" t="n">
-        <v>51.94225430910252</v>
+        <v>24.47591172199448</v>
       </c>
       <c r="AL38" t="n">
-        <v>54</v>
+        <v>24.99908356674138</v>
       </c>
       <c r="AM38" t="n">
         <v>0</v>
@@ -8668,118 +8668,118 @@
         <v>2027</v>
       </c>
       <c r="B39" t="n">
-        <v>2.840097113123905</v>
+        <v>4.369380174036777</v>
       </c>
       <c r="C39" t="n">
-        <v>3.316988621549705</v>
+        <v>0.2421898960351562</v>
       </c>
       <c r="D39" t="n">
-        <v>3.076509080236947</v>
+        <v>2.324717151058652</v>
       </c>
       <c r="E39" t="n">
-        <v>2.768043211015564</v>
+        <v>2.525501486699756</v>
       </c>
       <c r="F39" t="n">
-        <v>2.087380956009211</v>
+        <v>1.848620933864514</v>
       </c>
       <c r="G39" t="n">
-        <v>6.410610420310825</v>
+        <v>1.69578703985635</v>
       </c>
       <c r="H39" t="n">
-        <v>7.562975334878579</v>
+        <v>0.4787539485018579</v>
       </c>
       <c r="I39" t="n">
-        <v>8.461227146943173</v>
+        <v>0.5516676558476336</v>
       </c>
       <c r="J39" t="n">
-        <v>10.99851282279698</v>
+        <v>19.09282257864241</v>
       </c>
       <c r="K39" t="n">
-        <v>12.55458918127693</v>
+        <v>5.760506275988232</v>
       </c>
       <c r="L39" t="n">
-        <v>6.228012927121176</v>
+        <v>6.222704093263046</v>
       </c>
       <c r="M39" t="n">
-        <v>6.133945902396969</v>
+        <v>6.716921699154224</v>
       </c>
       <c r="N39" t="n">
-        <v>9.987035771985523</v>
+        <v>7.24383598887325</v>
       </c>
       <c r="O39" t="n">
-        <v>11.60043332894707</v>
+        <v>7.803830268070064</v>
       </c>
       <c r="P39" t="n">
-        <v>16.66681478606386</v>
+        <v>8.396957039617707</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.760670326620744</v>
+        <v>9.022904243086378</v>
       </c>
       <c r="R39" t="n">
-        <v>18.37879182553248</v>
+        <v>9.680965991146293</v>
       </c>
       <c r="S39" t="n">
-        <v>21.1589528181885</v>
+        <v>10.37001877558244</v>
       </c>
       <c r="T39" t="n">
-        <v>18.74811846905441</v>
+        <v>11.08850400996836</v>
       </c>
       <c r="U39" t="n">
-        <v>20.2326134560599</v>
+        <v>11.83441763930341</v>
       </c>
       <c r="V39" t="n">
-        <v>10.8801397932668</v>
+        <v>12.60530738340258</v>
       </c>
       <c r="W39" t="n">
-        <v>20.31566821441119</v>
+        <v>13.39827799603014</v>
       </c>
       <c r="X39" t="n">
-        <v>23.36402349214215</v>
+        <v>14.21000472211531</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.73773299409831</v>
+        <v>15.03675492790919</v>
       </c>
       <c r="Z39" t="n">
-        <v>27.35036252174906</v>
+        <v>15.87441767096767</v>
       </c>
       <c r="AA39" t="n">
-        <v>28.97288882485119</v>
+        <v>16.71854077563693</v>
       </c>
       <c r="AB39" t="n">
-        <v>31.4712519938793</v>
+        <v>17.56437479215844</v>
       </c>
       <c r="AC39" t="n">
-        <v>29.5296974548742</v>
+        <v>18.40692304976836</v>
       </c>
       <c r="AD39" t="n">
-        <v>34.72938504030667</v>
+        <v>19.24099687145231</v>
       </c>
       <c r="AE39" t="n">
-        <v>36.32297768234273</v>
+        <v>20.06127490437477</v>
       </c>
       <c r="AF39" t="n">
-        <v>31.25136693113343</v>
+        <v>20.86236543814182</v>
       </c>
       <c r="AG39" t="n">
-        <v>38.43157756609293</v>
+        <v>21.63887053436518</v>
       </c>
       <c r="AH39" t="n">
-        <v>42.79459699311933</v>
+        <v>22.38545077543493</v>
       </c>
       <c r="AI39" t="n">
-        <v>49.11896573090888</v>
+        <v>23.09688945673877</v>
       </c>
       <c r="AJ39" t="n">
-        <v>50.49254152120757</v>
+        <v>23.76815509232646</v>
       </c>
       <c r="AK39" t="n">
-        <v>51.76940170912083</v>
+        <v>24.39446117591513</v>
       </c>
       <c r="AL39" t="n">
-        <v>53.94003332099108</v>
+        <v>24.97132223304205</v>
       </c>
       <c r="AM39" t="n">
-        <v>58</v>
+        <v>25.49460531162345</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -8856,121 +8856,121 @@
         <v>2028</v>
       </c>
       <c r="B40" t="n">
-        <v>2.613015485934515</v>
+        <v>4.020023824514638</v>
       </c>
       <c r="C40" t="n">
-        <v>3.058566121825744</v>
+        <v>0.2233211794122905</v>
       </c>
       <c r="D40" t="n">
-        <v>2.843133104185461</v>
+        <v>2.148370155154399</v>
       </c>
       <c r="E40" t="n">
-        <v>2.563757566864122</v>
+        <v>2.339115777126025</v>
       </c>
       <c r="F40" t="n">
-        <v>1.937630247710895</v>
+        <v>1.715999098150073</v>
       </c>
       <c r="G40" t="n">
-        <v>5.963945588597746</v>
+        <v>1.577631609543689</v>
       </c>
       <c r="H40" t="n">
-        <v>7.051671462341908</v>
+        <v>0.446387222838703</v>
       </c>
       <c r="I40" t="n">
-        <v>7.906746941009423</v>
+        <v>0.5155158317553216</v>
       </c>
       <c r="J40" t="n">
-        <v>10.30062435280039</v>
+        <v>17.88132599251245</v>
       </c>
       <c r="K40" t="n">
-        <v>11.78412088156819</v>
+        <v>5.406987143515051</v>
       </c>
       <c r="L40" t="n">
-        <v>5.858808284595903</v>
+        <v>5.853814165259042</v>
       </c>
       <c r="M40" t="n">
-        <v>5.783154860898234</v>
+        <v>6.332791158063046</v>
       </c>
       <c r="N40" t="n">
-        <v>9.43683984984149</v>
+        <v>6.844765722905245</v>
       </c>
       <c r="O40" t="n">
-        <v>10.98573934918408</v>
+        <v>7.390314035628573</v>
       </c>
       <c r="P40" t="n">
-        <v>15.81877272129146</v>
+        <v>7.969702469558113</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.33340739303193</v>
+        <v>8.582852010476106</v>
       </c>
       <c r="R40" t="n">
-        <v>17.52134065324149</v>
+        <v>9.229306506844084</v>
       </c>
       <c r="S40" t="n">
-        <v>20.21667100808573</v>
+        <v>9.908205747942633</v>
       </c>
       <c r="T40" t="n">
-        <v>17.95305087603873</v>
+        <v>10.61826427855733</v>
       </c>
       <c r="U40" t="n">
-        <v>19.4176941286635</v>
+        <v>11.35775674308781</v>
       </c>
       <c r="V40" t="n">
-        <v>10.46514489106547</v>
+        <v>12.12451040797859</v>
       </c>
       <c r="W40" t="n">
-        <v>19.58425162788024</v>
+        <v>12.9159053438573</v>
       </c>
       <c r="X40" t="n">
-        <v>22.5729646826791</v>
+        <v>13.7288825634374</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.92162505828496</v>
+        <v>14.55996021454569</v>
       </c>
       <c r="Z40" t="n">
-        <v>26.54203715016389</v>
+        <v>15.40525772647409</v>
       </c>
       <c r="AA40" t="n">
-        <v>28.17916138604448</v>
+        <v>16.2605276092367</v>
       </c>
       <c r="AB40" t="n">
-        <v>30.67717640278361</v>
+        <v>17.12119441604814</v>
       </c>
       <c r="AC40" t="n">
-        <v>28.84864766105602</v>
+        <v>17.98240020570506</v>
       </c>
       <c r="AD40" t="n">
-        <v>34.00389403894605</v>
+        <v>18.83905568904307</v>
       </c>
       <c r="AE40" t="n">
-        <v>35.6433162255779</v>
+        <v>19.68589611672941</v>
       </c>
       <c r="AF40" t="n">
-        <v>30.73482726967462</v>
+        <v>20.5175408676072</v>
       </c>
       <c r="AG40" t="n">
-        <v>37.88044476501022</v>
+        <v>21.32855562966575</v>
       </c>
       <c r="AH40" t="n">
-        <v>42.27473532270222</v>
+        <v>22.11351603014387</v>
       </c>
       <c r="AI40" t="n">
-        <v>48.63022385581742</v>
+        <v>22.86707156676713</v>
       </c>
       <c r="AJ40" t="n">
-        <v>50.10134504552706</v>
+        <v>23.58400871693276</v>
       </c>
       <c r="AK40" t="n">
-        <v>51.48259135495674</v>
+        <v>24.25931215316191</v>
       </c>
       <c r="AL40" t="n">
-        <v>53.76053254408701</v>
+        <v>24.8882230678176</v>
       </c>
       <c r="AM40" t="n">
-        <v>57.9355913447682</v>
+        <v>25.46629370397194</v>
       </c>
       <c r="AN40" t="n">
-        <v>62</v>
+        <v>25.98943729803176</v>
       </c>
       <c r="AO40" t="n">
         <v>0</v>
@@ -9044,124 +9044,124 @@
         <v>2029</v>
       </c>
       <c r="B41" t="n">
-        <v>2.39875381190886</v>
+        <v>3.690390479859785</v>
       </c>
       <c r="C41" t="n">
-        <v>2.814016677160247</v>
+        <v>0.2054654037867109</v>
       </c>
       <c r="D41" t="n">
-        <v>2.621628104422066</v>
+        <v>1.980993281377856</v>
       </c>
       <c r="E41" t="n">
-        <v>2.369277586821218</v>
+        <v>2.161676538902756</v>
       </c>
       <c r="F41" t="n">
-        <v>1.794630296804886</v>
+        <v>1.589355850770902</v>
       </c>
       <c r="G41" t="n">
-        <v>5.536086422031127</v>
+        <v>1.464450807408432</v>
       </c>
       <c r="H41" t="n">
-        <v>6.560340147457521</v>
+        <v>0.4152848065794959</v>
       </c>
       <c r="I41" t="n">
-        <v>7.372201983357448</v>
+        <v>0.4806637755923364</v>
       </c>
       <c r="J41" t="n">
-        <v>9.625604971663646</v>
+        <v>16.7095289060486</v>
       </c>
       <c r="K41" t="n">
-        <v>11.03638323514327</v>
+        <v>5.063897668994681</v>
       </c>
       <c r="L41" t="n">
-        <v>5.499256411398489</v>
+        <v>5.49456877844509</v>
       </c>
       <c r="M41" t="n">
-        <v>5.440321978553338</v>
+        <v>5.957375126808816</v>
       </c>
       <c r="N41" t="n">
-        <v>8.897161324458821</v>
+        <v>6.453323976440788</v>
       </c>
       <c r="O41" t="n">
-        <v>10.38052383482564</v>
+        <v>6.983174145615116</v>
       </c>
       <c r="P41" t="n">
-        <v>14.98055365797828</v>
+        <v>7.547396854791541</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.909386360645728</v>
+        <v>8.146138719182664</v>
       </c>
       <c r="R41" t="n">
-        <v>16.66681478606386</v>
+        <v>8.779187917045991</v>
       </c>
       <c r="S41" t="n">
-        <v>19.27347471856564</v>
+        <v>9.445944533248905</v>
       </c>
       <c r="T41" t="n">
-        <v>17.15353903716365</v>
+        <v>10.14539601468239</v>
       </c>
       <c r="U41" t="n">
-        <v>18.59423126446868</v>
+        <v>10.87609857932649</v>
       </c>
       <c r="V41" t="n">
-        <v>10.04363489413629</v>
+        <v>11.63616529684707</v>
       </c>
       <c r="W41" t="n">
-        <v>18.83726080391784</v>
+        <v>12.42326140941696</v>
       </c>
       <c r="X41" t="n">
-        <v>21.7602795865336</v>
+        <v>13.23460729198408</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.0778289948577</v>
+        <v>14.06698926726765</v>
       </c>
       <c r="Z41" t="n">
-        <v>25.70042584135636</v>
+        <v>14.91677829875183</v>
       </c>
       <c r="AA41" t="n">
-        <v>27.34634130622946</v>
+        <v>15.77995639152596</v>
       </c>
       <c r="AB41" t="n">
-        <v>29.83675911463533</v>
+        <v>16.65215034262784</v>
       </c>
       <c r="AC41" t="n">
-        <v>28.12074503588497</v>
+        <v>17.52867230586041</v>
       </c>
       <c r="AD41" t="n">
-        <v>33.21965488242815</v>
+        <v>18.40456647653561</v>
       </c>
       <c r="AE41" t="n">
-        <v>34.89873335576042</v>
+        <v>19.27466106405481</v>
       </c>
       <c r="AF41" t="n">
-        <v>30.15972911395053</v>
+        <v>20.13362460839344</v>
       </c>
       <c r="AG41" t="n">
-        <v>37.25433608445408</v>
+        <v>20.97602561302262</v>
       </c>
       <c r="AH41" t="n">
-        <v>41.66848924151124</v>
+        <v>21.79639441288731</v>
       </c>
       <c r="AI41" t="n">
-        <v>48.03947195761616</v>
+        <v>22.58928617193894</v>
       </c>
       <c r="AJ41" t="n">
-        <v>49.60282833293377</v>
+        <v>23.34934390933821</v>
       </c>
       <c r="AK41" t="n">
-        <v>51.08372436014524</v>
+        <v>24.07136048483948</v>
       </c>
       <c r="AL41" t="n">
-        <v>53.46269102245508</v>
+        <v>24.75033852913386</v>
       </c>
       <c r="AM41" t="n">
-        <v>57.74279421401938</v>
+        <v>25.38154738063307</v>
       </c>
       <c r="AN41" t="n">
-        <v>61.93114936854531</v>
+        <v>25.96057618240077</v>
       </c>
       <c r="AO41" t="n">
-        <v>60</v>
+        <v>26.48338239763081</v>
       </c>
       <c r="AP41" t="n">
         <v>0</v>
@@ -9232,127 +9232,127 @@
         <v>2030</v>
       </c>
       <c r="B42" t="n">
-        <v>2.197173100278859</v>
+        <v>3.380266308121322</v>
       </c>
       <c r="C42" t="n">
-        <v>2.583273335901849</v>
+        <v>0.1886176806841617</v>
       </c>
       <c r="D42" t="n">
-        <v>2.412014294708783</v>
+        <v>1.822601803949912</v>
       </c>
       <c r="E42" t="n">
-        <v>2.184690087018388</v>
+        <v>1.993262981150815</v>
       </c>
       <c r="F42" t="n">
-        <v>1.658494310774852</v>
+        <v>1.46879145024645</v>
       </c>
       <c r="G42" t="n">
-        <v>5.127515133728244</v>
+        <v>1.356372192403802</v>
       </c>
       <c r="H42" t="n">
-        <v>6.089695064234241</v>
+        <v>0.3854918769507298</v>
       </c>
       <c r="I42" t="n">
-        <v>6.858537426887408</v>
+        <v>0.4471731108413947</v>
       </c>
       <c r="J42" t="n">
-        <v>8.974854588435155</v>
+        <v>15.57986148553952</v>
       </c>
       <c r="K42" t="n">
-        <v>10.31314818392534</v>
+        <v>4.732050884412612</v>
       </c>
       <c r="L42" t="n">
-        <v>5.150312176400193</v>
+        <v>5.145921987750625</v>
       </c>
       <c r="M42" t="n">
-        <v>5.106452382012883</v>
+        <v>5.591774260193067</v>
       </c>
       <c r="N42" t="n">
-        <v>8.36972612085129</v>
+        <v>6.07076260418575</v>
       </c>
       <c r="O42" t="n">
-        <v>9.786877456904705</v>
+        <v>6.583817031860637</v>
       </c>
       <c r="P42" t="n">
-        <v>14.15525977476224</v>
+        <v>7.131603113073178</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.490276828989142</v>
+        <v>7.714483945002749</v>
       </c>
       <c r="R42" t="n">
-        <v>15.81877272129146</v>
+        <v>8.33248464807933</v>
       </c>
       <c r="S42" t="n">
-        <v>18.33349626467025</v>
+        <v>8.98526038222802</v>
       </c>
       <c r="T42" t="n">
-        <v>16.35325127635872</v>
+        <v>9.672068834706357</v>
       </c>
       <c r="U42" t="n">
-        <v>17.76616543134807</v>
+        <v>10.39174805667802</v>
       </c>
       <c r="V42" t="n">
-        <v>9.617705826449319</v>
+        <v>11.14270042197083</v>
       </c>
       <c r="W42" t="n">
-        <v>18.07854280944533</v>
+        <v>11.92288335129717</v>
       </c>
       <c r="X42" t="n">
-        <v>20.93028978213093</v>
+        <v>12.72980729279575</v>
       </c>
       <c r="Y42" t="n">
-        <v>23.21096489230251</v>
+        <v>13.56054128022413</v>
       </c>
       <c r="Z42" t="n">
-        <v>24.83026115094701</v>
+        <v>14.41172620932881</v>
       </c>
       <c r="AA42" t="n">
-        <v>26.47922662442777</v>
+        <v>15.27959578708322</v>
       </c>
       <c r="AB42" t="n">
-        <v>28.9549496183606</v>
+        <v>16.16000492398145</v>
       </c>
       <c r="AC42" t="n">
-        <v>27.35036252174906</v>
+        <v>17.04846516258519</v>
       </c>
       <c r="AD42" t="n">
-        <v>32.38146398071603</v>
+        <v>17.94018657177182</v>
       </c>
       <c r="AE42" t="n">
-        <v>34.09385632670257</v>
+        <v>18.8301253906484</v>
       </c>
       <c r="AF42" t="n">
-        <v>29.5296974548742</v>
+        <v>19.71303658297319</v>
       </c>
       <c r="AG42" t="n">
-        <v>36.55724741084913</v>
+        <v>20.58353036524964</v>
       </c>
       <c r="AH42" t="n">
-        <v>40.97976969289949</v>
+        <v>21.43613170131166</v>
       </c>
       <c r="AI42" t="n">
-        <v>47.35055595626277</v>
+        <v>22.26534171399965</v>
       </c>
       <c r="AJ42" t="n">
-        <v>49.00026139676848</v>
+        <v>23.06569995003644</v>
       </c>
       <c r="AK42" t="n">
-        <v>50.57543281005012</v>
+        <v>23.83184644613162</v>
       </c>
       <c r="AL42" t="n">
-        <v>53.04848298938159</v>
+        <v>24.55858258037794</v>
       </c>
       <c r="AM42" t="n">
-        <v>57.42289035745175</v>
+        <v>25.24092975027345</v>
       </c>
       <c r="AN42" t="n">
-        <v>61.72505588395175</v>
+        <v>25.87418499376565</v>
       </c>
       <c r="AO42" t="n">
-        <v>59.93337035665676</v>
+        <v>26.45397275890286</v>
       </c>
       <c r="AP42" t="n">
-        <v>60</v>
+        <v>26.97629212723268</v>
       </c>
       <c r="AQ42" t="n">
         <v>0</v>
@@ -9420,130 +9420,130 @@
         <v>2031</v>
       </c>
       <c r="B43" t="n">
-        <v>2.008065015783917</v>
+        <v>3.089330793513718</v>
       </c>
       <c r="C43" t="n">
-        <v>2.366186415684925</v>
+        <v>0.1727670810479877</v>
       </c>
       <c r="D43" t="n">
-        <v>2.214234287915871</v>
+        <v>1.673152359161481</v>
       </c>
       <c r="E43" t="n">
-        <v>2.010011912257319</v>
+        <v>1.833890472695202</v>
       </c>
       <c r="F43" t="n">
-        <v>1.529283060912872</v>
+        <v>1.354359716691533</v>
       </c>
       <c r="G43" t="n">
-        <v>4.738555173642435</v>
+        <v>1.25348132615388</v>
       </c>
       <c r="H43" t="n">
-        <v>5.640266647101068</v>
+        <v>0.3570420116868362</v>
       </c>
       <c r="I43" t="n">
-        <v>6.366499385335797</v>
+        <v>0.4150924837341667</v>
       </c>
       <c r="J43" t="n">
-        <v>8.349523824036845</v>
+        <v>14.49432114658781</v>
       </c>
       <c r="K43" t="n">
-        <v>9.615915630466237</v>
+        <v>4.412135000106796</v>
       </c>
       <c r="L43" t="n">
-        <v>4.812802485831823</v>
+        <v>4.808699994541541</v>
       </c>
       <c r="M43" t="n">
-        <v>4.782432735228751</v>
+        <v>5.236959491516</v>
       </c>
       <c r="N43" t="n">
-        <v>7.856080587712127</v>
+        <v>5.698203209844287</v>
       </c>
       <c r="O43" t="n">
-        <v>9.206698732936418</v>
+        <v>6.193519862900922</v>
       </c>
       <c r="P43" t="n">
-        <v>13.34574198668823</v>
+        <v>6.723757572307491</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.077629887381118</v>
+        <v>7.2894852061485</v>
       </c>
       <c r="R43" t="n">
-        <v>14.98055365797828</v>
+        <v>7.890955611671616</v>
       </c>
       <c r="S43" t="n">
-        <v>17.4006499934206</v>
+        <v>8.528071719314829</v>
       </c>
       <c r="T43" t="n">
-        <v>15.55569380032627</v>
+        <v>9.200356471369018</v>
       </c>
       <c r="U43" t="n">
-        <v>16.9372959648001</v>
+        <v>9.906927474458213</v>
       </c>
       <c r="V43" t="n">
-        <v>9.189395912766242</v>
+        <v>10.64647719139479</v>
       </c>
       <c r="W43" t="n">
-        <v>17.31187048760878</v>
+        <v>11.41725937715974</v>
       </c>
       <c r="X43" t="n">
-        <v>20.08726978827259</v>
+        <v>12.21708232923827</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.32564243427299</v>
+        <v>13.04330936874939</v>
       </c>
       <c r="Z43" t="n">
-        <v>23.93630754518696</v>
+        <v>13.89286680097479</v>
       </c>
       <c r="AA43" t="n">
-        <v>25.58269330703631</v>
+        <v>14.76225942776686</v>
       </c>
       <c r="AB43" t="n">
-        <v>28.03682819057057</v>
+        <v>15.64759350591801</v>
       </c>
       <c r="AC43" t="n">
-        <v>26.54203715016389</v>
+        <v>16.54460687088813</v>
       </c>
       <c r="AD43" t="n">
-        <v>31.49435684322619</v>
+        <v>17.44870578000786</v>
       </c>
       <c r="AE43" t="n">
-        <v>33.23360776968224</v>
+        <v>18.35500787854901</v>
       </c>
       <c r="AF43" t="n">
-        <v>28.84864766105602</v>
+        <v>19.2583905602403</v>
       </c>
       <c r="AG43" t="n">
-        <v>35.79357267257479</v>
+        <v>20.15354388438077</v>
       </c>
       <c r="AH43" t="n">
-        <v>40.21297215193404</v>
+        <v>21.03502712704107</v>
       </c>
       <c r="AI43" t="n">
-        <v>46.5679201055676</v>
+        <v>21.89732798530234</v>
       </c>
       <c r="AJ43" t="n">
-        <v>48.29756707538803</v>
+        <v>22.73492342126827</v>
       </c>
       <c r="AK43" t="n">
-        <v>49.96105083592081</v>
+        <v>23.54234112599502</v>
       </c>
       <c r="AL43" t="n">
-        <v>52.52064176428281</v>
+        <v>24.31422060081839</v>
       </c>
       <c r="AM43" t="n">
-        <v>56.9780002478543</v>
+        <v>25.04537289249359</v>
       </c>
       <c r="AN43" t="n">
-        <v>61.38308969244842</v>
+        <v>25.73083807615077</v>
       </c>
       <c r="AO43" t="n">
-        <v>59.73392504898557</v>
+        <v>26.36593965306171</v>
       </c>
       <c r="AP43" t="n">
-        <v>59.93337035665676</v>
+        <v>26.94633511518001</v>
       </c>
       <c r="AQ43" t="n">
-        <v>60</v>
+        <v>27.4680620219691</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -9608,133 +9608,133 @@
         <v>2032</v>
       </c>
       <c r="B44" t="n">
-        <v>1.831159471973585</v>
+        <v>2.817168418420901</v>
       </c>
       <c r="C44" t="n">
-        <v>2.162531555459603</v>
+        <v>0.1578972231580378</v>
       </c>
       <c r="D44" t="n">
-        <v>2.028159784872793</v>
+        <v>1.532547999701686</v>
       </c>
       <c r="E44" t="n">
-        <v>1.845195239929892</v>
+        <v>1.68351538124455</v>
       </c>
       <c r="F44" t="n">
-        <v>1.407008338580123</v>
+        <v>1.246071092740998</v>
       </c>
       <c r="G44" t="n">
-        <v>4.369380174036777</v>
+        <v>1.155824139283383</v>
       </c>
       <c r="H44" t="n">
-        <v>5.212410691006679</v>
+        <v>0.3299577334365073</v>
       </c>
       <c r="I44" t="n">
-        <v>5.896642403787481</v>
+        <v>0.384458050324818</v>
       </c>
       <c r="J44" t="n">
-        <v>7.750520990843579</v>
+        <v>13.45448467028185</v>
       </c>
       <c r="K44" t="n">
-        <v>8.94591838289662</v>
+        <v>4.104715673692241</v>
       </c>
       <c r="L44" t="n">
-        <v>4.487427294217578</v>
+        <v>4.483602156692301</v>
       </c>
       <c r="M44" t="n">
-        <v>4.469030879700979</v>
+        <v>4.893771638632088</v>
       </c>
       <c r="N44" t="n">
-        <v>7.357588823428847</v>
+        <v>5.336635206613409</v>
       </c>
       <c r="O44" t="n">
-        <v>8.64168864648334</v>
+        <v>5.813426922456634</v>
       </c>
       <c r="P44" t="n">
-        <v>12.55458918127693</v>
+        <v>6.325164547540303</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.672870993344117</v>
+        <v>6.872610628487942</v>
       </c>
       <c r="R44" t="n">
-        <v>14.15525977476224</v>
+        <v>7.456234869853532</v>
       </c>
       <c r="S44" t="n">
-        <v>16.47860902377611</v>
+        <v>8.076178742888777</v>
       </c>
       <c r="T44" t="n">
-        <v>14.76418787320536</v>
+        <v>8.732223273828122</v>
       </c>
       <c r="U44" t="n">
-        <v>16.11125429319507</v>
+        <v>9.423760920099195</v>
       </c>
       <c r="V44" t="n">
-        <v>8.760670326620744</v>
+        <v>10.14977237884837</v>
       </c>
       <c r="W44" t="n">
-        <v>16.54091264297924</v>
+        <v>10.90880908074077</v>
       </c>
       <c r="X44" t="n">
-        <v>19.23541165289864</v>
+        <v>11.6989820058797</v>
       </c>
       <c r="Y44" t="n">
-        <v>21.42642110749076</v>
+        <v>12.51795732162565</v>
       </c>
       <c r="Z44" t="n">
-        <v>23.02331876034403</v>
+        <v>13.36295918867236</v>
       </c>
       <c r="AA44" t="n">
-        <v>24.66165019807141</v>
+        <v>14.23077991716517</v>
       </c>
       <c r="AB44" t="n">
-        <v>27.08755761921492</v>
+        <v>15.11779748452998</v>
       </c>
       <c r="AC44" t="n">
-        <v>25.70042584135636</v>
+        <v>16.02000025672596</v>
       </c>
       <c r="AD44" t="n">
-        <v>30.56355793049175</v>
+        <v>16.93301859041067</v>
       </c>
       <c r="AE44" t="n">
-        <v>32.32315570752161</v>
+        <v>17.85216284018261</v>
       </c>
       <c r="AF44" t="n">
-        <v>28.12074503588497</v>
+        <v>18.77246715717236</v>
       </c>
       <c r="AG44" t="n">
-        <v>34.968057770977</v>
+        <v>19.68873834656116</v>
       </c>
       <c r="AH44" t="n">
-        <v>39.37292993983227</v>
+        <v>20.59560895489857</v>
       </c>
       <c r="AI44" t="n">
-        <v>45.69655926356141</v>
+        <v>21.48759368521542</v>
       </c>
       <c r="AJ44" t="n">
-        <v>47.49927850767895</v>
+        <v>22.35914818963785</v>
       </c>
       <c r="AK44" t="n">
-        <v>49.24457819451329</v>
+        <v>23.20472926537076</v>
       </c>
       <c r="AL44" t="n">
-        <v>51.88262971422545</v>
+        <v>24.01885547941151</v>
       </c>
       <c r="AM44" t="n">
-        <v>56.4110596727482</v>
+        <v>24.7961672683992</v>
       </c>
       <c r="AN44" t="n">
-        <v>60.90751750632701</v>
+        <v>25.53148560015254</v>
       </c>
       <c r="AO44" t="n">
-        <v>59.40299002495009</v>
+        <v>26.21986833989002</v>
       </c>
       <c r="AP44" t="n">
-        <v>59.73392504898557</v>
+        <v>26.85666353379428</v>
       </c>
       <c r="AQ44" t="n">
-        <v>59.93337035665676</v>
+        <v>27.43755890237154</v>
       </c>
       <c r="AR44" t="n">
-        <v>62</v>
+        <v>27.95862692296623</v>
       </c>
       <c r="AS44" t="n">
         <v>0</v>
@@ -9796,136 +9796,136 @@
         <v>2033</v>
       </c>
       <c r="B45" t="n">
-        <v>1.666132234455494</v>
+        <v>2.56328036070076</v>
       </c>
       <c r="C45" t="n">
-        <v>1.97201789289463</v>
+        <v>0.1439868697036655</v>
       </c>
       <c r="D45" t="n">
-        <v>1.853598476108231</v>
+        <v>1.400643409852412</v>
       </c>
       <c r="E45" t="n">
-        <v>1.690133154060661</v>
+        <v>1.542040159024362</v>
       </c>
       <c r="F45" t="n">
-        <v>1.291636667950925</v>
+        <v>1.14389593162052</v>
       </c>
       <c r="G45" t="n">
-        <v>4.020023824514638</v>
+        <v>1.063409543641422</v>
       </c>
       <c r="H45" t="n">
-        <v>4.806318191440454</v>
+        <v>0.304251132658939</v>
       </c>
       <c r="I45" t="n">
-        <v>5.449338449688801</v>
+        <v>0.355294062699436</v>
       </c>
       <c r="J45" t="n">
-        <v>7.178521187219542</v>
+        <v>12.46152399081839</v>
       </c>
       <c r="K45" t="n">
-        <v>8.304129633046692</v>
+        <v>3.810239441297266</v>
       </c>
       <c r="L45" t="n">
-        <v>4.174761912018423</v>
+        <v>4.171203294262246</v>
       </c>
       <c r="M45" t="n">
-        <v>4.166896773202036</v>
+        <v>4.562922431891565</v>
       </c>
       <c r="N45" t="n">
-        <v>6.87543212261689</v>
+        <v>4.9869154157406</v>
       </c>
       <c r="O45" t="n">
-        <v>8.09334770577173</v>
+        <v>5.444547630709032</v>
       </c>
       <c r="P45" t="n">
-        <v>11.78412088156819</v>
+        <v>5.936992644505103</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.277294590638467</v>
+        <v>6.465193402480486</v>
       </c>
       <c r="R45" t="n">
-        <v>13.34574198668823</v>
+        <v>7.02982413241403</v>
       </c>
       <c r="S45" t="n">
-        <v>15.57078575223846</v>
+        <v>7.631253871055629</v>
       </c>
       <c r="T45" t="n">
-        <v>13.98185008077973</v>
+        <v>8.269512534999572</v>
       </c>
       <c r="U45" t="n">
-        <v>15.29148029724841</v>
+        <v>8.944260441382362</v>
       </c>
       <c r="V45" t="n">
-        <v>8.33340739303193</v>
+        <v>9.654762138745173</v>
       </c>
       <c r="W45" t="n">
-        <v>15.76920658791734</v>
+        <v>10.39986533604993</v>
       </c>
       <c r="X45" t="n">
-        <v>18.37879182553248</v>
+        <v>11.17798562030319</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.51777242975855</v>
+        <v>11.98709753355648</v>
       </c>
       <c r="Z45" t="n">
-        <v>22.09599676709985</v>
+        <v>12.82473244215204</v>
       </c>
       <c r="AA45" t="n">
-        <v>23.72099508641505</v>
+        <v>13.68798347960217</v>
       </c>
       <c r="AB45" t="n">
-        <v>26.11233550384032</v>
+        <v>14.57351768455976</v>
       </c>
       <c r="AC45" t="n">
-        <v>24.83026115094701</v>
+        <v>15.47759529231795</v>
       </c>
       <c r="AD45" t="n">
-        <v>29.59442975671339</v>
+        <v>16.39609597752639</v>
       </c>
       <c r="AE45" t="n">
-        <v>31.36786208655732</v>
+        <v>17.32455169243587</v>
       </c>
       <c r="AF45" t="n">
-        <v>27.35036252174906</v>
+        <v>18.25818560358545</v>
       </c>
       <c r="AG45" t="n">
-        <v>34.08575155864845</v>
+        <v>19.19195650440519</v>
       </c>
       <c r="AH45" t="n">
-        <v>38.4648635480747</v>
+        <v>20.12060797482661</v>
       </c>
       <c r="AI45" t="n">
-        <v>44.74196584071849</v>
+        <v>21.03872147393311</v>
       </c>
       <c r="AJ45" t="n">
-        <v>46.61049044883264</v>
+        <v>21.94077248917931</v>
       </c>
       <c r="AK45" t="n">
-        <v>48.4306369097903</v>
+        <v>22.82118882615121</v>
       </c>
       <c r="AL45" t="n">
-        <v>51.13860043276379</v>
+        <v>23.67441010564553</v>
       </c>
       <c r="AM45" t="n">
-        <v>55.72578747083475</v>
+        <v>24.49494753876453</v>
       </c>
       <c r="AN45" t="n">
-        <v>60.3014775812136</v>
+        <v>25.2774430738003</v>
       </c>
       <c r="AO45" t="n">
-        <v>58.94275887709065</v>
+        <v>26.01672704855566</v>
       </c>
       <c r="AP45" t="n">
-        <v>59.40299002495009</v>
+        <v>26.70787353573571</v>
       </c>
       <c r="AQ45" t="n">
-        <v>59.73392504898557</v>
+        <v>27.34625263435316</v>
       </c>
       <c r="AR45" t="n">
-        <v>61.93114936854531</v>
+        <v>27.92757903396216</v>
       </c>
       <c r="AS45" t="n">
-        <v>77</v>
+        <v>28.44795625839527</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
@@ -9984,139 +9984,139 @@
         <v>2034</v>
       </c>
       <c r="B46" t="n">
-        <v>1.512612436513151</v>
+        <v>2.327096056174078</v>
       </c>
       <c r="C46" t="n">
-        <v>1.794296252490532</v>
+        <v>0.1310105256387417</v>
       </c>
       <c r="D46" t="n">
-        <v>1.69030105105254</v>
+        <v>1.277250201885205</v>
       </c>
       <c r="E46" t="n">
-        <v>1.544665396756859</v>
+        <v>1.409318590272969</v>
       </c>
       <c r="F46" t="n">
-        <v>1.183093207842463</v>
+        <v>1.047767952674972</v>
       </c>
       <c r="G46" t="n">
-        <v>3.690390479859785</v>
+        <v>0.9762122383740248</v>
       </c>
       <c r="H46" t="n">
-        <v>4.422026206966102</v>
+        <v>0.2799245552475022</v>
       </c>
       <c r="I46" t="n">
-        <v>5.024787200142293</v>
+        <v>0.3276135397023528</v>
       </c>
       <c r="J46" t="n">
-        <v>6.63397724309941</v>
+        <v>11.51622519643867</v>
       </c>
       <c r="K46" t="n">
-        <v>7.691272700592366</v>
+        <v>3.529038188535368</v>
       </c>
       <c r="L46" t="n">
-        <v>3.87526049542179</v>
+        <v>3.871957176310556</v>
       </c>
       <c r="M46" t="n">
-        <v>3.876564632588535</v>
+        <v>4.244996860606911</v>
       </c>
       <c r="N46" t="n">
-        <v>6.410610420310825</v>
+        <v>4.649769114030239</v>
       </c>
       <c r="O46" t="n">
-        <v>7.562975334878579</v>
+        <v>5.087756134739998</v>
       </c>
       <c r="P46" t="n">
-        <v>11.03638323514327</v>
+        <v>5.560272738840528</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.892060440784095</v>
+        <v>6.06842800488978</v>
       </c>
       <c r="R46" t="n">
-        <v>12.55458918127693</v>
+        <v>6.613087087036192</v>
       </c>
       <c r="S46" t="n">
-        <v>14.68031618535706</v>
+        <v>7.194834062996551</v>
       </c>
       <c r="T46" t="n">
-        <v>13.21157578977809</v>
+        <v>7.813936708622896</v>
       </c>
       <c r="U46" t="n">
-        <v>14.48120186937901</v>
+        <v>8.470314090341262</v>
       </c>
       <c r="V46" t="n">
-        <v>7.909386360645728</v>
+        <v>9.163507839460939</v>
       </c>
       <c r="W46" t="n">
-        <v>15.00013330745747</v>
+        <v>9.892657918495702</v>
       </c>
       <c r="X46" t="n">
-        <v>17.52134065324149</v>
+        <v>10.65648361054292</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.60404461390132</v>
+        <v>11.4532703607822</v>
       </c>
       <c r="Z46" t="n">
-        <v>21.1589528181885</v>
+        <v>12.28086297756111</v>
       </c>
       <c r="AA46" t="n">
-        <v>22.76557242670893</v>
+        <v>13.13666556336582</v>
       </c>
       <c r="AB46" t="n">
-        <v>25.11634773855712</v>
+        <v>14.01764839784563</v>
       </c>
       <c r="AC46" t="n">
-        <v>23.93630754518696</v>
+        <v>14.92036184092774</v>
       </c>
       <c r="AD46" t="n">
-        <v>28.59242193139352</v>
+        <v>15.84095716899942</v>
       </c>
       <c r="AE46" t="n">
-        <v>30.37323053978479</v>
+        <v>16.77521410610503</v>
       </c>
       <c r="AF46" t="n">
-        <v>26.54203715016389</v>
+        <v>17.71857466969917</v>
       </c>
       <c r="AG46" t="n">
-        <v>33.15195457181704</v>
+        <v>18.66618282080671</v>
       </c>
       <c r="AH46" t="n">
-        <v>37.4943267145133</v>
+        <v>19.61292929480707</v>
       </c>
       <c r="AI46" t="n">
-        <v>43.71007221372125</v>
+        <v>20.55350089407731</v>
       </c>
       <c r="AJ46" t="n">
-        <v>45.63680515753286</v>
+        <v>21.48243344904583</v>
       </c>
       <c r="AK46" t="n">
-        <v>47.52442163410387</v>
+        <v>22.39416760067973</v>
       </c>
       <c r="AL46" t="n">
-        <v>50.29335371401301</v>
+        <v>23.28310652496841</v>
       </c>
       <c r="AM46" t="n">
-        <v>54.92664490926482</v>
+        <v>24.1436747078172</v>
       </c>
       <c r="AN46" t="n">
-        <v>59.56894522744404</v>
+        <v>24.9703768854604</v>
       </c>
       <c r="AO46" t="n">
-        <v>58.3562686269809</v>
+        <v>25.75785628912001</v>
       </c>
       <c r="AP46" t="n">
-        <v>58.94275887709065</v>
+        <v>26.50095137089058</v>
       </c>
       <c r="AQ46" t="n">
-        <v>59.40299002495009</v>
+        <v>27.19475023826235</v>
       </c>
       <c r="AR46" t="n">
-        <v>61.72505588395175</v>
+        <v>27.83464208481692</v>
       </c>
       <c r="AS46" t="n">
-        <v>76.9144919577095</v>
+        <v>28.41636497207292</v>
       </c>
       <c r="AT46" t="n">
-        <v>60</v>
+        <v>28.93604939003012</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10172,142 +10172,142 @@
         <v>2035</v>
       </c>
       <c r="B47" t="n">
-        <v>1.370189919304236</v>
+        <v>2.107984491237286</v>
       </c>
       <c r="C47" t="n">
-        <v>1.628967239321855</v>
+        <v>0.1189390291461763</v>
       </c>
       <c r="D47" t="n">
-        <v>1.537968216420456</v>
+        <v>1.162142219395092</v>
       </c>
       <c r="E47" t="n">
-        <v>1.40858420921045</v>
+        <v>1.28516112044278</v>
       </c>
       <c r="F47" t="n">
-        <v>1.081265777729801</v>
+        <v>0.9575878068774453</v>
       </c>
       <c r="G47" t="n">
-        <v>3.380266308121322</v>
+        <v>0.8941756589066406</v>
       </c>
       <c r="H47" t="n">
-        <v>4.059429527845763</v>
+        <v>0.2569713411808177</v>
       </c>
       <c r="I47" t="n">
-        <v>4.623027398191834</v>
+        <v>0.3014190073600919</v>
       </c>
       <c r="J47" t="n">
-        <v>6.117132243651487</v>
+        <v>10.61901026982932</v>
       </c>
       <c r="K47" t="n">
-        <v>7.107832760463653</v>
+        <v>3.261334531470597</v>
       </c>
       <c r="L47" t="n">
-        <v>3.589260593609771</v>
+        <v>3.586201064288304</v>
       </c>
       <c r="M47" t="n">
-        <v>3.598456174320233</v>
+        <v>3.940456721553725</v>
       </c>
       <c r="N47" t="n">
-        <v>5.963945588597746</v>
+        <v>4.325792424970683</v>
       </c>
       <c r="O47" t="n">
-        <v>7.051671462341908</v>
+        <v>4.743792377220149</v>
       </c>
       <c r="P47" t="n">
-        <v>10.31314818392534</v>
+        <v>5.195897557825095</v>
       </c>
       <c r="Q47" t="n">
-        <v>5.518191617571635</v>
+        <v>5.683368133264336</v>
       </c>
       <c r="R47" t="n">
-        <v>11.78412088156819</v>
+        <v>6.20724553458036</v>
       </c>
       <c r="S47" t="n">
-        <v>13.81004809940463</v>
+        <v>6.768315016016158</v>
       </c>
       <c r="T47" t="n">
-        <v>12.45602585424235</v>
+        <v>7.367069546792876</v>
       </c>
       <c r="U47" t="n">
-        <v>13.68341778227016</v>
+        <v>8.003675902776386</v>
       </c>
       <c r="V47" t="n">
-        <v>7.490276828989142</v>
+        <v>8.677943814160956</v>
       </c>
       <c r="W47" t="n">
-        <v>14.23689544916231</v>
+        <v>9.389298989091683</v>
       </c>
       <c r="X47" t="n">
-        <v>16.66681478606386</v>
+        <v>10.13676077205803</v>
       </c>
       <c r="Y47" t="n">
-        <v>18.68943003012425</v>
+        <v>10.91892511161433</v>
       </c>
       <c r="Z47" t="n">
-        <v>20.21667100808573</v>
+        <v>11.73395340715113</v>
       </c>
       <c r="AA47" t="n">
-        <v>21.80013320661846</v>
+        <v>12.57956768247943</v>
       </c>
       <c r="AB47" t="n">
-        <v>24.10472374592711</v>
+        <v>13.45305239897183</v>
       </c>
       <c r="AC47" t="n">
-        <v>23.02331876034403</v>
+        <v>14.35126307743426</v>
       </c>
       <c r="AD47" t="n">
-        <v>27.56302080960923</v>
+        <v>15.27064175049334</v>
       </c>
       <c r="AE47" t="n">
-        <v>29.34485408748283</v>
+        <v>16.20723912081509</v>
       </c>
       <c r="AF47" t="n">
-        <v>25.70042584135636</v>
+        <v>17.15674315941974</v>
       </c>
       <c r="AG47" t="n">
-        <v>32.17216624262289</v>
+        <v>18.11451374685177</v>
       </c>
       <c r="AH47" t="n">
-        <v>36.46715002899874</v>
+        <v>19.07562284149574</v>
       </c>
       <c r="AI47" t="n">
-        <v>42.60718944831056</v>
+        <v>20.03489955674493</v>
       </c>
       <c r="AJ47" t="n">
-        <v>44.58427365799567</v>
+        <v>20.98697944402112</v>
       </c>
       <c r="AK47" t="n">
-        <v>46.53164447434723</v>
+        <v>21.92635721306709</v>
       </c>
       <c r="AL47" t="n">
-        <v>49.35228400464632</v>
+        <v>22.84744207484643</v>
       </c>
       <c r="AM47" t="n">
-        <v>54.01878732245842</v>
+        <v>23.7446148654932</v>
       </c>
       <c r="AN47" t="n">
-        <v>58.71468938576584</v>
+        <v>24.61228610104471</v>
       </c>
       <c r="AO47" t="n">
-        <v>57.64736634913939</v>
+        <v>25.44495412067621</v>
       </c>
       <c r="AP47" t="n">
-        <v>58.3562686269809</v>
+        <v>26.23726249894501</v>
       </c>
       <c r="AQ47" t="n">
-        <v>58.94275887709065</v>
+        <v>26.9840559430316</v>
       </c>
       <c r="AR47" t="n">
-        <v>61.38308969244842</v>
+        <v>27.68043393693774</v>
       </c>
       <c r="AS47" t="n">
-        <v>76.65853714619814</v>
+        <v>28.32180144893005</v>
       </c>
       <c r="AT47" t="n">
-        <v>59.93337035665676</v>
+        <v>28.90391607918645</v>
       </c>
       <c r="AU47" t="n">
-        <v>55</v>
+        <v>29.42293108990373</v>
       </c>
       <c r="AV47" t="n">
         <v>0</v>
@@ -10360,145 +10360,145 @@
         <v>2036</v>
       </c>
       <c r="B48" t="n">
-        <v>1.238422319261532</v>
+        <v>1.905265106556203</v>
       </c>
       <c r="C48" t="n">
-        <v>1.475589143866101</v>
+        <v>0.1077401288089347</v>
       </c>
       <c r="D48" t="n">
-        <v>1.396257633704447</v>
+        <v>1.055060779511596</v>
       </c>
       <c r="E48" t="n">
-        <v>1.28164018035038</v>
+        <v>1.169340192381422</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9860089464473152</v>
+        <v>0.8732266978544563</v>
       </c>
       <c r="G48" t="n">
-        <v>3.089330793513718</v>
+        <v>0.8172150197852275</v>
       </c>
       <c r="H48" t="n">
-        <v>3.718292938933454</v>
+        <v>0.2353766007924642</v>
       </c>
       <c r="I48" t="n">
-        <v>4.243949051838753</v>
+        <v>0.2767032942509415</v>
       </c>
       <c r="J48" t="n">
-        <v>5.628033354320493</v>
+        <v>9.769961087647896</v>
       </c>
       <c r="K48" t="n">
-        <v>6.554070261055164</v>
+        <v>3.007247973384984</v>
       </c>
       <c r="L48" t="n">
-        <v>3.316988621549705</v>
+        <v>3.314161180163957</v>
       </c>
       <c r="M48" t="n">
-        <v>3.332884836923359</v>
+        <v>3.649645242740812</v>
       </c>
       <c r="N48" t="n">
-        <v>5.536086422031127</v>
+        <v>4.015455934774213</v>
       </c>
       <c r="O48" t="n">
-        <v>6.560340147457521</v>
+        <v>4.413264535887048</v>
       </c>
       <c r="P48" t="n">
-        <v>9.615915630466237</v>
+        <v>4.844622771780529</v>
       </c>
       <c r="Q48" t="n">
-        <v>5.156574091962668</v>
+        <v>5.310926278412559</v>
       </c>
       <c r="R48" t="n">
-        <v>11.03638323514327</v>
+        <v>5.813377276315255</v>
       </c>
       <c r="S48" t="n">
-        <v>12.96253296972501</v>
+        <v>6.352947210109765</v>
       </c>
       <c r="T48" t="n">
-        <v>11.71761656919181</v>
+        <v>6.930340158092048</v>
       </c>
       <c r="U48" t="n">
-        <v>12.90088392046529</v>
+        <v>7.54595784486914</v>
       </c>
       <c r="V48" t="n">
-        <v>7.077629887381118</v>
+        <v>8.199867094686349</v>
       </c>
       <c r="W48" t="n">
-        <v>13.48249829218046</v>
+        <v>8.891770543461345</v>
       </c>
       <c r="X48" t="n">
-        <v>15.81877272129146</v>
+        <v>9.620981383759551</v>
       </c>
       <c r="Y48" t="n">
-        <v>17.77793577180145</v>
+        <v>10.3864028500873</v>
       </c>
       <c r="Z48" t="n">
-        <v>19.27347471856564</v>
+        <v>11.1865130639512</v>
       </c>
       <c r="AA48" t="n">
-        <v>20.82929740227015</v>
+        <v>12.01935575195479</v>
       </c>
       <c r="AB48" t="n">
-        <v>23.08249398347836</v>
+        <v>12.88253722929124</v>
       </c>
       <c r="AC48" t="n">
-        <v>22.09599676709985</v>
+        <v>13.77322990936379</v>
       </c>
       <c r="AD48" t="n">
-        <v>26.51170039069918</v>
+        <v>14.68818246226624</v>
       </c>
       <c r="AE48" t="n">
-        <v>28.28836346249368</v>
+        <v>15.62373660493779</v>
       </c>
       <c r="AF48" t="n">
-        <v>24.83026115094701</v>
+        <v>16.57585036830787</v>
       </c>
       <c r="AG48" t="n">
-        <v>31.1520313228562</v>
+        <v>17.5401275557449</v>
       </c>
       <c r="AH48" t="n">
-        <v>35.38938286688518</v>
+        <v>18.51185298618544</v>
       </c>
       <c r="AI48" t="n">
-        <v>41.4399432147713</v>
+        <v>19.48603300746646</v>
       </c>
       <c r="AJ48" t="n">
-        <v>43.45933323727678</v>
+        <v>20.45744067287324</v>
       </c>
       <c r="AK48" t="n">
-        <v>45.45847510227009</v>
+        <v>21.4206648983401</v>
       </c>
       <c r="AL48" t="n">
-        <v>48.32132310797597</v>
+        <v>22.37016285984819</v>
       </c>
       <c r="AM48" t="n">
-        <v>53.00800874573123</v>
+        <v>23.30031485047417</v>
       </c>
       <c r="AN48" t="n">
-        <v>57.74422093090382</v>
+        <v>24.20548079366803</v>
       </c>
       <c r="AO48" t="n">
-        <v>56.82066714751533</v>
+        <v>25.08005760260244</v>
       </c>
       <c r="AP48" t="n">
-        <v>57.64736634913939</v>
+        <v>25.91853658333312</v>
       </c>
       <c r="AQ48" t="n">
-        <v>58.3562686269809</v>
+        <v>26.71556010027669</v>
       </c>
       <c r="AR48" t="n">
-        <v>60.90751750632701</v>
+        <v>27.4659767542489</v>
       </c>
       <c r="AS48" t="n">
-        <v>76.23383719868595</v>
+        <v>28.16489436412784</v>
       </c>
       <c r="AT48" t="n">
-        <v>59.73392504898557</v>
+        <v>28.80773009129673</v>
       </c>
       <c r="AU48" t="n">
-        <v>54.93892282693536</v>
+        <v>29.39025709982651</v>
       </c>
       <c r="AV48" t="n">
-        <v>57</v>
+        <v>29.90864720350032</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
@@ -10548,148 +10548,148 @@
         <v>2037</v>
       </c>
       <c r="B49" t="n">
-        <v>1.116841836101669</v>
+        <v>1.718218209387184</v>
       </c>
       <c r="C49" t="n">
-        <v>1.333685574589342</v>
+        <v>0.09737904090321285</v>
       </c>
       <c r="D49" t="n">
-        <v>1.264790694742372</v>
+        <v>0.9557197927530658</v>
       </c>
       <c r="E49" t="n">
-        <v>1.163548028087039</v>
+        <v>1.06159552101149</v>
       </c>
       <c r="F49" t="n">
-        <v>0.897148126245266</v>
+        <v>0.7945300076537654</v>
       </c>
       <c r="G49" t="n">
-        <v>2.817168418420901</v>
+        <v>0.745220404895411</v>
       </c>
       <c r="H49" t="n">
-        <v>3.39826387286509</v>
+        <v>0.2151180157473695</v>
       </c>
       <c r="I49" t="n">
-        <v>3.88730625433952</v>
+        <v>0.253450367381767</v>
       </c>
       <c r="J49" t="n">
-        <v>5.166546671803698</v>
+        <v>8.968845201013076</v>
       </c>
       <c r="K49" t="n">
-        <v>6.030035736771957</v>
+        <v>2.766801701318207</v>
       </c>
       <c r="L49" t="n">
-        <v>3.058566121825744</v>
+        <v>3.055958962917295</v>
       </c>
       <c r="M49" t="n">
-        <v>3.080060862867583</v>
+        <v>3.372792648273352</v>
       </c>
       <c r="N49" t="n">
-        <v>5.127515133728244</v>
+        <v>3.71910940415191</v>
       </c>
       <c r="O49" t="n">
-        <v>6.089695064234241</v>
+        <v>4.096652712705305</v>
       </c>
       <c r="P49" t="n">
-        <v>8.94591838289662</v>
+        <v>4.507069485401636</v>
       </c>
       <c r="Q49" t="n">
-        <v>4.807957815233118</v>
+        <v>4.951874839967968</v>
       </c>
       <c r="R49" t="n">
-        <v>10.31314818392534</v>
+        <v>5.432415676613207</v>
       </c>
       <c r="S49" t="n">
-        <v>12.1400215586576</v>
+        <v>5.949833745601832</v>
       </c>
       <c r="T49" t="n">
-        <v>10.99851282279698</v>
+        <v>6.505028957469766</v>
       </c>
       <c r="U49" t="n">
-        <v>12.13610287523437</v>
+        <v>7.098623727033022</v>
       </c>
       <c r="V49" t="n">
-        <v>6.672870993344117</v>
+        <v>7.730929160758338</v>
       </c>
       <c r="W49" t="n">
-        <v>12.73973379728601</v>
+        <v>8.401913892764654</v>
       </c>
       <c r="X49" t="n">
-        <v>14.98055365797828</v>
+        <v>9.111176347317381</v>
       </c>
       <c r="Y49" t="n">
-        <v>16.87335756937755</v>
+        <v>9.857921155677934</v>
       </c>
       <c r="Z49" t="n">
-        <v>18.33349626467025</v>
+        <v>10.64094038399201</v>
       </c>
       <c r="AA49" t="n">
-        <v>19.85751940700702</v>
+        <v>11.45860013877141</v>
       </c>
       <c r="AB49" t="n">
-        <v>22.05455019063898</v>
+        <v>12.30883301039917</v>
       </c>
       <c r="AC49" t="n">
-        <v>21.1589528181885</v>
+        <v>13.18913669648141</v>
       </c>
       <c r="AD49" t="n">
-        <v>25.44387506514528</v>
+        <v>14.09657901969463</v>
       </c>
       <c r="AE49" t="n">
-        <v>27.20937671677021</v>
+        <v>15.02780942315672</v>
       </c>
       <c r="AF49" t="n">
-        <v>23.93630754518696</v>
+        <v>15.97907689439204</v>
       </c>
       <c r="AG49" t="n">
-        <v>30.09728624357213</v>
+        <v>16.94625414063109</v>
       </c>
       <c r="AH49" t="n">
-        <v>34.26723445514182</v>
+        <v>17.92486771704382</v>
       </c>
       <c r="AI49" t="n">
-        <v>40.21520780327862</v>
+        <v>18.91013369867463</v>
       </c>
       <c r="AJ49" t="n">
-        <v>42.26874207906672</v>
+        <v>19.8969983887786</v>
       </c>
       <c r="AK49" t="n">
-        <v>44.31147702624299</v>
+        <v>20.8801834728118</v>
       </c>
       <c r="AL49" t="n">
-        <v>47.20687799081895</v>
+        <v>21.85423495958235</v>
       </c>
       <c r="AM49" t="n">
-        <v>51.90068037523345</v>
+        <v>22.81357519950513</v>
       </c>
       <c r="AN49" t="n">
-        <v>56.66373348681615</v>
+        <v>23.75255723432243</v>
       </c>
       <c r="AO49" t="n">
-        <v>55.88150412668112</v>
+        <v>24.66552071236134</v>
       </c>
       <c r="AP49" t="n">
-        <v>56.82066714751533</v>
+        <v>25.54684859726044</v>
       </c>
       <c r="AQ49" t="n">
-        <v>57.64736634913939</v>
+        <v>26.39102390468892</v>
       </c>
       <c r="AR49" t="n">
-        <v>60.3014775812136</v>
+        <v>27.19268571930263</v>
       </c>
       <c r="AS49" t="n">
-        <v>75.64320722559968</v>
+        <v>27.94668377141024</v>
       </c>
       <c r="AT49" t="n">
-        <v>59.40299002495009</v>
+        <v>28.64813088795704</v>
       </c>
       <c r="AU49" t="n">
-        <v>54.75609796157011</v>
+        <v>29.29245267409627</v>
       </c>
       <c r="AV49" t="n">
-        <v>56.93670183882392</v>
+        <v>29.87543382856619</v>
       </c>
       <c r="AW49" t="n">
-        <v>58</v>
+        <v>30.39326054740161</v>
       </c>
       <c r="AX49" t="n">
         <v>0</v>
@@ -10736,151 +10736,151 @@
         <v>2038</v>
       </c>
       <c r="B50" t="n">
-        <v>1.004961625762896</v>
+        <v>1.546094808865994</v>
       </c>
       <c r="C50" t="n">
-        <v>1.202752746571029</v>
+        <v>0.08781898157731469</v>
       </c>
       <c r="D50" t="n">
-        <v>1.143159063933722</v>
+        <v>0.863810706552571</v>
       </c>
       <c r="E50" t="n">
-        <v>1.053992245618643</v>
+        <v>0.9616392448957802</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8144836196609273</v>
+        <v>0.7213208807239349</v>
       </c>
       <c r="G50" t="n">
-        <v>2.56328036070076</v>
+        <v>0.6780598617290333</v>
       </c>
       <c r="H50" t="n">
-        <v>3.098885260262991</v>
+        <v>0.1961666524896756</v>
       </c>
       <c r="I50" t="n">
-        <v>3.552730412540776</v>
+        <v>0.2316361946686466</v>
       </c>
       <c r="J50" t="n">
-        <v>4.732372831369851</v>
+        <v>8.215142928965067</v>
       </c>
       <c r="K50" t="n">
-        <v>5.535585719789677</v>
+        <v>2.539929886967113</v>
       </c>
       <c r="L50" t="n">
-        <v>2.814016677160247</v>
+        <v>2.811617975168478</v>
       </c>
       <c r="M50" t="n">
-        <v>2.840097113123905</v>
+        <v>3.110022525531664</v>
       </c>
       <c r="N50" t="n">
-        <v>4.738555173642435</v>
+        <v>3.436987439093591</v>
       </c>
       <c r="O50" t="n">
-        <v>5.640266647101068</v>
+        <v>3.794313740918549</v>
       </c>
       <c r="P50" t="n">
-        <v>8.304129633046692</v>
+        <v>4.183728005330354</v>
       </c>
       <c r="Q50" t="n">
-        <v>4.47295919144831</v>
+        <v>4.606848672873061</v>
       </c>
       <c r="R50" t="n">
-        <v>9.615915630466237</v>
+        <v>5.065150804034345</v>
       </c>
       <c r="S50" t="n">
-        <v>11.34446300231787</v>
+        <v>5.559929895576396</v>
       </c>
       <c r="T50" t="n">
-        <v>10.30062435280039</v>
+        <v>6.092265452116356</v>
       </c>
       <c r="U50" t="n">
-        <v>11.39131685218259</v>
+        <v>6.662985055447036</v>
       </c>
       <c r="V50" t="n">
-        <v>6.277294590638467</v>
+        <v>7.272629704641866</v>
       </c>
       <c r="W50" t="n">
-        <v>12.01116778801941</v>
+        <v>7.921421209600645</v>
       </c>
       <c r="X50" t="n">
-        <v>14.15525977476224</v>
+        <v>8.609232408527166</v>
       </c>
       <c r="Y50" t="n">
-        <v>15.97925723517684</v>
+        <v>9.335560945887092</v>
       </c>
       <c r="Z50" t="n">
-        <v>17.4006499934206</v>
+        <v>10.09950729253496</v>
       </c>
       <c r="AA50" t="n">
-        <v>18.88905675753904</v>
+        <v>10.89975761558733</v>
       </c>
       <c r="AB50" t="n">
-        <v>21.02560878388978</v>
+        <v>11.73457201465523</v>
       </c>
       <c r="AC50" t="n">
-        <v>20.21667100808573</v>
+        <v>12.60177853623398</v>
       </c>
       <c r="AD50" t="n">
-        <v>24.36485476033828</v>
+        <v>13.49877326284263</v>
       </c>
       <c r="AE50" t="n">
-        <v>26.11345072475437</v>
+        <v>14.42252665165731</v>
       </c>
       <c r="AF50" t="n">
-        <v>23.02331876034403</v>
+        <v>15.36959617272341</v>
       </c>
       <c r="AG50" t="n">
-        <v>29.01370611537813</v>
+        <v>16.33614517314786</v>
       </c>
       <c r="AH50" t="n">
-        <v>33.10701486792934</v>
+        <v>17.31796777445489</v>
       </c>
       <c r="AI50" t="n">
-        <v>38.94003915357025</v>
+        <v>18.3105194986859</v>
       </c>
       <c r="AJ50" t="n">
-        <v>41.01951195934419</v>
+        <v>19.30895321741205</v>
       </c>
       <c r="AK50" t="n">
-        <v>43.09754094336215</v>
+        <v>20.30815992866754</v>
       </c>
       <c r="AL50" t="n">
-        <v>46.01576460417542</v>
+        <v>21.30281379124595</v>
       </c>
       <c r="AM50" t="n">
-        <v>50.70368376791664</v>
+        <v>22.28742078462764</v>
       </c>
       <c r="AN50" t="n">
-        <v>55.48003764249093</v>
+        <v>23.25637031616064</v>
       </c>
       <c r="AO50" t="n">
-        <v>54.83587111627369</v>
+        <v>24.2039890646579</v>
       </c>
       <c r="AP50" t="n">
-        <v>55.88150412668112</v>
+        <v>25.12459633050847</v>
       </c>
       <c r="AQ50" t="n">
-        <v>56.82066714751533</v>
+        <v>26.01256015562689</v>
       </c>
       <c r="AR50" t="n">
-        <v>59.56894522744404</v>
+        <v>26.86235348078577</v>
       </c>
       <c r="AS50" t="n">
-        <v>74.89054473795882</v>
+        <v>27.66860962172528</v>
       </c>
       <c r="AT50" t="n">
-        <v>58.94275887709065</v>
+        <v>28.42617636753553</v>
       </c>
       <c r="AU50" t="n">
-        <v>54.45274085620424</v>
+        <v>29.13016803397241</v>
       </c>
       <c r="AV50" t="n">
-        <v>56.74722879653629</v>
+        <v>29.77601483950733</v>
       </c>
       <c r="AW50" t="n">
-        <v>57.9355913447682</v>
+        <v>30.35950901222975</v>
       </c>
       <c r="AX50" t="n">
-        <v>59</v>
+        <v>30.87684708063159</v>
       </c>
       <c r="AY50" t="n">
         <v>0</v>
@@ -10924,154 +10924,154 @@
         <v>2039</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9022817734222195</v>
+        <v>1.388125805264953</v>
       </c>
       <c r="C51" t="n">
-        <v>1.082266366206196</v>
+        <v>0.079021669538126</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03093092563231</v>
+        <v>0.7790072260048782</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9526325532781016</v>
+        <v>0.8691609003819494</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7377945719330503</v>
+        <v>0.6534037242414251</v>
       </c>
       <c r="G51" t="n">
-        <v>2.327096056174078</v>
+        <v>0.6155824599881843</v>
       </c>
       <c r="H51" t="n">
-        <v>2.819608396770836</v>
+        <v>0.1784877767560117</v>
       </c>
       <c r="I51" t="n">
-        <v>3.239743681184036</v>
+        <v>0.2112296208466253</v>
       </c>
       <c r="J51" t="n">
-        <v>4.325063110919205</v>
+        <v>7.508075314241592</v>
       </c>
       <c r="K51" t="n">
-        <v>5.070399462181983</v>
+        <v>2.326485359411489</v>
       </c>
       <c r="L51" t="n">
-        <v>2.583273335901849</v>
+        <v>2.581071322336541</v>
       </c>
       <c r="M51" t="n">
-        <v>2.613015485934515</v>
+        <v>2.861358853986791</v>
       </c>
       <c r="N51" t="n">
-        <v>4.369380174036777</v>
+        <v>3.169215979233878</v>
       </c>
       <c r="O51" t="n">
-        <v>5.212410691006679</v>
+        <v>3.506486970498541</v>
       </c>
       <c r="P51" t="n">
-        <v>7.691272700592366</v>
+        <v>3.874962749382718</v>
       </c>
       <c r="Q51" t="n">
-        <v>4.152064816523346</v>
+        <v>4.276348938361323</v>
       </c>
       <c r="R51" t="n">
-        <v>8.94591838289662</v>
+        <v>4.71223203606222</v>
       </c>
       <c r="S51" t="n">
-        <v>10.57750719351286</v>
+        <v>5.184044273745756</v>
       </c>
       <c r="T51" t="n">
-        <v>9.625604971663646</v>
+        <v>5.693027783179298</v>
       </c>
       <c r="U51" t="n">
-        <v>10.66850379397183</v>
+        <v>6.240198764166105</v>
       </c>
       <c r="V51" t="n">
-        <v>5.892060440784095</v>
+        <v>6.826312380989162</v>
       </c>
       <c r="W51" t="n">
-        <v>11.29913026314924</v>
+        <v>7.45182913903078</v>
       </c>
       <c r="X51" t="n">
-        <v>13.34574198668823</v>
+        <v>8.116883494606723</v>
       </c>
       <c r="Y51" t="n">
-        <v>15.09894375974639</v>
+        <v>8.821255432156766</v>
       </c>
       <c r="Z51" t="n">
-        <v>16.47860902377611</v>
+        <v>9.564345703717214</v>
       </c>
       <c r="AA51" t="n">
-        <v>17.92794241746365</v>
+        <v>10.34515536719789</v>
       </c>
       <c r="AB51" t="n">
-        <v>20.00017774327663</v>
+        <v>11.16227018426268</v>
       </c>
       <c r="AC51" t="n">
-        <v>19.27347471856564</v>
+        <v>12.01385034805819</v>
       </c>
       <c r="AD51" t="n">
-        <v>23.27980297900781</v>
+        <v>12.8976259086435</v>
       </c>
       <c r="AE51" t="n">
-        <v>25.00603514876823</v>
+        <v>13.81089815309278</v>
       </c>
       <c r="AF51" t="n">
-        <v>22.09599676709985</v>
+        <v>14.75054708138229</v>
       </c>
       <c r="AG51" t="n">
-        <v>27.90705304284124</v>
+        <v>15.71304500189154</v>
       </c>
       <c r="AH51" t="n">
-        <v>31.91507672691595</v>
+        <v>16.69447615500329</v>
       </c>
       <c r="AI51" t="n">
-        <v>37.62160780446516</v>
+        <v>17.6905621629919</v>
       </c>
       <c r="AJ51" t="n">
-        <v>39.71883993664165</v>
+        <v>18.69669300177487</v>
       </c>
       <c r="AK51" t="n">
-        <v>41.82381611540976</v>
+        <v>19.7079630973642</v>
       </c>
       <c r="AL51" t="n">
-        <v>44.755138671953</v>
+        <v>20.7192120685417</v>
       </c>
       <c r="AM51" t="n">
-        <v>49.42433976004025</v>
+        <v>21.7250695684449</v>
       </c>
       <c r="AN51" t="n">
-        <v>54.20048954501434</v>
+        <v>22.72000362181897</v>
       </c>
       <c r="AO51" t="n">
-        <v>53.69035900886219</v>
+        <v>23.69837181162966</v>
       </c>
       <c r="AP51" t="n">
-        <v>54.83587111627369</v>
+        <v>24.65447463806467</v>
       </c>
       <c r="AQ51" t="n">
-        <v>55.88150412668112</v>
+        <v>25.58261035387666</v>
       </c>
       <c r="AR51" t="n">
-        <v>58.71468938576584</v>
+        <v>26.47713057152375</v>
       </c>
       <c r="AS51" t="n">
-        <v>73.98078681472889</v>
+        <v>27.33249593853341</v>
       </c>
       <c r="AT51" t="n">
-        <v>58.3562686269809</v>
+        <v>28.14333118680308</v>
       </c>
       <c r="AU51" t="n">
-        <v>54.03086230399977</v>
+        <v>28.90447887815749</v>
       </c>
       <c r="AV51" t="n">
-        <v>56.43284052370258</v>
+        <v>29.61105119148802</v>
       </c>
       <c r="AW51" t="n">
-        <v>57.74279421401938</v>
+        <v>30.2584791255463</v>
       </c>
       <c r="AX51" t="n">
-        <v>58.93448085071248</v>
+        <v>30.84255852548915</v>
       </c>
       <c r="AY51" t="n">
-        <v>60</v>
+        <v>31.35949238029002</v>
       </c>
       <c r="AZ51" t="n">
         <v>0</v>
@@ -11112,157 +11112,157 @@
         <v>2040</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8082948122875118</v>
+        <v>1.243530480442326</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9716880636854672</v>
+        <v>0.07094779571858686</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9276568853195966</v>
+        <v>0.7009697729980444</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8591091046935918</v>
+        <v>0.7838321715884379</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6668427872946712</v>
+        <v>0.5905675878859798</v>
       </c>
       <c r="G52" t="n">
-        <v>2.107984491237286</v>
+        <v>0.5576212787993829</v>
       </c>
       <c r="H52" t="n">
-        <v>2.559805661791486</v>
+        <v>0.1620416587012128</v>
       </c>
       <c r="I52" t="n">
-        <v>2.947772414805874</v>
+        <v>0.192193244526685</v>
       </c>
       <c r="J52" t="n">
-        <v>3.944035785789261</v>
+        <v>6.846632514334877</v>
       </c>
       <c r="K52" t="n">
-        <v>4.633996190270578</v>
+        <v>2.126247522043102</v>
       </c>
       <c r="L52" t="n">
-        <v>2.366186415684925</v>
+        <v>2.364169449646924</v>
       </c>
       <c r="M52" t="n">
-        <v>2.39875381190886</v>
+        <v>2.626733555612764</v>
       </c>
       <c r="N52" t="n">
-        <v>4.020023824514638</v>
+        <v>2.915819460448132</v>
       </c>
       <c r="O52" t="n">
-        <v>4.806318191440454</v>
+        <v>3.233300887712893</v>
       </c>
       <c r="P52" t="n">
-        <v>7.107832760463653</v>
+        <v>3.58101815496901</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.845636350296183</v>
+        <v>3.960748121866496</v>
       </c>
       <c r="R52" t="n">
-        <v>8.304129633046692</v>
+        <v>4.374171998178449</v>
       </c>
       <c r="S52" t="n">
-        <v>9.840510221186282</v>
+        <v>4.822841500326634</v>
       </c>
       <c r="T52" t="n">
-        <v>8.974854588435155</v>
+        <v>5.308143921589239</v>
       </c>
       <c r="U52" t="n">
-        <v>9.96937657779449</v>
+        <v>5.831266745709138</v>
       </c>
       <c r="V52" t="n">
-        <v>5.518191617571635</v>
+        <v>6.3931624833582</v>
       </c>
       <c r="W52" t="n">
-        <v>10.60570879341137</v>
+        <v>6.994514443697583</v>
       </c>
       <c r="X52" t="n">
-        <v>12.55458918127693</v>
+        <v>7.63570416757042</v>
       </c>
       <c r="Y52" t="n">
-        <v>14.23545811913412</v>
+        <v>8.316781243826634</v>
       </c>
       <c r="Z52" t="n">
-        <v>15.57078575223846</v>
+        <v>9.037436205813732</v>
       </c>
       <c r="AA52" t="n">
-        <v>16.97796081237539</v>
+        <v>9.796977161814715</v>
       </c>
       <c r="AB52" t="n">
-        <v>18.98252726554975</v>
+        <v>10.59431075253462</v>
       </c>
       <c r="AC52" t="n">
-        <v>18.33349626467025</v>
+        <v>11.42792795262109</v>
       </c>
       <c r="AD52" t="n">
-        <v>22.19369816077255</v>
+        <v>12.29589514417761</v>
       </c>
       <c r="AE52" t="n">
-        <v>23.89242937319223</v>
+        <v>13.19585079121888</v>
       </c>
       <c r="AF52" t="n">
-        <v>21.1589528181885</v>
+        <v>14.12500793818683</v>
       </c>
       <c r="AG52" t="n">
-        <v>26.78302638436345</v>
+        <v>15.08016264627793</v>
       </c>
       <c r="AH52" t="n">
-        <v>30.69775834712537</v>
+        <v>16.0577083716026</v>
       </c>
       <c r="AI52" t="n">
-        <v>36.26713264422266</v>
+        <v>17.05365618212485</v>
       </c>
       <c r="AJ52" t="n">
-        <v>38.37403996055446</v>
+        <v>18.0636606085377</v>
       </c>
       <c r="AK52" t="n">
-        <v>40.49764071971305</v>
+        <v>19.0830508299876</v>
       </c>
       <c r="AL52" t="n">
-        <v>43.4324244275409</v>
+        <v>20.10686681056064</v>
       </c>
       <c r="AM52" t="n">
-        <v>48.07033412913471</v>
+        <v>21.12989992793365</v>
       </c>
       <c r="AN52" t="n">
-        <v>52.83291491590511</v>
+        <v>22.14673757224456</v>
       </c>
       <c r="AO52" t="n">
-        <v>52.4520866564655</v>
+        <v>23.15181114128073</v>
       </c>
       <c r="AP52" t="n">
-        <v>53.69035900886219</v>
+        <v>24.13944681731775</v>
       </c>
       <c r="AQ52" t="n">
-        <v>54.83587111627369</v>
+        <v>25.10391848084183</v>
       </c>
       <c r="AR52" t="n">
-        <v>57.74422093090382</v>
+        <v>26.03950209620126</v>
       </c>
       <c r="AS52" t="n">
-        <v>72.91985617264467</v>
+        <v>26.94053089308922</v>
       </c>
       <c r="AT52" t="n">
-        <v>57.64736634913939</v>
+        <v>27.80145066473096</v>
       </c>
       <c r="AU52" t="n">
-        <v>53.49324624139916</v>
+        <v>28.61687450792616</v>
       </c>
       <c r="AV52" t="n">
-        <v>55.99562093323613</v>
+        <v>29.38163634093152</v>
       </c>
       <c r="AW52" t="n">
-        <v>57.42289035745175</v>
+        <v>30.09084255205011</v>
       </c>
       <c r="AX52" t="n">
-        <v>58.73835963150248</v>
+        <v>30.7399211543906</v>
       </c>
       <c r="AY52" t="n">
-        <v>59.93337035665676</v>
+        <v>31.32466785041129</v>
       </c>
       <c r="AZ52" t="n">
-        <v>62</v>
+        <v>31.84128844364045</v>
       </c>
       <c r="BA52" t="n">
         <v>0</v>
@@ -11300,160 +11300,160 @@
         <v>2041</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7224907639492801</v>
+        <v>1.111524252229662</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8704713363096281</v>
+        <v>0.06355745722875497</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8328754831589719</v>
+        <v>0.6293496524465974</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7730474044329971</v>
+        <v>0.7053113771546337</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6013763732855143</v>
+        <v>0.5325893913071689</v>
       </c>
       <c r="G53" t="n">
-        <v>1.905265106556203</v>
+        <v>0.5039962910477225</v>
       </c>
       <c r="H53" t="n">
-        <v>2.318782940361015</v>
+        <v>0.1467843592318693</v>
       </c>
       <c r="I53" t="n">
-        <v>2.67616046460019</v>
+        <v>0.1744842851443208</v>
       </c>
       <c r="J53" t="n">
-        <v>3.588592504981064</v>
+        <v>6.229602229733576</v>
       </c>
       <c r="K53" t="n">
-        <v>4.225752627631351</v>
+        <v>1.938930392764016</v>
       </c>
       <c r="L53" t="n">
-        <v>2.162531555459603</v>
+        <v>2.160688187297841</v>
       </c>
       <c r="M53" t="n">
-        <v>2.197173100278859</v>
+        <v>2.405994429832506</v>
       </c>
       <c r="N53" t="n">
-        <v>3.690390479859785</v>
+        <v>2.67672850897267</v>
       </c>
       <c r="O53" t="n">
-        <v>4.422026206966102</v>
+        <v>2.974780422556281</v>
       </c>
       <c r="P53" t="n">
-        <v>6.554070261055164</v>
+        <v>3.302025439361918</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.553916380231827</v>
+        <v>3.660296072245537</v>
       </c>
       <c r="R53" t="n">
-        <v>7.691272700592366</v>
+        <v>4.051351696558505</v>
       </c>
       <c r="S53" t="n">
-        <v>9.134542596351361</v>
+        <v>4.476846233576082</v>
       </c>
       <c r="T53" t="n">
-        <v>8.349523824036845</v>
+        <v>4.938294397753957</v>
       </c>
       <c r="U53" t="n">
-        <v>9.295385109450697</v>
+        <v>5.437037075922272</v>
       </c>
       <c r="V53" t="n">
-        <v>5.156574091962668</v>
+        <v>5.974206463294248</v>
       </c>
       <c r="W53" t="n">
-        <v>9.932744911628943</v>
+        <v>6.550691623091931</v>
       </c>
       <c r="X53" t="n">
-        <v>11.78412088156819</v>
+        <v>7.167105161890445</v>
       </c>
       <c r="Y53" t="n">
-        <v>13.39156179336206</v>
+        <v>7.823751720282076</v>
       </c>
       <c r="Z53" t="n">
-        <v>14.68031618535706</v>
+        <v>8.520598967670349</v>
       </c>
       <c r="AA53" t="n">
-        <v>16.04262774473053</v>
+        <v>9.257251761121868</v>
       </c>
       <c r="AB53" t="n">
-        <v>17.97666438957394</v>
+        <v>10.03293008211854</v>
       </c>
       <c r="AC53" t="n">
-        <v>17.4006499934206</v>
+        <v>10.84645130327868</v>
       </c>
       <c r="AD53" t="n">
-        <v>21.11129872901422</v>
+        <v>11.69621726171719</v>
       </c>
       <c r="AE53" t="n">
-        <v>22.77774284921393</v>
+        <v>12.58020652919569</v>
       </c>
       <c r="AF53" t="n">
-        <v>20.21667100808573</v>
+        <v>13.49597217436257</v>
       </c>
       <c r="AG53" t="n">
-        <v>25.64721553719819</v>
+        <v>14.44064521218173</v>
       </c>
       <c r="AH53" t="n">
-        <v>29.4613290227998</v>
+        <v>15.41094383304544</v>
       </c>
       <c r="AI53" t="n">
-        <v>34.88381630355155</v>
+        <v>16.4031884019355</v>
       </c>
       <c r="AJ53" t="n">
-        <v>36.99247529710712</v>
+        <v>17.41332211889954</v>
       </c>
       <c r="AK53" t="n">
-        <v>39.12647211664377</v>
+        <v>18.43693713832957</v>
       </c>
       <c r="AL53" t="n">
-        <v>42.05524228585586</v>
+        <v>19.46930585784567</v>
       </c>
       <c r="AM53" t="n">
-        <v>46.64964105180319</v>
+        <v>20.50541700939015</v>
       </c>
       <c r="AN53" t="n">
-        <v>51.38552958631641</v>
+        <v>21.5400161162859</v>
       </c>
       <c r="AO53" t="n">
-        <v>51.12862733797268</v>
+        <v>22.56764982095818</v>
       </c>
       <c r="AP53" t="n">
-        <v>52.4520866564655</v>
+        <v>23.58271353879561</v>
       </c>
       <c r="AQ53" t="n">
-        <v>53.69035900886219</v>
+        <v>24.57950185395357</v>
       </c>
       <c r="AR53" t="n">
-        <v>56.66373348681615</v>
+        <v>25.5522610422626</v>
       </c>
       <c r="AS53" t="n">
-        <v>71.71459696257411</v>
+        <v>26.49524308415265</v>
       </c>
       <c r="AT53" t="n">
-        <v>56.82066714751533</v>
+        <v>27.40276051591609</v>
       </c>
       <c r="AU53" t="n">
-        <v>52.84341915337777</v>
+        <v>28.26924146008605</v>
       </c>
       <c r="AV53" t="n">
-        <v>55.43845519563185</v>
+        <v>29.08928417461777</v>
       </c>
       <c r="AW53" t="n">
-        <v>56.9780002478543</v>
+        <v>29.85771046556809</v>
       </c>
       <c r="AX53" t="n">
-        <v>58.41294019120092</v>
+        <v>30.56961731887779</v>
       </c>
       <c r="AY53" t="n">
-        <v>59.73392504898557</v>
+        <v>31.2204261236413</v>
       </c>
       <c r="AZ53" t="n">
-        <v>61.93114936854531</v>
+        <v>31.8059288820973</v>
       </c>
       <c r="BA53" t="n">
-        <v>66</v>
+        <v>32.32233083076994</v>
       </c>
       <c r="BB53" t="n">
         <v>0</v>
@@ -11488,163 +11488,163 @@
         <v>2042</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6443616855638526</v>
+        <v>0.9913256700982348</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7780669765607632</v>
+        <v>0.0568105536863735</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7461182882653955</v>
+        <v>0.5637929016986679</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6940629026324765</v>
+        <v>0.6332476622784959</v>
       </c>
       <c r="F54" t="n">
-        <v>0.541133183103098</v>
+        <v>0.4792369727304879</v>
       </c>
       <c r="G54" t="n">
-        <v>1.718218209387184</v>
+        <v>0.4545171177291249</v>
       </c>
       <c r="H54" t="n">
-        <v>2.095791617211824</v>
+        <v>0.1326684892584492</v>
       </c>
       <c r="I54" t="n">
-        <v>2.42418216492288</v>
+        <v>0.1580554296729635</v>
       </c>
       <c r="J54" t="n">
-        <v>3.257934478643709</v>
+        <v>5.65559780451914</v>
       </c>
       <c r="K54" t="n">
-        <v>3.84492054105114</v>
+        <v>1.764190654715506</v>
       </c>
       <c r="L54" t="n">
-        <v>1.97201789289463</v>
+        <v>1.970336920892622</v>
       </c>
       <c r="M54" t="n">
-        <v>2.008065015783917</v>
+        <v>2.198913341012795</v>
       </c>
       <c r="N54" t="n">
-        <v>3.380266308121322</v>
+        <v>2.451788027377503</v>
       </c>
       <c r="O54" t="n">
-        <v>4.059429527845763</v>
+        <v>2.730854798453942</v>
       </c>
       <c r="P54" t="n">
-        <v>6.030035736771957</v>
+        <v>3.03801006244887</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.277035130527582</v>
+        <v>3.375126911708121</v>
       </c>
       <c r="R54" t="n">
-        <v>7.107832760463653</v>
+        <v>3.744026695444137</v>
       </c>
       <c r="S54" t="n">
-        <v>8.460399970651602</v>
+        <v>4.146448422966215</v>
       </c>
       <c r="T54" t="n">
-        <v>7.750520990843579</v>
+        <v>4.584016429604285</v>
       </c>
       <c r="U54" t="n">
-        <v>8.647721103466733</v>
+        <v>5.058206809955675</v>
       </c>
       <c r="V54" t="n">
-        <v>4.807957815233118</v>
+        <v>5.57031318521773</v>
       </c>
       <c r="W54" t="n">
-        <v>9.281833365532801</v>
+        <v>6.121412420784647</v>
       </c>
       <c r="X54" t="n">
-        <v>11.03638323514327</v>
+        <v>6.712330945019149</v>
       </c>
       <c r="Y54" t="n">
-        <v>12.5697289403394</v>
+        <v>7.343612338719613</v>
       </c>
       <c r="Z54" t="n">
-        <v>13.81004809940463</v>
+        <v>8.015486866463766</v>
       </c>
       <c r="AA54" t="n">
-        <v>15.12517425158</v>
+        <v>8.727843605528099</v>
       </c>
       <c r="AB54" t="n">
-        <v>16.98631172971468</v>
+        <v>9.480205795917215</v>
       </c>
       <c r="AC54" t="n">
-        <v>16.47860902377611</v>
+        <v>10.27170998725552</v>
       </c>
       <c r="AD54" t="n">
-        <v>20.03711211363585</v>
+        <v>11.10108949651595</v>
       </c>
       <c r="AE54" t="n">
-        <v>21.66685922188302</v>
+        <v>11.96666261686694</v>
       </c>
       <c r="AF54" t="n">
-        <v>19.27347471856564</v>
+        <v>12.86632593472035</v>
       </c>
       <c r="AG54" t="n">
-        <v>24.50505576737665</v>
+        <v>13.79755302201012</v>
       </c>
       <c r="AH54" t="n">
-        <v>28.211937090918</v>
+        <v>14.75739867651874</v>
       </c>
       <c r="AI54" t="n">
-        <v>33.47878298045431</v>
+        <v>15.74250878737696</v>
       </c>
       <c r="AJ54" t="n">
-        <v>35.58149262962258</v>
+        <v>16.74913580814964</v>
       </c>
       <c r="AK54" t="n">
-        <v>37.71781794999157</v>
+        <v>17.77315972842696</v>
       </c>
       <c r="AL54" t="n">
-        <v>40.63133642882237</v>
+        <v>18.81011434837988</v>
       </c>
       <c r="AM54" t="n">
-        <v>45.17044541814148</v>
+        <v>19.85521858078874</v>
       </c>
       <c r="AN54" t="n">
-        <v>49.86685767606548</v>
+        <v>20.90341243261254</v>
       </c>
       <c r="AO54" t="n">
-        <v>49.72793185772556</v>
+        <v>21.94939725385789</v>
       </c>
       <c r="AP54" t="n">
-        <v>51.12862733797268</v>
+        <v>22.98767978555944</v>
       </c>
       <c r="AQ54" t="n">
-        <v>52.4520866564655</v>
+        <v>24.01261949102487</v>
       </c>
       <c r="AR54" t="n">
-        <v>55.48003764249093</v>
+        <v>25.01847861481495</v>
       </c>
       <c r="AS54" t="n">
-        <v>70.37270126588457</v>
+        <v>25.99947438177924</v>
       </c>
       <c r="AT54" t="n">
-        <v>55.88150412668112</v>
+        <v>26.94983272331362</v>
       </c>
       <c r="AU54" t="n">
-        <v>52.08561155188905</v>
+        <v>27.863842899395</v>
       </c>
       <c r="AV54" t="n">
-        <v>54.76499803168242</v>
+        <v>28.73591237245578</v>
       </c>
       <c r="AW54" t="n">
-        <v>56.4110596727482</v>
+        <v>29.56062128256648</v>
       </c>
       <c r="AX54" t="n">
-        <v>57.96037956247248</v>
+        <v>30.33277587264114</v>
       </c>
       <c r="AY54" t="n">
-        <v>59.40299002495009</v>
+        <v>31.04746021756444</v>
       </c>
       <c r="AZ54" t="n">
-        <v>61.72505588395175</v>
+        <v>31.70008562259248</v>
       </c>
       <c r="BA54" t="n">
-        <v>65.92670739232243</v>
+        <v>32.28643707451533</v>
       </c>
       <c r="BB54" t="n">
-        <v>64</v>
+        <v>32.80271615439517</v>
       </c>
       <c r="BC54" t="n">
         <v>0</v>
@@ -11676,166 +11676,166 @@
         <v>2043</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5734057179063895</v>
+        <v>0.882162642932907</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6939279690687643</v>
+        <v>0.05066714476883915</v>
       </c>
       <c r="D55" t="n">
-        <v>0.666914551337797</v>
+        <v>0.5039438062266842</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6217652402211629</v>
+        <v>0.5672848719658041</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4858440318427336</v>
+        <v>0.4302719373155245</v>
       </c>
       <c r="G55" t="n">
-        <v>1.546094808865994</v>
+        <v>0.408985629661303</v>
       </c>
       <c r="H55" t="n">
-        <v>1.890040030325902</v>
+        <v>0.1196439347318887</v>
       </c>
       <c r="I55" t="n">
-        <v>2.191054872539634</v>
+        <v>0.142855650176483</v>
       </c>
       <c r="J55" t="n">
-        <v>2.951178287732201</v>
+        <v>5.123085671075616</v>
       </c>
       <c r="K55" t="n">
-        <v>3.490644084261117</v>
+        <v>1.601635614219451</v>
       </c>
       <c r="L55" t="n">
-        <v>1.794296252490532</v>
+        <v>1.792766772573229</v>
       </c>
       <c r="M55" t="n">
-        <v>1.831159471973585</v>
+        <v>2.005194533441317</v>
       </c>
       <c r="N55" t="n">
-        <v>3.089330793513718</v>
+        <v>2.240765537894928</v>
       </c>
       <c r="O55" t="n">
-        <v>3.718292938933454</v>
+        <v>2.501365781741349</v>
       </c>
       <c r="P55" t="n">
-        <v>5.535585719789677</v>
+        <v>2.788899743282782</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.015017868385979</v>
+        <v>3.105266663782175</v>
       </c>
       <c r="R55" t="n">
-        <v>6.554070261055164</v>
+        <v>3.452334185140053</v>
       </c>
       <c r="S55" t="n">
-        <v>7.818616036510019</v>
+        <v>3.831909631557105</v>
       </c>
       <c r="T55" t="n">
-        <v>7.178521187219542</v>
+        <v>4.245709301523386</v>
       </c>
       <c r="U55" t="n">
-        <v>8.027325311945136</v>
+        <v>4.695326210547309</v>
       </c>
       <c r="V55" t="n">
-        <v>4.47295919144831</v>
+        <v>5.182196790937795</v>
       </c>
       <c r="W55" t="n">
-        <v>8.654324067419614</v>
+        <v>5.707567110235116</v>
       </c>
       <c r="X55" t="n">
-        <v>10.31314818392534</v>
+        <v>6.2724592124615</v>
       </c>
       <c r="Y55" t="n">
-        <v>11.77214211748615</v>
+        <v>6.877638214591274</v>
       </c>
       <c r="Z55" t="n">
-        <v>12.96253296972501</v>
+        <v>7.523580803416151</v>
       </c>
       <c r="AA55" t="n">
-        <v>14.22853440544719</v>
+        <v>8.210445774774882</v>
       </c>
       <c r="AB55" t="n">
-        <v>16.01489038402588</v>
+        <v>8.93804723800222</v>
       </c>
       <c r="AC55" t="n">
-        <v>15.57078575223846</v>
+        <v>9.705831074086221</v>
       </c>
       <c r="AD55" t="n">
-        <v>18.9753679667725</v>
+        <v>10.51285518760518</v>
       </c>
       <c r="AE55" t="n">
-        <v>20.56440453767889</v>
+        <v>11.35777403171699</v>
       </c>
       <c r="AF55" t="n">
-        <v>18.33349626467025</v>
+        <v>12.23882781432264</v>
       </c>
       <c r="AG55" t="n">
-        <v>23.36178753765532</v>
+        <v>13.15383671433455</v>
       </c>
       <c r="AH55" t="n">
-        <v>26.95556134411431</v>
+        <v>14.10020035215909</v>
       </c>
       <c r="AI55" t="n">
-        <v>32.05901942149773</v>
+        <v>15.07490267051421</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34.1483586400634</v>
+        <v>16.07452229285213</v>
       </c>
       <c r="AK55" t="n">
-        <v>36.27916895569361</v>
+        <v>17.09524833910163</v>
       </c>
       <c r="AL55" t="n">
-        <v>39.16850325576048</v>
+        <v>18.13290159398033</v>
       </c>
       <c r="AM55" t="n">
-        <v>43.64106505317959</v>
+        <v>19.18296084327063</v>
       </c>
       <c r="AN55" t="n">
-        <v>48.2856485504271</v>
+        <v>20.24059411929231</v>
       </c>
       <c r="AO55" t="n">
-        <v>48.25824936393433</v>
+        <v>21.30069452908828</v>
       </c>
       <c r="AP55" t="n">
-        <v>49.72793185772556</v>
+        <v>22.35792027795209</v>
       </c>
       <c r="AQ55" t="n">
-        <v>51.12862733797268</v>
+        <v>23.40673844695964</v>
       </c>
       <c r="AR55" t="n">
-        <v>54.20048954501434</v>
+        <v>24.4414720359869</v>
       </c>
       <c r="AS55" t="n">
-        <v>68.90262739470647</v>
+        <v>25.45634974302749</v>
       </c>
       <c r="AT55" t="n">
-        <v>54.83587111627369</v>
+        <v>26.44555791609703</v>
       </c>
       <c r="AU55" t="n">
-        <v>51.22471211612436</v>
+        <v>27.40329408532516</v>
       </c>
       <c r="AV55" t="n">
-        <v>53.97963379013957</v>
+        <v>28.32382145970928</v>
       </c>
       <c r="AW55" t="n">
-        <v>55.72578747083475</v>
+        <v>29.20152375534843</v>
       </c>
       <c r="AX55" t="n">
-        <v>57.38366414986455</v>
+        <v>30.03095970985914</v>
       </c>
       <c r="AY55" t="n">
-        <v>58.94275887709065</v>
+        <v>30.80691663132328</v>
       </c>
       <c r="AZ55" t="n">
-        <v>61.38308969244842</v>
+        <v>31.52446232998554</v>
       </c>
       <c r="BA55" t="n">
-        <v>65.70731755388412</v>
+        <v>32.17899478756212</v>
       </c>
       <c r="BB55" t="n">
-        <v>63.92892838043387</v>
+        <v>32.76628893309422</v>
       </c>
       <c r="BC55" t="n">
-        <v>65</v>
+        <v>33.28253991646841</v>
       </c>
       <c r="BD55" t="n">
         <v>0</v>
@@ -11864,169 +11864,169 @@
         <v>2044</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5091306362868319</v>
+        <v>0.7832779019797413</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6175138500530349</v>
+        <v>0.04508776851780118</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5947954020589409</v>
+        <v>0.4494480713285433</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5557621261148309</v>
+        <v>0.5070650884960229</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4352356681548141</v>
+        <v>0.3854522889074148</v>
       </c>
       <c r="G56" t="n">
-        <v>1.388125805264953</v>
+        <v>0.367198378301131</v>
       </c>
       <c r="H56" t="n">
-        <v>1.700704289752594</v>
+        <v>0.1076585414999471</v>
       </c>
       <c r="I56" t="n">
-        <v>1.975950940795261</v>
+        <v>0.1288309845188664</v>
       </c>
       <c r="J56" t="n">
-        <v>2.667371149178685</v>
+        <v>4.630411849600134</v>
       </c>
       <c r="K56" t="n">
-        <v>3.16197673685593</v>
+        <v>1.450830972976111</v>
       </c>
       <c r="L56" t="n">
-        <v>1.628967239321855</v>
+        <v>1.627578687863293</v>
       </c>
       <c r="M56" t="n">
-        <v>1.666132234455494</v>
+        <v>1.824482957194192</v>
       </c>
       <c r="N56" t="n">
-        <v>2.817168418420901</v>
+        <v>2.043359655656597</v>
       </c>
       <c r="O56" t="n">
-        <v>3.39826387286509</v>
+        <v>2.286076193703763</v>
       </c>
       <c r="P56" t="n">
-        <v>5.070399462181983</v>
+        <v>2.554532884906308</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.767792859894838</v>
+        <v>2.850641447338011</v>
       </c>
       <c r="R56" t="n">
-        <v>6.030035736771957</v>
+        <v>3.176300784471983</v>
       </c>
       <c r="S56" t="n">
-        <v>7.209477287160682</v>
+        <v>3.533370269899403</v>
       </c>
       <c r="T56" t="n">
-        <v>6.63397724309941</v>
+        <v>3.923640838069484</v>
       </c>
       <c r="U56" t="n">
-        <v>7.434896943905954</v>
+        <v>4.34880425756418</v>
       </c>
       <c r="V56" t="n">
-        <v>4.152064816523346</v>
+        <v>4.810421031582456</v>
       </c>
       <c r="W56" t="n">
-        <v>8.051326544606958</v>
+        <v>5.309887429887193</v>
       </c>
       <c r="X56" t="n">
-        <v>9.615915630466237</v>
+        <v>5.848402205311235</v>
       </c>
       <c r="Y56" t="n">
-        <v>11.00069139618702</v>
+        <v>6.426933584241985</v>
       </c>
       <c r="Z56" t="n">
-        <v>12.1400215586576</v>
+        <v>7.046187142983379</v>
       </c>
       <c r="AA56" t="n">
-        <v>13.35533699911062</v>
+        <v>7.706575189716182</v>
       </c>
       <c r="AB56" t="n">
-        <v>15.06550701753232</v>
+        <v>8.408188264683425</v>
       </c>
       <c r="AC56" t="n">
-        <v>14.68031618535706</v>
+        <v>9.150769349502211</v>
       </c>
       <c r="AD56" t="n">
-        <v>17.92999571469883</v>
+        <v>9.933691340957505</v>
       </c>
       <c r="AE56" t="n">
-        <v>19.47471975537177</v>
+        <v>10.75593829654808</v>
       </c>
       <c r="AF56" t="n">
-        <v>17.4006499934206</v>
+        <v>11.6160909000845</v>
       </c>
       <c r="AG56" t="n">
-        <v>22.22241971475182</v>
+        <v>12.51231652775281</v>
       </c>
       <c r="AH56" t="n">
-        <v>25.69796629142085</v>
+        <v>13.44236422036829</v>
       </c>
       <c r="AI56" t="n">
-        <v>30.6313197092208</v>
+        <v>14.40356478826871</v>
       </c>
       <c r="AJ56" t="n">
-        <v>32.70019980992769</v>
+        <v>15.39283619355902</v>
       </c>
       <c r="AK56" t="n">
-        <v>34.81793429967249</v>
+        <v>16.40669427225158</v>
       </c>
       <c r="AL56" t="n">
-        <v>37.67452160783567</v>
+        <v>17.44126877798681</v>
       </c>
       <c r="AM56" t="n">
-        <v>42.06987386729829</v>
+        <v>18.49232465097502</v>
       </c>
       <c r="AN56" t="n">
-        <v>46.6507936775368</v>
+        <v>19.55528834170579</v>
       </c>
       <c r="AO56" t="n">
-        <v>46.72804698428429</v>
+        <v>20.62527894965433</v>
       </c>
       <c r="AP56" t="n">
-        <v>48.25824936393433</v>
+        <v>21.69714387317222</v>
       </c>
       <c r="AQ56" t="n">
-        <v>49.72793185772556</v>
+        <v>22.76549860820431</v>
       </c>
       <c r="AR56" t="n">
-        <v>52.83291491590511</v>
+        <v>23.82477028042917</v>
       </c>
       <c r="AS56" t="n">
-        <v>67.31351120913072</v>
+        <v>24.8692444477448</v>
       </c>
       <c r="AT56" t="n">
-        <v>53.69035900886219</v>
+        <v>25.89311466748142</v>
       </c>
       <c r="AU56" t="n">
-        <v>50.26621518991755</v>
+        <v>26.89053428514938</v>
       </c>
       <c r="AV56" t="n">
-        <v>53.08742892034707</v>
+        <v>27.85566986876422</v>
       </c>
       <c r="AW56" t="n">
-        <v>54.92664490926482</v>
+        <v>28.78275568486027</v>
       </c>
       <c r="AX56" t="n">
-        <v>56.68657690998707</v>
+        <v>29.66614858939207</v>
       </c>
       <c r="AY56" t="n">
-        <v>58.3562686269809</v>
+        <v>30.50038268916609</v>
       </c>
       <c r="AZ56" t="n">
-        <v>60.90751750632701</v>
+        <v>31.2802231178232</v>
       </c>
       <c r="BA56" t="n">
-        <v>65.3432890274451</v>
+        <v>32.00071826538939</v>
       </c>
       <c r="BB56" t="n">
-        <v>63.71618671891794</v>
+        <v>32.65724980282982</v>
       </c>
       <c r="BC56" t="n">
-        <v>64.92781788637815</v>
+        <v>33.24557985373188</v>
       </c>
       <c r="BD56" t="n">
-        <v>70</v>
+        <v>33.76189468504822</v>
       </c>
       <c r="BE56" t="n">
         <v>0</v>
@@ -12052,172 +12052,172 @@
         <v>2045</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4510569134000348</v>
+        <v>0.6939337129231304</v>
       </c>
       <c r="C57" t="n">
-        <v>0.548294531385819</v>
+        <v>0.04003372055311293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5292975857597442</v>
+        <v>0.399955645680996</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4956628350491174</v>
+        <v>0.4522318227680743</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3890334882803816</v>
+        <v>0.3445348336340168</v>
       </c>
       <c r="G57" t="n">
-        <v>1.243530480442326</v>
+        <v>0.3289488417076811</v>
       </c>
       <c r="H57" t="n">
-        <v>1.526938385791448</v>
+        <v>0.09665875517871771</v>
       </c>
       <c r="I57" t="n">
-        <v>1.778009030195893</v>
+        <v>0.1159252738083573</v>
       </c>
       <c r="J57" t="n">
-        <v>2.405505493142057</v>
+        <v>4.175827253418733</v>
       </c>
       <c r="K57" t="n">
-        <v>2.857897659834305</v>
+        <v>1.311308332586406</v>
       </c>
       <c r="L57" t="n">
-        <v>1.475589143866101</v>
+        <v>1.474331333758878</v>
       </c>
       <c r="M57" t="n">
-        <v>1.512612436513151</v>
+        <v>1.656372498044929</v>
       </c>
       <c r="N57" t="n">
-        <v>2.56328036070076</v>
+        <v>1.859208573028338</v>
       </c>
       <c r="O57" t="n">
-        <v>3.098885260262991</v>
+        <v>2.08467855515114</v>
       </c>
       <c r="P57" t="n">
-        <v>4.633996190270578</v>
+        <v>2.334667267316752</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.535199731090991</v>
+        <v>2.611086087924494</v>
       </c>
       <c r="R57" t="n">
-        <v>5.535585719789677</v>
+        <v>2.915850922252138</v>
       </c>
       <c r="S57" t="n">
-        <v>6.633039310449153</v>
+        <v>3.250857581638252</v>
       </c>
       <c r="T57" t="n">
-        <v>6.117132243651487</v>
+        <v>3.617954811049225</v>
       </c>
       <c r="U57" t="n">
-        <v>6.870905001781531</v>
+        <v>4.01891527892098</v>
       </c>
       <c r="V57" t="n">
-        <v>3.845636350296183</v>
+        <v>4.45540491219322</v>
       </c>
       <c r="W57" t="n">
-        <v>7.473716669742022</v>
+        <v>4.9289510218392</v>
       </c>
       <c r="X57" t="n">
-        <v>8.94591838289662</v>
+        <v>5.440909717770699</v>
       </c>
       <c r="Y57" t="n">
-        <v>10.25697667249732</v>
+        <v>5.992433154893212</v>
       </c>
       <c r="Z57" t="n">
-        <v>11.34446300231787</v>
+        <v>6.584437182813517</v>
       </c>
       <c r="AA57" t="n">
-        <v>12.50790099982904</v>
+        <v>7.217569989220631</v>
       </c>
       <c r="AB57" t="n">
-        <v>14.14094505788183</v>
+        <v>7.89218233072719</v>
       </c>
       <c r="AC57" t="n">
-        <v>13.81004809940463</v>
+        <v>8.608299934931509</v>
       </c>
       <c r="AD57" t="n">
-        <v>16.90460651647176</v>
+        <v>9.365598634098166</v>
       </c>
       <c r="AE57" t="n">
-        <v>18.40183770719091</v>
+        <v>10.16338275507363</v>
       </c>
       <c r="AF57" t="n">
-        <v>16.47860902377611</v>
+        <v>11.00056724314972</v>
       </c>
       <c r="AG57" t="n">
-        <v>21.09169696172194</v>
+        <v>11.87566394119177</v>
       </c>
       <c r="AH57" t="n">
-        <v>24.444661686227</v>
+        <v>12.78677238126991</v>
       </c>
       <c r="AI57" t="n">
-        <v>29.20223442206915</v>
+        <v>13.73157537622734</v>
       </c>
       <c r="AJ57" t="n">
-        <v>31.24394610340522</v>
+        <v>14.70733962500417</v>
       </c>
       <c r="AK57" t="n">
-        <v>33.34138019835764</v>
+        <v>15.71092146998802</v>
       </c>
       <c r="AL57" t="n">
-        <v>36.15708561889066</v>
+        <v>16.73877786882353</v>
       </c>
       <c r="AM57" t="n">
-        <v>40.4652269121198</v>
+        <v>17.78698256844444</v>
       </c>
       <c r="AN57" t="n">
-        <v>44.97124447883611</v>
+        <v>18.85124739672851</v>
       </c>
       <c r="AO57" t="n">
-        <v>45.14592936535819</v>
+        <v>19.92694851798685</v>
       </c>
       <c r="AP57" t="n">
-        <v>46.72804698428429</v>
+        <v>21.00915743305179</v>
       </c>
       <c r="AQ57" t="n">
-        <v>48.25824936393433</v>
+        <v>22.09267644333666</v>
       </c>
       <c r="AR57" t="n">
-        <v>51.38552958631641</v>
+        <v>23.17207824101393</v>
       </c>
       <c r="AS57" t="n">
-        <v>65.61507175039827</v>
+        <v>24.24174923437399</v>
       </c>
       <c r="AT57" t="n">
-        <v>52.4520866564655</v>
+        <v>25.29593616836042</v>
       </c>
       <c r="AU57" t="n">
-        <v>49.21616242479034</v>
+        <v>26.32879555516573</v>
       </c>
       <c r="AV57" t="n">
-        <v>52.09407756046001</v>
+        <v>27.33444538855406</v>
       </c>
       <c r="AW57" t="n">
-        <v>54.01878732245842</v>
+        <v>28.30701857838196</v>
       </c>
       <c r="AX57" t="n">
-        <v>55.87365602839007</v>
+        <v>29.2407175088883</v>
       </c>
       <c r="AY57" t="n">
-        <v>57.64736634913939</v>
+        <v>30.1298690961604</v>
       </c>
       <c r="AZ57" t="n">
-        <v>60.3014775812136</v>
+        <v>30.96897969743775</v>
       </c>
       <c r="BA57" t="n">
-        <v>64.83703476479972</v>
+        <v>31.75278920839377</v>
       </c>
       <c r="BB57" t="n">
-        <v>63.36318935994676</v>
+        <v>32.47632367518009</v>
       </c>
       <c r="BC57" t="n">
-        <v>64.71175213640103</v>
+        <v>33.13494574683657</v>
       </c>
       <c r="BD57" t="n">
-        <v>69.92226541609955</v>
+        <v>33.7244023016906</v>
       </c>
       <c r="BE57" t="n">
-        <v>65</v>
+        <v>34.24086859945453</v>
       </c>
       <c r="BF57" t="n">
         <v>0</v>
@@ -12240,175 +12240,175 @@
         <v>2046</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3987203093431227</v>
+        <v>0.6134158605278811</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4857535990461913</v>
+        <v>0.03546729490942184</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4699667411878448</v>
+        <v>0.3551231981354595</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4410813214664535</v>
+        <v>0.4024328553419962</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3469639845343822</v>
+        <v>0.3072773483253299</v>
       </c>
       <c r="G58" t="n">
-        <v>1.111524252229662</v>
+        <v>0.2940294757961113</v>
       </c>
       <c r="H58" t="n">
-        <v>1.367883528486558</v>
+        <v>0.08659021236436537</v>
       </c>
       <c r="I58" t="n">
-        <v>1.596344676054696</v>
+        <v>0.104080851402518</v>
       </c>
       <c r="J58" t="n">
-        <v>2.164532732412392</v>
+        <v>3.75751159192668</v>
       </c>
       <c r="K58" t="n">
-        <v>2.577327314080776</v>
+        <v>1.182572360884542</v>
       </c>
       <c r="L58" t="n">
-        <v>1.333685574589342</v>
+        <v>1.332548724807986</v>
       </c>
       <c r="M58" t="n">
-        <v>1.370189919304236</v>
+        <v>1.500414015281836</v>
       </c>
       <c r="N58" t="n">
-        <v>2.327096056174078</v>
+        <v>1.687898446160009</v>
       </c>
       <c r="O58" t="n">
-        <v>2.819608396770836</v>
+        <v>1.896803742315198</v>
       </c>
       <c r="P58" t="n">
-        <v>4.225752627631351</v>
+        <v>2.12898887578339</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.316998095135289</v>
+        <v>2.386353003182047</v>
       </c>
       <c r="R58" t="n">
-        <v>5.070399462181983</v>
+        <v>2.670815645602867</v>
       </c>
       <c r="S58" t="n">
-        <v>6.089144291768645</v>
+        <v>2.984294221715531</v>
       </c>
       <c r="T58" t="n">
-        <v>5.628033354320493</v>
+        <v>3.328679116287129</v>
       </c>
       <c r="U58" t="n">
-        <v>6.335601252353326</v>
+        <v>3.705806537513132</v>
       </c>
       <c r="V58" t="n">
-        <v>3.553916380231827</v>
+        <v>4.117429485185023</v>
       </c>
       <c r="W58" t="n">
-        <v>6.92214543053313</v>
+        <v>4.565187215522787</v>
       </c>
       <c r="X58" t="n">
-        <v>8.304129633046692</v>
+        <v>5.050573645345709</v>
       </c>
       <c r="Y58" t="n">
-        <v>9.542312941756395</v>
+        <v>5.574905186230211</v>
       </c>
       <c r="Z58" t="n">
-        <v>10.57750719351286</v>
+        <v>6.139288536814256</v>
       </c>
       <c r="AA58" t="n">
-        <v>11.68823460844871</v>
+        <v>6.744588987237941</v>
       </c>
       <c r="AB58" t="n">
-        <v>13.24365988217192</v>
+        <v>7.391399803083178</v>
       </c>
       <c r="AC58" t="n">
-        <v>12.96253296972501</v>
+        <v>8.080013256770767</v>
       </c>
       <c r="AD58" t="n">
-        <v>15.90247962961745</v>
+        <v>8.810393862335477</v>
       </c>
       <c r="AE58" t="n">
-        <v>17.3494645826947</v>
+        <v>9.582154345411688</v>
       </c>
       <c r="AF58" t="n">
-        <v>15.57078575223846</v>
+        <v>10.39453484508523</v>
       </c>
       <c r="AG58" t="n">
-        <v>19.97407154397105</v>
+        <v>11.24638579930346</v>
       </c>
       <c r="AH58" t="n">
-        <v>23.20086665789414</v>
+        <v>12.13615491229474</v>
       </c>
       <c r="AI58" t="n">
-        <v>27.77802464343977</v>
+        <v>13.0618785426169</v>
       </c>
       <c r="AJ58" t="n">
-        <v>29.78627911051053</v>
+        <v>14.02117778572471</v>
       </c>
       <c r="AK58" t="n">
-        <v>31.85657249758964</v>
+        <v>15.01125945701746</v>
       </c>
       <c r="AL58" t="n">
-        <v>34.62374097521755</v>
+        <v>16.02892211171613</v>
       </c>
       <c r="AM58" t="n">
-        <v>38.835388257327</v>
+        <v>17.07056716800358</v>
       </c>
       <c r="AN58" t="n">
-        <v>43.25593221640392</v>
+        <v>18.13221513074422</v>
       </c>
       <c r="AO58" t="n">
-        <v>43.5205591730672</v>
+        <v>19.20952684565096</v>
       </c>
       <c r="AP58" t="n">
-        <v>45.14592936535819</v>
+        <v>20.29782964858859</v>
       </c>
       <c r="AQ58" t="n">
-        <v>46.72804698428429</v>
+        <v>21.39214821216346</v>
       </c>
       <c r="AR58" t="n">
-        <v>49.86685767606548</v>
+        <v>22.48723983202854</v>
       </c>
       <c r="AS58" t="n">
-        <v>63.8175125507478</v>
+        <v>23.57763383848395</v>
       </c>
       <c r="AT58" t="n">
-        <v>51.12862733797268</v>
+        <v>24.6576747649337</v>
       </c>
       <c r="AU58" t="n">
-        <v>48.08107943509337</v>
+        <v>25.72156885358072</v>
       </c>
       <c r="AV58" t="n">
-        <v>51.00584105841908</v>
+        <v>26.76343343042224</v>
       </c>
       <c r="AW58" t="n">
-        <v>53.00800874573123</v>
+        <v>27.77734863634401</v>
       </c>
       <c r="AX58" t="n">
-        <v>54.95014572456977</v>
+        <v>28.7574109592536</v>
       </c>
       <c r="AY58" t="n">
-        <v>56.82066714751533</v>
+        <v>29.69778797425838</v>
       </c>
       <c r="AZ58" t="n">
-        <v>59.56894522744404</v>
+        <v>30.59277366565266</v>
       </c>
       <c r="BA58" t="n">
-        <v>64.19189548967898</v>
+        <v>31.43684367684262</v>
       </c>
       <c r="BB58" t="n">
-        <v>62.87227613556337</v>
+        <v>32.22470981336935</v>
       </c>
       <c r="BC58" t="n">
-        <v>64.35323919369593</v>
+        <v>32.9513731110496</v>
       </c>
       <c r="BD58" t="n">
-        <v>69.68957922381649</v>
+        <v>33.61217477714024</v>
       </c>
       <c r="BE58" t="n">
-        <v>64.92781788637815</v>
+        <v>34.20284431841212</v>
       </c>
       <c r="BF58" t="n">
-        <v>66</v>
+        <v>34.71954418711834</v>
       </c>
       <c r="BG58" t="n">
         <v>0</v>
@@ -12428,178 +12428,178 @@
         <v>2047</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3516740092625554</v>
+        <v>0.5410369373270083</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4293911023695168</v>
+        <v>0.03135198769319505</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4163602277538783</v>
+        <v>0.3146162540835342</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3916389509898707</v>
+        <v>0.3573227285753126</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3087569250265175</v>
+        <v>0.2734405109122485</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9913256700982348</v>
+        <v>0.2622335648885039</v>
       </c>
       <c r="H59" t="n">
-        <v>1.222676677452628</v>
+        <v>0.07739828059097802</v>
       </c>
       <c r="I59" t="n">
-        <v>1.430060052508675</v>
+        <v>0.09323917951710117</v>
       </c>
       <c r="J59" t="n">
-        <v>1.943376127370934</v>
+        <v>3.373595703462257</v>
       </c>
       <c r="K59" t="n">
-        <v>2.319142213298991</v>
+        <v>1.064107561125252</v>
       </c>
       <c r="L59" t="n">
-        <v>1.202752746571029</v>
+        <v>1.201727505522451</v>
       </c>
       <c r="M59" t="n">
-        <v>1.238422319261532</v>
+        <v>1.356123102701982</v>
       </c>
       <c r="N59" t="n">
-        <v>2.107984491237286</v>
+        <v>1.528971585787713</v>
       </c>
       <c r="O59" t="n">
-        <v>2.559805661791486</v>
+        <v>1.72202954298421</v>
       </c>
       <c r="P59" t="n">
-        <v>3.84492054105114</v>
+        <v>1.937120740727621</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.112876313815676</v>
+        <v>2.176121226604567</v>
       </c>
       <c r="R59" t="n">
-        <v>4.633996190270578</v>
+        <v>2.440941708626768</v>
       </c>
       <c r="S59" t="n">
-        <v>5.577439408400181</v>
+        <v>2.733507271449886</v>
       </c>
       <c r="T59" t="n">
-        <v>5.166546671803698</v>
+        <v>3.055734557179457</v>
       </c>
       <c r="U59" t="n">
-        <v>5.829034545546225</v>
+        <v>3.40950660653579</v>
       </c>
       <c r="V59" t="n">
-        <v>3.277035130527582</v>
+        <v>3.796645623255001</v>
       </c>
       <c r="W59" t="n">
-        <v>6.397049484417288</v>
+        <v>4.218883988555442</v>
       </c>
       <c r="X59" t="n">
-        <v>7.691272700592366</v>
+        <v>4.677833911237584</v>
       </c>
       <c r="Y59" t="n">
-        <v>8.857738275249805</v>
+        <v>5.174956150607099</v>
       </c>
       <c r="Z59" t="n">
-        <v>9.840510221186282</v>
+        <v>5.711528292260008</v>
       </c>
       <c r="AA59" t="n">
-        <v>10.8980377145284</v>
+        <v>6.288613089506376</v>
       </c>
       <c r="AB59" t="n">
-        <v>12.3757778207104</v>
+        <v>6.907027404874618</v>
       </c>
       <c r="AC59" t="n">
-        <v>12.1400215586576</v>
+        <v>7.567312296179813</v>
       </c>
       <c r="AD59" t="n">
-        <v>14.92655311665304</v>
+        <v>8.269704789928287</v>
       </c>
       <c r="AE59" t="n">
-        <v>16.32096593566002</v>
+        <v>9.014111871653528</v>
       </c>
       <c r="AF59" t="n">
-        <v>14.68031618535706</v>
+        <v>9.800087198786708</v>
       </c>
       <c r="AG59" t="n">
-        <v>18.87367969968298</v>
+        <v>10.62681100785309</v>
       </c>
       <c r="AH59" t="n">
-        <v>21.97147869836815</v>
+        <v>11.49307364536971</v>
       </c>
       <c r="AI59" t="n">
-        <v>26.36462120215243</v>
+        <v>12.39726310221798</v>
       </c>
       <c r="AJ59" t="n">
-        <v>28.33358513630856</v>
+        <v>13.33735687593711</v>
       </c>
       <c r="AK59" t="n">
-        <v>30.37032379895191</v>
+        <v>14.31091842583485</v>
       </c>
       <c r="AL59" t="n">
-        <v>33.08182528595847</v>
+        <v>15.31509842340766</v>
       </c>
       <c r="AM59" t="n">
-        <v>37.18846252893736</v>
+        <v>16.34664093657511</v>
       </c>
       <c r="AN59" t="n">
-        <v>41.51369089576335</v>
+        <v>17.40189462169861</v>
       </c>
       <c r="AO59" t="n">
-        <v>41.86057956426186</v>
+        <v>18.47682893311327</v>
       </c>
       <c r="AP59" t="n">
-        <v>43.5205591730672</v>
+        <v>19.56705529655295</v>
       </c>
       <c r="AQ59" t="n">
-        <v>45.14592936535819</v>
+        <v>20.66785313078492</v>
       </c>
       <c r="AR59" t="n">
-        <v>48.2856485504271</v>
+        <v>21.77420054120736</v>
       </c>
       <c r="AS59" t="n">
-        <v>61.93142001704906</v>
+        <v>22.88080945019892</v>
       </c>
       <c r="AT59" t="n">
-        <v>49.72793185772556</v>
+        <v>23.98216487165332</v>
       </c>
       <c r="AU59" t="n">
-        <v>46.86790839314163</v>
+        <v>25.0725679814423</v>
       </c>
       <c r="AV59" t="n">
-        <v>49.82948232364222</v>
+        <v>26.14618258159422</v>
       </c>
       <c r="AW59" t="n">
-        <v>51.90068037523345</v>
+        <v>27.197084503998</v>
       </c>
       <c r="AX59" t="n">
-        <v>53.92193993100246</v>
+        <v>28.21931344984009</v>
       </c>
       <c r="AY59" t="n">
-        <v>55.88150412668112</v>
+        <v>29.20692671433003</v>
       </c>
       <c r="AZ59" t="n">
-        <v>58.71468938576584</v>
+        <v>30.15405420340201</v>
       </c>
       <c r="BA59" t="n">
-        <v>63.41210298405333</v>
+        <v>31.0549541109913</v>
       </c>
       <c r="BB59" t="n">
-        <v>62.24668653544629</v>
+        <v>31.90406859334151</v>
       </c>
       <c r="BC59" t="n">
-        <v>63.85465545018155</v>
+        <v>32.69607875189237</v>
       </c>
       <c r="BD59" t="n">
-        <v>69.30348836244177</v>
+        <v>33.42595821998891</v>
       </c>
       <c r="BE59" t="n">
-        <v>64.71175213640103</v>
+        <v>34.08902464219967</v>
       </c>
       <c r="BF59" t="n">
-        <v>65.92670739232243</v>
+        <v>34.68098833968121</v>
       </c>
       <c r="BG59" t="n">
-        <v>67</v>
+        <v>35.19799747175318</v>
       </c>
       <c r="BH59" t="n">
         <v>0</v>
@@ -12616,181 +12616,181 @@
         <v>2048</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3094903333954769</v>
+        <v>0.4761389744545799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3787258561289058</v>
+        <v>0.02765266516917738</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3680495163167287</v>
+        <v>0.2781110020174044</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3469668564615652</v>
+        <v>0.3165648962205803</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2741472656929095</v>
+        <v>0.2427895937551099</v>
       </c>
       <c r="G60" t="n">
-        <v>0.882162642932907</v>
+        <v>0.2333568691354848</v>
       </c>
       <c r="H60" t="n">
-        <v>1.090458237108058</v>
+        <v>0.0690285454567385</v>
       </c>
       <c r="I60" t="n">
-        <v>1.278252890064111</v>
+        <v>0.08334143064542254</v>
       </c>
       <c r="J60" t="n">
-        <v>1.740942672619256</v>
+        <v>3.022182189851193</v>
       </c>
       <c r="K60" t="n">
-        <v>2.082188707897429</v>
+        <v>0.9553845965364361</v>
       </c>
       <c r="L60" t="n">
-        <v>1.082266366206196</v>
+        <v>1.081343829211546</v>
       </c>
       <c r="M60" t="n">
-        <v>1.116841836101669</v>
+        <v>1.22298749985765</v>
       </c>
       <c r="N60" t="n">
-        <v>1.905265106556203</v>
+        <v>1.381934365943739</v>
       </c>
       <c r="O60" t="n">
-        <v>2.318782940361015</v>
+        <v>1.55988901293192</v>
       </c>
       <c r="P60" t="n">
-        <v>3.490644084261117</v>
+        <v>1.758631675720356</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.92246027052557</v>
+        <v>1.980005443120138</v>
       </c>
       <c r="R60" t="n">
-        <v>4.225752627631351</v>
+        <v>2.225900802590485</v>
       </c>
       <c r="S60" t="n">
-        <v>5.097395809297635</v>
+        <v>2.498237540543715</v>
       </c>
       <c r="T60" t="n">
-        <v>4.732372831369851</v>
+        <v>2.798944075584164</v>
       </c>
       <c r="U60" t="n">
-        <v>5.351066195796688</v>
+        <v>3.129934366321292</v>
       </c>
       <c r="V60" t="n">
-        <v>3.015017868385979</v>
+        <v>3.493082600002631</v>
       </c>
       <c r="W60" t="n">
-        <v>5.898663234949648</v>
+        <v>3.890195931175696</v>
       </c>
       <c r="X60" t="n">
-        <v>7.107832760463653</v>
+        <v>4.322985598955753</v>
       </c>
       <c r="Y60" t="n">
-        <v>8.204024213965191</v>
+        <v>4.793036805390529</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.134542596351361</v>
+        <v>5.301777784203712</v>
       </c>
       <c r="AA60" t="n">
-        <v>10.13870750061617</v>
+        <v>5.850448527449455</v>
       </c>
       <c r="AB60" t="n">
-        <v>11.53909875655948</v>
+        <v>6.440069666226114</v>
       </c>
       <c r="AC60" t="n">
-        <v>11.34446300231787</v>
+        <v>7.071412019839086</v>
       </c>
       <c r="AD60" t="n">
-        <v>13.97941876451481</v>
+        <v>7.744967335314958</v>
       </c>
       <c r="AE60" t="n">
-        <v>15.31935714603865</v>
+        <v>8.460920735977441</v>
       </c>
       <c r="AF60" t="n">
-        <v>13.81004809940463</v>
+        <v>9.219125384274703</v>
       </c>
       <c r="AG60" t="n">
-        <v>17.79432264891764</v>
+        <v>10.01907984090584</v>
       </c>
       <c r="AH60" t="n">
-        <v>20.76104766965128</v>
+        <v>10.85990857047118</v>
       </c>
       <c r="AI60" t="n">
-        <v>24.96758942996381</v>
+        <v>11.74034600452168</v>
       </c>
       <c r="AJ60" t="n">
-        <v>26.89191362619547</v>
+        <v>12.6587245272334</v>
       </c>
       <c r="AK60" t="n">
-        <v>28.88914562917736</v>
+        <v>13.61296669828355</v>
       </c>
       <c r="AL60" t="n">
-        <v>31.53841317583468</v>
+        <v>14.60058197305756</v>
       </c>
       <c r="AM60" t="n">
-        <v>35.53233086269613</v>
+        <v>15.61866812321473</v>
       </c>
       <c r="AN60" t="n">
-        <v>39.75318408265719</v>
+        <v>16.66391750182795</v>
       </c>
       <c r="AO60" t="n">
-        <v>40.17453957654518</v>
+        <v>17.73262823757331</v>
       </c>
       <c r="AP60" t="n">
-        <v>41.86057956426186</v>
+        <v>18.82072038234658</v>
       </c>
       <c r="AQ60" t="n">
-        <v>43.5205591730672</v>
+        <v>19.92375697660977</v>
       </c>
       <c r="AR60" t="n">
-        <v>46.6507936775368</v>
+        <v>21.03696993694392</v>
       </c>
       <c r="AS60" t="n">
-        <v>59.96766029649817</v>
+        <v>22.15529061081931</v>
       </c>
       <c r="AT60" t="n">
-        <v>48.25824936393433</v>
+        <v>23.27338478451989</v>
       </c>
       <c r="AU60" t="n">
-        <v>45.58393753624843</v>
+        <v>24.38569187155479</v>
       </c>
       <c r="AV60" t="n">
-        <v>48.57219597107404</v>
+        <v>25.48646795084445</v>
       </c>
       <c r="AW60" t="n">
-        <v>50.70368376791664</v>
+        <v>26.56983226674739</v>
       </c>
       <c r="AX60" t="n">
-        <v>52.79551969204782</v>
+        <v>27.62981674701414</v>
       </c>
       <c r="AY60" t="n">
-        <v>54.83587111627369</v>
+        <v>28.66041804062251</v>
       </c>
       <c r="AZ60" t="n">
-        <v>57.74422093090382</v>
+        <v>29.65565152603563</v>
       </c>
       <c r="BA60" t="n">
-        <v>62.50273386226687</v>
+        <v>30.60960669278419</v>
       </c>
       <c r="BB60" t="n">
-        <v>61.49052410574868</v>
+        <v>31.51650325665419</v>
       </c>
       <c r="BC60" t="n">
-        <v>63.21929101256264</v>
+        <v>32.37074733256075</v>
       </c>
       <c r="BD60" t="n">
-        <v>68.76655202327244</v>
+        <v>33.16698696090877</v>
       </c>
       <c r="BE60" t="n">
-        <v>64.35323919369593</v>
+        <v>33.90016626431706</v>
       </c>
       <c r="BF60" t="n">
-        <v>65.70731755388412</v>
+        <v>34.56557750347116</v>
       </c>
       <c r="BG60" t="n">
-        <v>66.92559689826672</v>
+        <v>35.15891030478753</v>
       </c>
       <c r="BH60" t="n">
-        <v>70</v>
+        <v>35.67629734949173</v>
       </c>
       <c r="BI60" t="n">
         <v>0</v>
@@ -12804,184 +12804,184 @@
         <v>2049</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2717620476686496</v>
+        <v>0.4180954579517686</v>
       </c>
       <c r="C61" t="n">
-        <v>0.333297282118206</v>
+        <v>0.02433569822355775</v>
       </c>
       <c r="D61" t="n">
-        <v>0.324622162396205</v>
+        <v>0.2452957845578933</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3067079302639406</v>
+        <v>0.2798335411751026</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2428767995230957</v>
+        <v>0.2150959242278477</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7832779019797413</v>
+        <v>0.2071990696197563</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9703789072261977</v>
+        <v>0.06142724427976979</v>
       </c>
       <c r="I61" t="n">
-        <v>1.14002452061297</v>
+        <v>0.07432901208929135</v>
       </c>
       <c r="J61" t="n">
-        <v>1.556133953121526</v>
+        <v>2.701364262081671</v>
       </c>
       <c r="K61" t="n">
-        <v>1.865295720663489</v>
+        <v>0.8558661339138405</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9716880636854672</v>
+        <v>0.9708597849788559</v>
       </c>
       <c r="M61" t="n">
-        <v>1.004961625762896</v>
+        <v>1.100474092584726</v>
       </c>
       <c r="N61" t="n">
-        <v>1.718218209387184</v>
+        <v>1.246264776262211</v>
       </c>
       <c r="O61" t="n">
-        <v>2.095791617211824</v>
+        <v>1.409878544549994</v>
       </c>
       <c r="P61" t="n">
-        <v>3.16197673685593</v>
+        <v>1.593044811528758</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.745322042130559</v>
+        <v>1.797564920533476</v>
       </c>
       <c r="R61" t="n">
-        <v>3.84492054105114</v>
+        <v>2.025298798197658</v>
       </c>
       <c r="S61" t="n">
-        <v>4.648327890394486</v>
+        <v>2.278149013925596</v>
       </c>
       <c r="T61" t="n">
-        <v>4.325063110919205</v>
+        <v>2.558042276506517</v>
       </c>
       <c r="U61" t="n">
-        <v>4.901386146775916</v>
+        <v>2.866908459374984</v>
       </c>
       <c r="V61" t="n">
-        <v>2.767792859894838</v>
+        <v>3.206657307303387</v>
       </c>
       <c r="W61" t="n">
-        <v>5.427032163094761</v>
+        <v>3.57915303829192</v>
       </c>
       <c r="X61" t="n">
-        <v>6.554070261055164</v>
+        <v>3.986187113276627</v>
       </c>
       <c r="Y61" t="n">
-        <v>7.581688277827896</v>
+        <v>4.42944950123001</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.460399970651602</v>
+        <v>4.910498816634239</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.411346917452917</v>
+        <v>5.430731748714729</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.73510205947594</v>
+        <v>5.991352236046366</v>
       </c>
       <c r="AC61" t="n">
-        <v>10.57750719351286</v>
+        <v>6.593340865306604</v>
       </c>
       <c r="AD61" t="n">
-        <v>13.06332103297209</v>
+        <v>7.237424988506898</v>
       </c>
       <c r="AE61" t="n">
-        <v>14.34729820568625</v>
+        <v>7.924050058793275</v>
       </c>
       <c r="AF61" t="n">
-        <v>12.96253296972501</v>
+        <v>8.653352680997653</v>
       </c>
       <c r="AG61" t="n">
-        <v>16.73945224170258</v>
+        <v>9.425135859995759</v>
       </c>
       <c r="AH61" t="n">
-        <v>19.57375491380941</v>
+        <v>10.23884690826644</v>
       </c>
       <c r="AI61" t="n">
-        <v>23.59209962460373</v>
+        <v>11.09355844475673</v>
       </c>
       <c r="AJ61" t="n">
-        <v>25.46694121856308</v>
+        <v>11.98795288123362</v>
       </c>
       <c r="AK61" t="n">
-        <v>27.41920605023853</v>
+        <v>12.92031075084101</v>
       </c>
       <c r="AL61" t="n">
-        <v>30.00026661491495</v>
+        <v>13.88850318760704</v>
       </c>
       <c r="AM61" t="n">
-        <v>33.87459192960021</v>
+        <v>14.88998881616314</v>
       </c>
       <c r="AN61" t="n">
-        <v>37.9828364394338</v>
+        <v>15.92181525877517</v>
       </c>
       <c r="AO61" t="n">
-        <v>38.47082330579727</v>
+        <v>16.98062541265194</v>
       </c>
       <c r="AP61" t="n">
-        <v>40.17453957654518</v>
+        <v>18.06266859489923</v>
       </c>
       <c r="AQ61" t="n">
-        <v>41.86057956426186</v>
+        <v>19.16381659577862</v>
       </c>
       <c r="AR61" t="n">
-        <v>44.97124447883611</v>
+        <v>20.27958462331103</v>
       </c>
       <c r="AS61" t="n">
-        <v>57.93727601887635</v>
+        <v>21.40515706383854</v>
       </c>
       <c r="AT61" t="n">
-        <v>46.72804698428429</v>
+        <v>22.53541792394831</v>
       </c>
       <c r="AU61" t="n">
-        <v>44.23672858360647</v>
+        <v>23.6649857592405</v>
       </c>
       <c r="AV61" t="n">
-        <v>47.24153526483928</v>
+        <v>24.78825283487364</v>
       </c>
       <c r="AW61" t="n">
-        <v>49.42433976004025</v>
+        <v>25.89942820190008</v>
       </c>
       <c r="AX61" t="n">
-        <v>51.57788521219107</v>
+        <v>26.9925843125287</v>
       </c>
       <c r="AY61" t="n">
-        <v>53.69035900886219</v>
+        <v>28.06170673722416</v>
       </c>
       <c r="AZ61" t="n">
-        <v>56.66373348681615</v>
+        <v>29.10074648785938</v>
       </c>
       <c r="BA61" t="n">
-        <v>61.46965453934924</v>
+        <v>30.10367439506038</v>
       </c>
       <c r="BB61" t="n">
-        <v>60.60871162401635</v>
+        <v>31.06453693572187</v>
       </c>
       <c r="BC61" t="n">
-        <v>62.45131354490101</v>
+        <v>31.97751285990849</v>
       </c>
       <c r="BD61" t="n">
-        <v>68.08231339814438</v>
+        <v>32.83696992660855</v>
       </c>
       <c r="BE61" t="n">
-        <v>63.85465545018155</v>
+        <v>33.63752102666322</v>
       </c>
       <c r="BF61" t="n">
-        <v>65.3432890274451</v>
+        <v>34.37407895030341</v>
       </c>
       <c r="BG61" t="n">
-        <v>66.70288297136722</v>
+        <v>35.0419090475348</v>
       </c>
       <c r="BH61" t="n">
-        <v>69.92226541609955</v>
+        <v>35.63667903335499</v>
       </c>
       <c r="BI61" t="n">
-        <v>77</v>
+        <v>36.1545052074863</v>
       </c>
       <c r="BJ61" t="n">
         <v>0</v>
@@ -12992,187 +12992,187 @@
         <v>2050</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2381033055535443</v>
+        <v>0.3663127777746836</v>
       </c>
       <c r="C62" t="n">
-        <v>0.292666820566238</v>
+        <v>0.02136906541836768</v>
       </c>
       <c r="D62" t="n">
-        <v>0.285683384672748</v>
+        <v>0.2158722912236857</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2705184686635042</v>
+        <v>0.2468150757439818</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2146955511847584</v>
+        <v>0.1901381198219446</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6939337129231304</v>
+        <v>0.1835650148332341</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8616056921777154</v>
+        <v>0.05454164649716924</v>
       </c>
       <c r="I62" t="n">
-        <v>1.014487039372843</v>
+        <v>0.06614403291380885</v>
       </c>
       <c r="J62" t="n">
-        <v>1.387855938137529</v>
+        <v>2.409242742041606</v>
       </c>
       <c r="K62" t="n">
-        <v>1.667286378344493</v>
+        <v>0.7650121806173086</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8704713363096281</v>
+        <v>0.8697293359707065</v>
       </c>
       <c r="M62" t="n">
-        <v>0.9022817734222195</v>
+        <v>0.9880354537008178</v>
       </c>
       <c r="N62" t="n">
-        <v>1.546094808865994</v>
+        <v>1.121419555749423</v>
       </c>
       <c r="O62" t="n">
-        <v>1.890040030325902</v>
+        <v>1.271465571869297</v>
       </c>
       <c r="P62" t="n">
-        <v>2.857897659834305</v>
+        <v>1.439845836249319</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.580988368427965</v>
+        <v>1.628312232502576</v>
       </c>
       <c r="R62" t="n">
-        <v>3.490644084261117</v>
+        <v>1.838684881341421</v>
       </c>
       <c r="S62" t="n">
-        <v>4.229412595156254</v>
+        <v>2.072838310965626</v>
       </c>
       <c r="T62" t="n">
-        <v>3.944035785789261</v>
+        <v>2.332685101087303</v>
       </c>
       <c r="U62" t="n">
-        <v>4.479529650594891</v>
+        <v>2.62015704634069</v>
       </c>
       <c r="V62" t="n">
-        <v>2.535199731090991</v>
+        <v>2.937183942112412</v>
       </c>
       <c r="W62" t="n">
-        <v>4.982027147810709</v>
+        <v>3.285670153974389</v>
       </c>
       <c r="X62" t="n">
-        <v>6.030035736771957</v>
+        <v>3.667469189237547</v>
       </c>
       <c r="Y62" t="n">
-        <v>6.991008278458843</v>
+        <v>4.084356543999991</v>
       </c>
       <c r="Z62" t="n">
-        <v>7.818616036510019</v>
+        <v>4.53800114984906</v>
       </c>
       <c r="AA62" t="n">
-        <v>8.716775727338016</v>
+        <v>5.029935789647009</v>
       </c>
       <c r="AB62" t="n">
-        <v>9.96495555965603</v>
+        <v>5.561526890351928</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.840510221186282</v>
+        <v>6.133944131619838</v>
       </c>
       <c r="AD62" t="n">
-        <v>12.18015979859057</v>
+        <v>6.748130331316711</v>
       </c>
       <c r="AE62" t="n">
-        <v>13.40709263910294</v>
+        <v>7.404772082664673</v>
       </c>
       <c r="AF62" t="n">
-        <v>12.1400215586576</v>
+        <v>8.104271622478089</v>
       </c>
       <c r="AG62" t="n">
-        <v>15.71216117542425</v>
+        <v>8.846720406035343</v>
       </c>
       <c r="AH62" t="n">
-        <v>18.41339746587284</v>
+        <v>9.631874852030702</v>
       </c>
       <c r="AI62" t="n">
-        <v>22.24290331114706</v>
+        <v>10.45913470142984</v>
       </c>
       <c r="AJ62" t="n">
-        <v>24.0639416170958</v>
+        <v>11.32752440769085</v>
       </c>
       <c r="AK62" t="n">
-        <v>25.96629300716236</v>
+        <v>12.23567794360001</v>
       </c>
       <c r="AL62" t="n">
-        <v>28.47379089832462</v>
+        <v>13.1818273727618</v>
       </c>
       <c r="AM62" t="n">
-        <v>32.22250858639013</v>
+        <v>14.16379549242093</v>
       </c>
       <c r="AN62" t="n">
-        <v>36.21077068336574</v>
+        <v>15.17899280949582</v>
       </c>
       <c r="AO62" t="n">
-        <v>36.75758365106497</v>
+        <v>16.2244190640676</v>
       </c>
       <c r="AP62" t="n">
-        <v>38.47082330579727</v>
+        <v>17.29666946453898</v>
       </c>
       <c r="AQ62" t="n">
-        <v>40.17453957654518</v>
+        <v>18.39194574654325</v>
       </c>
       <c r="AR62" t="n">
-        <v>43.25593221640392</v>
+        <v>19.5060721136057</v>
       </c>
       <c r="AS62" t="n">
-        <v>55.85138427210291</v>
+        <v>20.63451606160531</v>
       </c>
       <c r="AT62" t="n">
-        <v>45.14592936535819</v>
+        <v>21.77241403124693</v>
       </c>
       <c r="AU62" t="n">
-        <v>42.83404306892727</v>
+        <v>22.91460177307301</v>
       </c>
       <c r="AV62" t="n">
-        <v>45.84533689573762</v>
+        <v>24.05564924807426</v>
       </c>
       <c r="AW62" t="n">
-        <v>48.07033412913471</v>
+        <v>25.18989982392143</v>
       </c>
       <c r="AX62" t="n">
-        <v>50.27648354900647</v>
+        <v>26.31151346261971</v>
       </c>
       <c r="AY62" t="n">
-        <v>52.4520866564655</v>
+        <v>27.41451353056236</v>
       </c>
       <c r="AZ62" t="n">
-        <v>55.48003764249093</v>
+        <v>28.49283679739651</v>
       </c>
       <c r="BA62" t="n">
-        <v>60.31945822790106</v>
+        <v>29.54038612689434</v>
       </c>
       <c r="BB62" t="n">
-        <v>59.60693773512653</v>
+        <v>30.55108530246972</v>
       </c>
       <c r="BC62" t="n">
-        <v>61.55572274314161</v>
+        <v>31.51893537362573</v>
       </c>
       <c r="BD62" t="n">
-        <v>67.25526074066262</v>
+        <v>32.43807185916728</v>
       </c>
       <c r="BE62" t="n">
-        <v>63.21929101256264</v>
+        <v>33.30282210018206</v>
       </c>
       <c r="BF62" t="n">
-        <v>64.83703476479972</v>
+        <v>34.10776202239686</v>
       </c>
       <c r="BG62" t="n">
-        <v>66.33333886119426</v>
+        <v>34.84777154521288</v>
       </c>
       <c r="BH62" t="n">
-        <v>69.68957922381649</v>
+        <v>35.5180878649977</v>
       </c>
       <c r="BI62" t="n">
-        <v>76.9144919577095</v>
+        <v>36.11435584436586</v>
       </c>
       <c r="BJ62" t="n">
-        <v>80</v>
+        <v>36.63267475805264</v>
       </c>
     </row>
   </sheetData>
